--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/input_files/acfrs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{98846B0C-18A0-A946-877E-7C0F92C2C042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E7ED3-4FAC-C143-ADEB-F26EDC44A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15760" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Statement of Net Position'!$B$15:$B$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Statement of Net Position'!$B$20:$B$27</definedName>
     <definedName name="current_assets">'Label Dropdowns'!$B$2:$B$204</definedName>
     <definedName name="current_liabilities">'Label Dropdowns'!$B$205:$B$319</definedName>
     <definedName name="deferred_inflows">'Label Dropdowns'!$B$320:$B$342</definedName>
@@ -44,20 +44,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1662" uniqueCount="1086">
-  <si>
-    <t>City of Clayton</t>
-  </si>
-  <si>
-    <t>Government-Wide</t>
-  </si>
-  <si>
-    <t>Statement of Net Position</t>
-  </si>
-  <si>
-    <t>June 30, 2022</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="1080">
   <si>
     <t>XBRL Element</t>
   </si>
@@ -74,15 +84,9 @@
     <t>Current Assets:</t>
   </si>
   <si>
-    <t>$ -</t>
-  </si>
-  <si>
     <t>acfr:AccountsReceivableNetOfAllowance</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>acfr:AccruedInterestReceivable</t>
   </si>
   <si>
@@ -143,9 +147,6 @@
     <t>LIABILITIES</t>
   </si>
   <si>
-    <t>Current Liabilites:</t>
-  </si>
-  <si>
     <t>acfr:AccountsPayable</t>
   </si>
   <si>
@@ -170,9 +171,6 @@
     <t>Total Current Liabilities</t>
   </si>
   <si>
-    <t>Noncurrent Liabilites:</t>
-  </si>
-  <si>
     <t>acfr:CompensatedAbsencesPayableNonCurrent</t>
   </si>
   <si>
@@ -3296,23 +3294,30 @@
     <t>Municipality</t>
   </si>
   <si>
-    <t>Scope</t>
-  </si>
-  <si>
     <t>Statement</t>
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>Scope (ie. Government-Wide)</t>
+  </si>
+  <si>
+    <t>Current Liabilities:</t>
+  </si>
+  <si>
+    <t>Noncurrent Liabilities:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="[$$-809]#,##0"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -3385,6 +3390,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="11">
     <fill>
@@ -3401,24 +3418,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3431,24 +3430,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="-0.499984740745262"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.249977111117893"/>
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -3484,54 +3501,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="1" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
@@ -3835,10 +3919,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE09D81-CE0E-407C-B6C2-C3432BAC9950}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -3849,5748 +3934,5749 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15">
-      <c r="A1" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>1081</v>
+      <c r="A1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1073</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
-        <v>594</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B3" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
-        <v>595</v>
+        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>436</v>
+        <v>428</v>
       </c>
       <c r="C5" t="s">
-        <v>599</v>
+        <v>591</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B6" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
       <c r="C6" t="s">
-        <v>600</v>
+        <v>592</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B7" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
       <c r="C7" t="s">
-        <v>601</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B8" t="s">
-        <v>429</v>
+        <v>421</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="C9" t="s">
-        <v>602</v>
+        <v>594</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="C10" t="s">
-        <v>603</v>
+        <v>595</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="C11" t="s">
-        <v>604</v>
+        <v>596</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="C12" t="s">
-        <v>608</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="C13" t="s">
-        <v>609</v>
+        <v>601</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="C14" t="s">
-        <v>610</v>
+        <v>602</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B15" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C15" t="s">
-        <v>611</v>
+        <v>603</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B16" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
       <c r="C16" t="s">
-        <v>612</v>
+        <v>604</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="C17" t="s">
-        <v>613</v>
+        <v>605</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>423</v>
+        <v>415</v>
       </c>
       <c r="C18" t="s">
-        <v>614</v>
+        <v>606</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="C19" t="s">
-        <v>615</v>
+        <v>607</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="C20" t="s">
-        <v>616</v>
+        <v>608</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>617</v>
+        <v>609</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C22" t="s">
-        <v>618</v>
+        <v>610</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>619</v>
+        <v>611</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B24" t="s">
-        <v>557</v>
+        <v>549</v>
       </c>
       <c r="C24" t="s">
-        <v>620</v>
+        <v>612</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B25" t="s">
-        <v>554</v>
+        <v>546</v>
       </c>
       <c r="C25" t="s">
-        <v>621</v>
+        <v>613</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B26" t="s">
-        <v>555</v>
+        <v>547</v>
       </c>
       <c r="C26" t="s">
-        <v>622</v>
+        <v>614</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>556</v>
+        <v>548</v>
       </c>
       <c r="C27" t="s">
-        <v>623</v>
+        <v>615</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B28" t="s">
-        <v>368</v>
+        <v>360</v>
       </c>
       <c r="C28" t="s">
-        <v>624</v>
+        <v>616</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>593</v>
+        <v>585</v>
       </c>
       <c r="C29" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B30" t="s">
-        <v>369</v>
+        <v>361</v>
       </c>
       <c r="C30" t="s">
-        <v>626</v>
+        <v>618</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="C31" t="s">
-        <v>627</v>
+        <v>619</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B32" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="C32" t="s">
-        <v>628</v>
+        <v>620</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B33" t="s">
-        <v>366</v>
+        <v>358</v>
       </c>
       <c r="C33" t="s">
-        <v>629</v>
+        <v>621</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>592</v>
+        <v>584</v>
       </c>
       <c r="C34" t="s">
-        <v>630</v>
+        <v>622</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="C35" t="s">
-        <v>631</v>
+        <v>623</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B36" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>632</v>
+        <v>624</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="C37" t="s">
-        <v>633</v>
+        <v>625</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="C38" t="s">
-        <v>634</v>
+        <v>626</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>68</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>74</v>
+        <v>60</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>635</v>
+        <v>627</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="C40" t="s">
-        <v>636</v>
+        <v>628</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B41" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C41" t="s">
-        <v>637</v>
+        <v>629</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C42" t="s">
-        <v>638</v>
+        <v>630</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="C43" t="s">
-        <v>639</v>
+        <v>631</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>419</v>
+        <v>411</v>
       </c>
       <c r="C44" t="s">
-        <v>640</v>
+        <v>632</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="C45" t="s">
-        <v>641</v>
+        <v>633</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B47" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="C47" t="s">
-        <v>642</v>
+        <v>634</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B48" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C48" t="s">
-        <v>643</v>
+        <v>635</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B49" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C49" t="s">
-        <v>644</v>
+        <v>636</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="C50" t="s">
-        <v>645</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B51" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="C51" t="s">
-        <v>646</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="C52" t="s">
-        <v>647</v>
+        <v>639</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B53" t="s">
-        <v>558</v>
+        <v>550</v>
       </c>
       <c r="C53" t="s">
-        <v>648</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B54" t="s">
-        <v>559</v>
+        <v>551</v>
       </c>
       <c r="C54" t="s">
-        <v>649</v>
+        <v>641</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>560</v>
+        <v>552</v>
       </c>
       <c r="C55" t="s">
-        <v>650</v>
+        <v>642</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="C56" t="s">
-        <v>651</v>
+        <v>643</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="C57" t="s">
-        <v>652</v>
+        <v>644</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>421</v>
+        <v>413</v>
       </c>
       <c r="C58" t="s">
-        <v>653</v>
+        <v>645</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B59" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="C59" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="C60" t="s">
-        <v>655</v>
+        <v>647</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="C61" t="s">
-        <v>656</v>
+        <v>648</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="C62" t="s">
-        <v>657</v>
+        <v>649</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B63" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="C63" t="s">
-        <v>658</v>
+        <v>650</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="C64" t="s">
-        <v>659</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="C65" t="s">
-        <v>660</v>
+        <v>652</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B66" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="C66" t="s">
-        <v>661</v>
+        <v>653</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B67" t="s">
-        <v>491</v>
+        <v>483</v>
       </c>
       <c r="C67" t="s">
-        <v>662</v>
+        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B68" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="C68" t="s">
-        <v>663</v>
+        <v>655</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B69" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="C69" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B70" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
       <c r="C70" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B71" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="C71" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C72" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C73" t="s">
-        <v>668</v>
+        <v>660</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="C74" t="s">
-        <v>669</v>
+        <v>661</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B75" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="C75" t="s">
-        <v>670</v>
+        <v>662</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B76" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="C76" t="s">
-        <v>671</v>
+        <v>663</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B77" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="C77" t="s">
-        <v>672</v>
+        <v>664</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B78" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="C78" t="s">
-        <v>673</v>
+        <v>665</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B79" t="s">
-        <v>489</v>
+        <v>481</v>
       </c>
       <c r="C79" t="s">
-        <v>674</v>
+        <v>666</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B80" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="C80" t="s">
-        <v>675</v>
+        <v>667</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C81" t="s">
-        <v>676</v>
+        <v>668</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B82" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="C82" t="s">
-        <v>677</v>
+        <v>669</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B83" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="C83" t="s">
-        <v>678</v>
+        <v>670</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B84" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C84" t="s">
-        <v>679</v>
+        <v>671</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B85" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="C85" t="s">
-        <v>680</v>
+        <v>672</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B86" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C86" t="s">
-        <v>681</v>
+        <v>673</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B87" t="s">
-        <v>370</v>
+        <v>362</v>
       </c>
       <c r="C87" t="s">
-        <v>682</v>
+        <v>674</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B88" t="s">
-        <v>371</v>
+        <v>363</v>
       </c>
       <c r="C88" t="s">
-        <v>683</v>
+        <v>675</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B89" t="s">
-        <v>372</v>
+        <v>364</v>
       </c>
       <c r="C89" t="s">
-        <v>684</v>
+        <v>676</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B90" t="s">
-        <v>529</v>
+        <v>521</v>
       </c>
       <c r="C90" t="s">
-        <v>687</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B91" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
       <c r="C91" t="s">
-        <v>688</v>
+        <v>680</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C92" t="s">
-        <v>689</v>
+        <v>681</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B93" t="s">
-        <v>432</v>
+        <v>424</v>
       </c>
       <c r="C93" t="s">
-        <v>690</v>
+        <v>682</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B94" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="C94" t="s">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B95" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="C95" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B96" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="C96" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B97" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="C97" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B98" t="s">
-        <v>430</v>
+        <v>422</v>
       </c>
       <c r="C98" t="s">
-        <v>695</v>
+        <v>687</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B99" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
       <c r="C99" t="s">
-        <v>696</v>
+        <v>688</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B100" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="C100" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B101" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="C101" t="s">
-        <v>697</v>
+        <v>689</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B102" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C102" t="s">
-        <v>698</v>
+        <v>690</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B103" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C103" t="s">
-        <v>699</v>
+        <v>691</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B104" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C104" t="s">
-        <v>700</v>
+        <v>692</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B105" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="C105" t="s">
-        <v>701</v>
+        <v>693</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B106" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="C106" t="s">
-        <v>702</v>
+        <v>694</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B107" t="s">
-        <v>563</v>
+        <v>555</v>
       </c>
       <c r="C107" t="s">
-        <v>703</v>
+        <v>695</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B108" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="C108" t="s">
-        <v>704</v>
+        <v>696</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B109" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C109" t="s">
-        <v>705</v>
+        <v>697</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B110" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="C110" t="s">
-        <v>706</v>
+        <v>698</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B111" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C111" t="s">
-        <v>707</v>
+        <v>699</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B112" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C112" t="s">
-        <v>708</v>
+        <v>700</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B113" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>709</v>
+        <v>701</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B114" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C114" t="s">
-        <v>710</v>
+        <v>702</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B115" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="C115" t="s">
-        <v>711</v>
+        <v>703</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="C116" t="s">
-        <v>712</v>
+        <v>704</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B117" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="C117" t="s">
-        <v>713</v>
+        <v>705</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B118" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C118" t="s">
-        <v>715</v>
+        <v>707</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B119" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="C119" t="s">
-        <v>717</v>
+        <v>709</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B120" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>718</v>
+        <v>710</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B121" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C121" t="s">
-        <v>719</v>
+        <v>711</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B122" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C122" t="s">
-        <v>720</v>
+        <v>712</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B123" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="C123" t="s">
-        <v>721</v>
+        <v>713</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B124" t="s">
-        <v>444</v>
+        <v>436</v>
       </c>
       <c r="C124" t="s">
-        <v>722</v>
+        <v>714</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B125" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
       <c r="C125" t="s">
-        <v>723</v>
+        <v>715</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C126" t="s">
-        <v>724</v>
+        <v>716</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B127" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="C127" t="s">
-        <v>725</v>
+        <v>717</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B128" t="s">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="C128" t="s">
-        <v>726</v>
+        <v>718</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B129" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C129" t="s">
-        <v>727</v>
+        <v>719</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B130" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="C130" t="s">
-        <v>731</v>
+        <v>723</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B131" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B132" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="C132" t="s">
-        <v>732</v>
+        <v>724</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B133" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="C133" t="s">
-        <v>733</v>
+        <v>725</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B134" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C134" t="s">
-        <v>734</v>
+        <v>726</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B135" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="C135" t="s">
-        <v>735</v>
+        <v>727</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B136" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C136" t="s">
-        <v>736</v>
+        <v>728</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B137" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="C137" t="s">
-        <v>737</v>
+        <v>729</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B138" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="C138" t="s">
-        <v>738</v>
+        <v>730</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B139" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="C139" t="s">
-        <v>739</v>
+        <v>731</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B140" t="s">
-        <v>573</v>
+        <v>565</v>
       </c>
       <c r="C140" t="s">
-        <v>740</v>
+        <v>732</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B141" t="s">
-        <v>531</v>
+        <v>523</v>
       </c>
       <c r="C141" t="s">
-        <v>741</v>
+        <v>733</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C142" t="s">
-        <v>742</v>
+        <v>734</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B143" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="C143" t="s">
-        <v>743</v>
+        <v>735</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B144" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="C144" t="s">
-        <v>744</v>
+        <v>736</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B145" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C145" t="s">
-        <v>745</v>
+        <v>737</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B146" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C146" t="s">
-        <v>746</v>
+        <v>738</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B147" t="s">
-        <v>415</v>
+        <v>407</v>
       </c>
       <c r="C147" t="s">
-        <v>747</v>
+        <v>739</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B148" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="C148" t="s">
-        <v>748</v>
+        <v>740</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B149" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C149" t="s">
-        <v>749</v>
+        <v>741</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B150" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C150" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B151" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="C151" t="s">
-        <v>750</v>
+        <v>742</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B152" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
       <c r="C152" t="s">
-        <v>751</v>
+        <v>743</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B153" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
       <c r="C153" t="s">
-        <v>752</v>
+        <v>744</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B154" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
       <c r="C154" t="s">
-        <v>753</v>
+        <v>745</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B155" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="C155" t="s">
-        <v>754</v>
+        <v>746</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B156" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C156" t="s">
-        <v>755</v>
+        <v>747</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B157" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="C157" t="s">
-        <v>756</v>
+        <v>748</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B158" t="s">
-        <v>564</v>
+        <v>556</v>
       </c>
       <c r="C158" t="s">
-        <v>757</v>
+        <v>749</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B159" t="s">
-        <v>575</v>
+        <v>567</v>
       </c>
       <c r="C159" t="s">
-        <v>758</v>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B160" t="s">
-        <v>572</v>
+        <v>564</v>
       </c>
       <c r="C160" t="s">
-        <v>759</v>
+        <v>751</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B161" t="s">
-        <v>566</v>
+        <v>558</v>
       </c>
       <c r="C161" t="s">
-        <v>760</v>
+        <v>752</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B162" t="s">
-        <v>567</v>
+        <v>559</v>
       </c>
       <c r="C162" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B163" t="s">
-        <v>574</v>
+        <v>566</v>
       </c>
       <c r="C163" t="s">
-        <v>762</v>
+        <v>754</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B164" t="s">
-        <v>561</v>
+        <v>553</v>
       </c>
       <c r="C164" t="s">
-        <v>763</v>
+        <v>755</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B165" t="s">
-        <v>562</v>
+        <v>554</v>
       </c>
       <c r="C165" t="s">
-        <v>764</v>
+        <v>756</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B166" t="s">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="C166" t="s">
-        <v>765</v>
+        <v>757</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B167" t="s">
-        <v>570</v>
+        <v>562</v>
       </c>
       <c r="C167" t="s">
-        <v>766</v>
+        <v>758</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B168" t="s">
-        <v>568</v>
+        <v>560</v>
       </c>
       <c r="C168" t="s">
-        <v>767</v>
+        <v>759</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B169" t="s">
-        <v>565</v>
+        <v>557</v>
       </c>
       <c r="C169" t="s">
-        <v>768</v>
+        <v>760</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B170" t="s">
-        <v>569</v>
+        <v>561</v>
       </c>
       <c r="C170" t="s">
-        <v>769</v>
+        <v>761</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B171" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="C171" t="s">
-        <v>770</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B172" t="s">
-        <v>530</v>
+        <v>522</v>
       </c>
       <c r="C172" t="s">
-        <v>771</v>
+        <v>763</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B173" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="C173" t="s">
-        <v>772</v>
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B174" t="s">
-        <v>420</v>
+        <v>412</v>
       </c>
       <c r="C174" t="s">
-        <v>773</v>
+        <v>765</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B175" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="C175" t="s">
-        <v>774</v>
+        <v>766</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B176" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="C176" t="s">
-        <v>775</v>
+        <v>767</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B177" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C177" t="s">
-        <v>776</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B178" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C178" t="s">
-        <v>777</v>
+        <v>769</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B179" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
       <c r="C179" t="s">
-        <v>778</v>
+        <v>770</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B180" t="s">
-        <v>532</v>
+        <v>524</v>
       </c>
       <c r="C180" t="s">
-        <v>779</v>
+        <v>771</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B181" t="s">
-        <v>526</v>
+        <v>518</v>
       </c>
       <c r="C181" t="s">
-        <v>780</v>
+        <v>772</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B182" t="s">
-        <v>525</v>
+        <v>517</v>
       </c>
       <c r="C182" t="s">
-        <v>781</v>
+        <v>773</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B183" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="C183" t="s">
-        <v>782</v>
+        <v>774</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B184" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C184" t="s">
-        <v>783</v>
+        <v>775</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B185" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="C185" t="s">
-        <v>784</v>
+        <v>776</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B186" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="C186" t="s">
-        <v>785</v>
+        <v>777</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B187" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="C187" t="s">
-        <v>786</v>
+        <v>778</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
+        <v>60</v>
+      </c>
+      <c r="B188" t="s">
         <v>68</v>
       </c>
-      <c r="B188" t="s">
-        <v>76</v>
-      </c>
       <c r="C188" t="s">
-        <v>787</v>
+        <v>779</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B189" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C189" t="s">
-        <v>788</v>
+        <v>780</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="C190" t="s">
-        <v>789</v>
+        <v>781</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B191" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="C191" t="s">
-        <v>790</v>
+        <v>782</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B192" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C192" t="s">
-        <v>791</v>
+        <v>783</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B193" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C193" t="s">
-        <v>792</v>
+        <v>784</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B194" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="C194" t="s">
-        <v>793</v>
+        <v>785</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B195" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="C195" t="s">
-        <v>794</v>
+        <v>786</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B196" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="C196" t="s">
-        <v>795</v>
+        <v>787</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B197" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C197" t="s">
-        <v>796</v>
+        <v>788</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B198" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C198" t="s">
-        <v>797</v>
+        <v>789</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B199" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="C199" t="s">
-        <v>798</v>
+        <v>790</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B200" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="C200" t="s">
-        <v>799</v>
+        <v>791</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B201" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="C201" t="s">
-        <v>800</v>
+        <v>792</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B202" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="C202" t="s">
-        <v>801</v>
+        <v>793</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B203" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
       <c r="C203" t="s">
-        <v>802</v>
+        <v>794</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B204" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C204" t="s">
-        <v>803</v>
+        <v>795</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B205" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="C205" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B206" t="s">
-        <v>534</v>
+        <v>526</v>
       </c>
       <c r="C206" t="s">
-        <v>804</v>
+        <v>796</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B207" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="C207" t="s">
-        <v>805</v>
+        <v>797</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B208" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C208" t="s">
-        <v>806</v>
+        <v>798</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B209" t="s">
-        <v>579</v>
+        <v>571</v>
       </c>
       <c r="C209" t="s">
-        <v>807</v>
+        <v>799</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B210" t="s">
-        <v>580</v>
+        <v>572</v>
       </c>
       <c r="C210" t="s">
-        <v>808</v>
+        <v>800</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B211" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C211" t="s">
-        <v>809</v>
+        <v>801</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B212" t="s">
-        <v>536</v>
+        <v>528</v>
       </c>
       <c r="C212" t="s">
-        <v>810</v>
+        <v>802</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B213" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C213" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B214" t="s">
-        <v>582</v>
+        <v>574</v>
       </c>
       <c r="C214" t="s">
-        <v>812</v>
+        <v>804</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B215" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
       <c r="C215" t="s">
-        <v>813</v>
+        <v>805</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B216" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="C216" t="s">
-        <v>814</v>
+        <v>806</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B217" t="s">
-        <v>496</v>
+        <v>488</v>
       </c>
       <c r="C217" t="s">
-        <v>815</v>
+        <v>807</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B218" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="C218" t="s">
-        <v>816</v>
+        <v>808</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B219" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="C219" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B220" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="C220" t="s">
-        <v>817</v>
+        <v>809</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B221" t="s">
-        <v>377</v>
+        <v>369</v>
       </c>
       <c r="C221" t="s">
-        <v>818</v>
+        <v>810</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B222" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
       <c r="C222" t="s">
-        <v>819</v>
+        <v>811</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B223" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
       <c r="C223" t="s">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B224" t="s">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C224" t="s">
-        <v>821</v>
+        <v>813</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B225" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C225" t="s">
-        <v>822</v>
+        <v>814</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B226" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="C226" t="s">
-        <v>823</v>
+        <v>815</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B227" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="C227" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B228" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="C228" t="s">
-        <v>825</v>
+        <v>817</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B229" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C229" t="s">
-        <v>826</v>
+        <v>818</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B230" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C230" t="s">
-        <v>827</v>
+        <v>819</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B231" t="s">
-        <v>380</v>
+        <v>372</v>
       </c>
       <c r="C231" t="s">
-        <v>828</v>
+        <v>820</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B232" t="s">
-        <v>378</v>
+        <v>370</v>
       </c>
       <c r="C232" t="s">
-        <v>829</v>
+        <v>821</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B233" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C233" t="s">
-        <v>830</v>
+        <v>822</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B234" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="C234" t="s">
-        <v>831</v>
+        <v>823</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B235" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C235" t="s">
-        <v>832</v>
+        <v>824</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B236" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="C236" t="s">
-        <v>833</v>
+        <v>825</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B237" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C237" t="s">
-        <v>834</v>
+        <v>826</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B238" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="C238" t="s">
-        <v>835</v>
+        <v>827</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B239" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="C239" t="s">
-        <v>836</v>
+        <v>828</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B240" t="s">
-        <v>498</v>
+        <v>490</v>
       </c>
       <c r="C240" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B241" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C241" t="s">
-        <v>837</v>
+        <v>829</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B242" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C242" t="s">
-        <v>838</v>
+        <v>830</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B243" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
       <c r="C243" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B244" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C244" t="s">
-        <v>839</v>
+        <v>831</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B245" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C245" t="s">
-        <v>840</v>
+        <v>832</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B246" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="C246" t="s">
-        <v>841</v>
+        <v>833</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B247" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C247" t="s">
-        <v>842</v>
+        <v>834</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B248" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C248" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B249" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C249" t="s">
-        <v>843</v>
+        <v>835</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B250" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="C250" t="s">
-        <v>844</v>
+        <v>836</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B251" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C251" t="s">
-        <v>845</v>
+        <v>837</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B252" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C252" t="s">
-        <v>846</v>
+        <v>838</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B253" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="C253" t="s">
-        <v>847</v>
+        <v>839</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B254" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C254" t="s">
-        <v>848</v>
+        <v>840</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C255" t="s">
-        <v>849</v>
+        <v>841</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B256" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
       <c r="C256" t="s">
-        <v>850</v>
+        <v>842</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B257" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="C257" t="s">
-        <v>851</v>
+        <v>843</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B258" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="C258" t="s">
-        <v>852</v>
+        <v>844</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B259" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C259" t="s">
-        <v>853</v>
+        <v>845</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B260" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="C260" t="s">
-        <v>854</v>
+        <v>846</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B261" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C261" t="s">
-        <v>855</v>
+        <v>847</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B262" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C262" t="s">
-        <v>856</v>
+        <v>848</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B263" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="C263" t="s">
-        <v>857</v>
+        <v>849</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B264" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C264" t="s">
-        <v>858</v>
+        <v>850</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B265" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="C265" t="s">
-        <v>859</v>
+        <v>851</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B266" t="s">
-        <v>364</v>
+        <v>356</v>
       </c>
       <c r="C266" t="s">
-        <v>860</v>
+        <v>852</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B267" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C267" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B268" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="C268" t="s">
-        <v>861</v>
+        <v>853</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B269" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C269" t="s">
-        <v>862</v>
+        <v>854</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B270" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
       <c r="C270" t="s">
-        <v>863</v>
+        <v>855</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B271" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="C271" t="s">
-        <v>864</v>
+        <v>856</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B272" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="C272" t="s">
-        <v>865</v>
+        <v>857</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B273" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="C273" t="s">
-        <v>866</v>
+        <v>858</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B274" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="C274" t="s">
-        <v>867</v>
+        <v>859</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B275" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="C275" t="s">
-        <v>868</v>
+        <v>860</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B276" t="s">
-        <v>360</v>
+        <v>352</v>
       </c>
       <c r="C276" t="s">
-        <v>869</v>
+        <v>861</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B277" t="s">
-        <v>361</v>
+        <v>353</v>
       </c>
       <c r="C277" t="s">
-        <v>870</v>
+        <v>862</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B278" t="s">
-        <v>365</v>
+        <v>357</v>
       </c>
       <c r="C278" t="s">
-        <v>871</v>
+        <v>863</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B279" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
       <c r="C279" t="s">
-        <v>872</v>
+        <v>864</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B280" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C280" t="s">
-        <v>873</v>
+        <v>865</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B281" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C281" t="s">
-        <v>874</v>
+        <v>866</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B282" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C282" t="s">
-        <v>875</v>
+        <v>867</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B283" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C283" t="s">
-        <v>876</v>
+        <v>868</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B284" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="C284" t="s">
-        <v>877</v>
+        <v>869</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B285" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="C285" t="s">
-        <v>878</v>
+        <v>870</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B286" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C286" t="s">
-        <v>879</v>
+        <v>871</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B287" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="C287" t="s">
-        <v>880</v>
+        <v>872</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B288" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C288" t="s">
-        <v>881</v>
+        <v>873</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B289" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="C289" t="s">
-        <v>882</v>
+        <v>874</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B290" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="C290" t="s">
-        <v>883</v>
+        <v>875</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B291" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
       <c r="C291" t="s">
-        <v>884</v>
+        <v>876</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B292" t="s">
-        <v>581</v>
+        <v>573</v>
       </c>
       <c r="C292" t="s">
-        <v>885</v>
+        <v>877</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B293" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="C293" t="s">
-        <v>886</v>
+        <v>878</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B294" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C294" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B295" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="C295" t="s">
-        <v>887</v>
+        <v>879</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B296" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C296" t="s">
-        <v>888</v>
+        <v>880</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B297" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="C297" t="s">
-        <v>889</v>
+        <v>881</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B298" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C298" t="s">
-        <v>890</v>
+        <v>882</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B299" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="C299" t="s">
-        <v>891</v>
+        <v>883</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B300" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="C300" t="s">
-        <v>892</v>
+        <v>884</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B301" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="C301" t="s">
-        <v>893</v>
+        <v>885</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B302" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C302" t="s">
-        <v>894</v>
+        <v>886</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B303" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C303" t="s">
-        <v>895</v>
+        <v>887</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B304" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C304" t="s">
-        <v>896</v>
+        <v>888</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B305" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C305" t="s">
-        <v>897</v>
+        <v>889</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B306" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C306" t="s">
-        <v>898</v>
+        <v>890</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B307" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C307" t="s">
-        <v>899</v>
+        <v>891</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B308" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C308" t="s">
-        <v>900</v>
+        <v>892</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B309" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C309" t="s">
-        <v>901</v>
+        <v>893</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B310" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="C310" t="s">
-        <v>902</v>
+        <v>894</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B311" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="C311" t="s">
-        <v>903</v>
+        <v>895</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B312" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="C312" t="s">
-        <v>904</v>
+        <v>896</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B313" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C313" t="s">
-        <v>905</v>
+        <v>897</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B314" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C314" t="s">
-        <v>906</v>
+        <v>898</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B315" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="C315" t="s">
-        <v>907</v>
+        <v>899</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B316" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="C316" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B317" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C317" t="s">
-        <v>908</v>
+        <v>900</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B318" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C318" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B319" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="C319" t="s">
-        <v>910</v>
+        <v>902</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B320" t="s">
-        <v>500</v>
+        <v>492</v>
       </c>
       <c r="C320" t="s">
-        <v>911</v>
+        <v>903</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B321" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="C321" t="s">
-        <v>912</v>
+        <v>904</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B322" t="s">
-        <v>518</v>
+        <v>510</v>
       </c>
       <c r="C322" t="s">
-        <v>913</v>
+        <v>905</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B323" t="s">
-        <v>521</v>
+        <v>513</v>
       </c>
       <c r="C323" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B324" t="s">
-        <v>519</v>
+        <v>511</v>
       </c>
       <c r="C324" t="s">
-        <v>914</v>
+        <v>906</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B325" t="s">
-        <v>505</v>
+        <v>497</v>
       </c>
       <c r="C325" t="s">
-        <v>915</v>
+        <v>907</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B326" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
       <c r="C326" t="s">
-        <v>916</v>
+        <v>908</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B327" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="C327" t="s">
-        <v>917</v>
+        <v>909</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B328" t="s">
-        <v>506</v>
+        <v>498</v>
       </c>
       <c r="C328" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B329" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C329" t="s">
-        <v>918</v>
+        <v>910</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B330" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="C330" t="s">
-        <v>919</v>
+        <v>911</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B331" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="C331" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B332" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="C332" t="s">
-        <v>920</v>
+        <v>912</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B333" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="C333" t="s">
-        <v>921</v>
+        <v>913</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B334" t="s">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="C334" t="s">
-        <v>922</v>
+        <v>914</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B335" t="s">
-        <v>501</v>
+        <v>493</v>
       </c>
       <c r="C335" t="s">
-        <v>923</v>
+        <v>915</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B336" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
       <c r="C336" t="s">
-        <v>924</v>
+        <v>916</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B337" t="s">
-        <v>499</v>
+        <v>491</v>
       </c>
       <c r="C337" t="s">
-        <v>925</v>
+        <v>917</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B338" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="C338" t="s">
-        <v>926</v>
+        <v>918</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B339" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="C339" t="s">
-        <v>927</v>
+        <v>919</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B340" t="s">
-        <v>516</v>
+        <v>508</v>
       </c>
       <c r="C340" t="s">
-        <v>928</v>
+        <v>920</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B341" t="s">
-        <v>517</v>
+        <v>509</v>
       </c>
       <c r="C341" t="s">
-        <v>929</v>
+        <v>921</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B342" t="s">
-        <v>520</v>
+        <v>512</v>
       </c>
       <c r="C342" t="s">
-        <v>930</v>
+        <v>922</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B343" t="s">
-        <v>543</v>
+        <v>535</v>
       </c>
       <c r="C343" t="s">
-        <v>931</v>
+        <v>923</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B344" t="s">
-        <v>550</v>
+        <v>542</v>
       </c>
       <c r="C344" t="s">
-        <v>932</v>
+        <v>924</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B345" t="s">
-        <v>553</v>
+        <v>545</v>
       </c>
       <c r="C345" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B346" t="s">
-        <v>551</v>
+        <v>543</v>
       </c>
       <c r="C346" t="s">
-        <v>933</v>
+        <v>925</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B347" t="s">
-        <v>537</v>
+        <v>529</v>
       </c>
       <c r="C347" t="s">
-        <v>934</v>
+        <v>926</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B348" t="s">
-        <v>538</v>
+        <v>530</v>
       </c>
       <c r="C348" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B349" t="s">
-        <v>539</v>
+        <v>531</v>
       </c>
       <c r="C349" t="s">
-        <v>935</v>
+        <v>927</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B350" t="s">
-        <v>540</v>
+        <v>532</v>
       </c>
       <c r="C350" t="s">
-        <v>936</v>
+        <v>928</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B351" t="s">
-        <v>542</v>
+        <v>534</v>
       </c>
       <c r="C351" t="s">
-        <v>937</v>
+        <v>929</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B352" t="s">
-        <v>544</v>
+        <v>536</v>
       </c>
       <c r="C352" t="s">
-        <v>938</v>
+        <v>930</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B353" t="s">
-        <v>545</v>
+        <v>537</v>
       </c>
       <c r="C353" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B354" t="s">
-        <v>546</v>
+        <v>538</v>
       </c>
       <c r="C354" t="s">
-        <v>939</v>
+        <v>931</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B355" t="s">
-        <v>547</v>
+        <v>539</v>
       </c>
       <c r="C355" t="s">
-        <v>940</v>
+        <v>932</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B356" t="s">
-        <v>549</v>
+        <v>541</v>
       </c>
       <c r="C356" t="s">
-        <v>941</v>
+        <v>933</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B357" t="s">
-        <v>541</v>
+        <v>533</v>
       </c>
       <c r="C357" t="s">
-        <v>942</v>
+        <v>934</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B358" t="s">
-        <v>548</v>
+        <v>540</v>
       </c>
       <c r="C358" t="s">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B359" t="s">
-        <v>552</v>
+        <v>544</v>
       </c>
       <c r="C359" t="s">
-        <v>944</v>
+        <v>936</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B360" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C360" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B361" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C361" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B362" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="C362" t="s">
-        <v>945</v>
+        <v>937</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B363" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="C363" t="s">
-        <v>946</v>
+        <v>938</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B364" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="C364" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B365" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="C365" t="s">
-        <v>947</v>
+        <v>939</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B366" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="C366" t="s">
-        <v>948</v>
+        <v>940</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B367" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="C367" t="s">
-        <v>949</v>
+        <v>941</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B368" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="C368" t="s">
-        <v>950</v>
+        <v>942</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B369" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="C369" t="s">
-        <v>951</v>
+        <v>943</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B370" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="C370" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B371" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="C371" t="s">
-        <v>953</v>
+        <v>945</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B372" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="C372" t="s">
-        <v>954</v>
+        <v>946</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B373" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="C373" t="s">
-        <v>955</v>
+        <v>947</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B374" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="C374" t="s">
-        <v>956</v>
+        <v>948</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B375" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="C375" t="s">
-        <v>957</v>
+        <v>949</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B376" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="C376" t="s">
-        <v>958</v>
+        <v>950</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B377" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="C377" t="s">
-        <v>959</v>
+        <v>951</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B378" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="C378" t="s">
-        <v>960</v>
+        <v>952</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B379" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="C379" t="s">
-        <v>961</v>
+        <v>953</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B380" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="C380" t="s">
-        <v>962</v>
+        <v>954</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B381" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="C381" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="382" spans="1:3">
-      <c r="A382" s="6" t="s">
-        <v>67</v>
+      <c r="A382" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B382" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
       <c r="C382" t="s">
-        <v>596</v>
+        <v>588</v>
       </c>
     </row>
     <row r="383" spans="1:3">
-      <c r="A383" s="6" t="s">
-        <v>67</v>
+      <c r="A383" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B383" t="s">
-        <v>426</v>
+        <v>418</v>
       </c>
       <c r="C383" t="s">
-        <v>597</v>
+        <v>589</v>
       </c>
     </row>
     <row r="384" spans="1:3">
-      <c r="A384" s="6" t="s">
-        <v>67</v>
+      <c r="A384" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B384" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
       <c r="C384" t="s">
-        <v>598</v>
+        <v>590</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B385" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C385" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B386" t="s">
-        <v>584</v>
+        <v>576</v>
       </c>
       <c r="C386" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B387" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C387" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B388" t="s">
-        <v>388</v>
+        <v>380</v>
       </c>
       <c r="C388" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B389" t="s">
-        <v>381</v>
+        <v>373</v>
       </c>
       <c r="C389" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B390" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="C390" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B391" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="C391" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B392" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
       <c r="C392" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B393" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="C393" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B394" t="s">
-        <v>382</v>
+        <v>374</v>
       </c>
       <c r="C394" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B395" t="s">
-        <v>390</v>
+        <v>382</v>
       </c>
       <c r="C395" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B396" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="C396" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B397" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="C397" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B398" t="s">
-        <v>389</v>
+        <v>381</v>
       </c>
       <c r="C398" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B399" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="C399" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B400" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C400" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
     </row>
     <row r="401" spans="1:3">
-      <c r="A401" s="6" t="s">
-        <v>67</v>
+      <c r="A401" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B401" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="C401" t="s">
-        <v>605</v>
+        <v>597</v>
       </c>
     </row>
     <row r="402" spans="1:3">
-      <c r="A402" s="6" t="s">
-        <v>67</v>
+      <c r="A402" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B402" t="s">
-        <v>590</v>
+        <v>582</v>
       </c>
       <c r="C402" t="s">
-        <v>606</v>
+        <v>598</v>
       </c>
     </row>
     <row r="403" spans="1:3">
-      <c r="A403" s="6" t="s">
-        <v>67</v>
+      <c r="A403" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B403" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="C403" t="s">
-        <v>607</v>
+        <v>599</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B404" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C404" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B405" t="s">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C405" t="s">
-        <v>980</v>
+        <v>972</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B406" t="s">
-        <v>492</v>
+        <v>484</v>
       </c>
       <c r="C406" t="s">
-        <v>981</v>
+        <v>973</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B407" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="C407" t="s">
-        <v>982</v>
+        <v>974</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B408" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
       <c r="C408" t="s">
-        <v>983</v>
+        <v>975</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B409" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="C409" t="s">
-        <v>984</v>
+        <v>976</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B410" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C410" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B411" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C411" t="s">
-        <v>985</v>
+        <v>977</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B412" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="C412" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B413" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="C413" t="s">
-        <v>986</v>
+        <v>978</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B414" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="C414" t="s">
-        <v>987</v>
+        <v>979</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B415" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="C415" t="s">
-        <v>988</v>
+        <v>980</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B416" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
       <c r="C416" t="s">
-        <v>989</v>
+        <v>981</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B417" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C417" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B418" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C418" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B419" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C419" t="s">
-        <v>992</v>
+        <v>984</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B420" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C420" t="s">
-        <v>993</v>
+        <v>985</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B421" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C421" t="s">
-        <v>994</v>
+        <v>986</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B422" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="C422" t="s">
-        <v>995</v>
+        <v>987</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B423" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C423" t="s">
-        <v>996</v>
+        <v>988</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B424" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C424" t="s">
-        <v>997</v>
+        <v>989</v>
       </c>
     </row>
     <row r="425" spans="1:3">
-      <c r="A425" s="6" t="s">
-        <v>67</v>
+      <c r="A425" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B425" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="C425" t="s">
-        <v>685</v>
+        <v>677</v>
       </c>
     </row>
     <row r="426" spans="1:3">
-      <c r="A426" s="6" t="s">
-        <v>67</v>
+      <c r="A426" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B426" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="C426" t="s">
-        <v>686</v>
+        <v>678</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B427" t="s">
-        <v>494</v>
+        <v>486</v>
       </c>
       <c r="C427" t="s">
-        <v>998</v>
+        <v>990</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B428" t="s">
-        <v>588</v>
+        <v>580</v>
       </c>
       <c r="C428" t="s">
-        <v>999</v>
+        <v>991</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B429" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C429" t="s">
-        <v>1000</v>
+        <v>992</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B430" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="C430" t="s">
-        <v>1001</v>
+        <v>993</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B431" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C431" t="s">
-        <v>1002</v>
+        <v>994</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B432" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="C432" t="s">
-        <v>1003</v>
+        <v>995</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B433" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="C433" t="s">
-        <v>1004</v>
+        <v>996</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B434" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C434" t="s">
-        <v>1005</v>
+        <v>997</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B435" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C435" t="s">
-        <v>1006</v>
+        <v>998</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B436" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="C436" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B437" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
       <c r="C437" t="s">
-        <v>1007</v>
+        <v>999</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B438" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="C438" t="s">
-        <v>1008</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B439" t="s">
-        <v>522</v>
+        <v>514</v>
       </c>
       <c r="C439" t="s">
-        <v>1009</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B440" t="s">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C440" t="s">
-        <v>1010</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B441" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C441" t="s">
-        <v>1011</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B442" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="C442" t="s">
-        <v>1012</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B443" t="s">
-        <v>493</v>
+        <v>485</v>
       </c>
       <c r="C443" t="s">
-        <v>1013</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B444" t="s">
+        <v>575</v>
+      </c>
+      <c r="C444" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3">
+      <c r="A445" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B445" t="s">
         <v>583</v>
       </c>
-      <c r="C444" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="445" spans="1:3">
-      <c r="A445" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="B445" t="s">
-        <v>591</v>
-      </c>
       <c r="C445" t="s">
-        <v>714</v>
+        <v>706</v>
       </c>
     </row>
     <row r="446" spans="1:3">
-      <c r="A446" s="6" t="s">
-        <v>67</v>
+      <c r="A446" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B446" t="s">
-        <v>589</v>
+        <v>581</v>
       </c>
       <c r="C446" t="s">
-        <v>716</v>
+        <v>708</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B447" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="C447" t="s">
-        <v>1015</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B448" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C448" t="s">
-        <v>1016</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B449" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C449" t="s">
-        <v>1017</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B450" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C450" t="s">
-        <v>1018</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B451" t="s">
-        <v>585</v>
+        <v>577</v>
       </c>
       <c r="C451" t="s">
-        <v>1019</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B452" t="s">
-        <v>586</v>
+        <v>578</v>
       </c>
       <c r="C452" t="s">
-        <v>1020</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B453" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C453" t="s">
-        <v>1021</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B454" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C454" t="s">
-        <v>1022</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B455" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C455" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B456" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C456" t="s">
-        <v>1023</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="457" spans="1:3">
-      <c r="A457" s="6" t="s">
-        <v>67</v>
+      <c r="A457" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B457" t="s">
-        <v>422</v>
+        <v>414</v>
       </c>
       <c r="C457" t="s">
-        <v>728</v>
+        <v>720</v>
       </c>
     </row>
     <row r="458" spans="1:3">
-      <c r="A458" s="6" t="s">
-        <v>67</v>
+      <c r="A458" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B458" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="C458" t="s">
-        <v>729</v>
+        <v>721</v>
       </c>
     </row>
     <row r="459" spans="1:3">
-      <c r="A459" s="6" t="s">
-        <v>67</v>
+      <c r="A459" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="B459" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="C459" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B460" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C460" t="s">
-        <v>1024</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B461" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C461" t="s">
-        <v>1025</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B462" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="C462" t="s">
-        <v>1026</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B463" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C463" t="s">
-        <v>1027</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B464" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C464" t="s">
-        <v>1028</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B465" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C465" t="s">
-        <v>1029</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B466" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C466" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B467" t="s">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="C467" t="s">
-        <v>1030</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B468" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C468" t="s">
-        <v>1031</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B469" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="C469" t="s">
-        <v>1032</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B470" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C470" t="s">
-        <v>1033</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B471" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C471" t="s">
-        <v>1034</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B472" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C472" t="s">
-        <v>1035</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B473" t="s">
-        <v>587</v>
+        <v>579</v>
       </c>
       <c r="C473" t="s">
-        <v>1036</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B474" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C474" t="s">
-        <v>1037</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B475" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="C475" t="s">
-        <v>1038</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B476" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C476" t="s">
-        <v>1039</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B477" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="C477" t="s">
-        <v>1040</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B478" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C478" t="s">
-        <v>1041</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B479" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="C479" t="s">
-        <v>1042</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B480" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C480" t="s">
-        <v>1043</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B481" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="C481" t="s">
-        <v>1044</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B482" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C482" t="s">
-        <v>1045</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B483" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="C483" t="s">
-        <v>1046</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B484" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C484" t="s">
-        <v>1047</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B485" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C485" t="s">
-        <v>1048</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B486" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C486" t="s">
-        <v>1049</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B487" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C487" t="s">
-        <v>1050</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B488" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C488" t="s">
-        <v>1051</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B489" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C489" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B490" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C490" t="s">
-        <v>1052</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B491" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="C491" t="s">
-        <v>1053</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B492" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C492" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B493" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="C493" t="s">
-        <v>1054</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B494" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C494" t="s">
-        <v>1055</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B495" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C495" t="s">
-        <v>1056</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B496" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C496" t="s">
-        <v>1057</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B497" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C497" t="s">
-        <v>1058</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B498" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C498" t="s">
-        <v>1059</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B499" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C499" t="s">
-        <v>1060</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B500" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C500" t="s">
-        <v>1061</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B501" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C501" t="s">
-        <v>1062</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B502" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C502" t="s">
-        <v>1063</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B503" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C503" t="s">
-        <v>1064</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B504" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C504" t="s">
-        <v>1065</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B505" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C505" t="s">
-        <v>1066</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B506" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C506" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B507" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="C507" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B508" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="C508" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B509" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="C509" t="s">
-        <v>1067</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B510" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C510" t="s">
-        <v>1068</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B511" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C511" t="s">
-        <v>1069</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B512" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C512" t="s">
-        <v>1070</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B513" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C513" t="s">
-        <v>1071</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B514" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C514" t="s">
-        <v>1072</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B515" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C515" t="s">
-        <v>1073</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B516" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C516" t="s">
-        <v>1074</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B517" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C517" t="s">
-        <v>1075</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B518" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C518" t="s">
-        <v>1076</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B519" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C519" t="s">
-        <v>1077</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B520" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C520" t="s">
-        <v>1078</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B521" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C521" t="s">
-        <v>1079</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B522" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C522" t="s">
-        <v>1080</v>
+        <v>1072</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C522">
     <sortCondition ref="A2:A522"/>
     <sortCondition ref="B2:B522"/>
@@ -9602,845 +9688,968 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69404329-355D-4401-83F9-DCE9B92C9B36}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A1:E56"/>
+  <dimension ref="A2:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="38.83203125" customWidth="1"/>
-    <col min="2" max="2" width="41.5" customWidth="1"/>
-    <col min="3" max="5" width="18.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" style="25" customWidth="1"/>
+    <col min="2" max="2" width="41.5" style="25" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16">
-      <c r="A1" s="8" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B1" s="9" t="s">
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="5" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B3" s="23"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B4" s="23"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" ht="16">
+      <c r="A5" s="6" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" s="28" customFormat="1" ht="16">
+      <c r="A6" s="7"/>
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+    </row>
+    <row r="7" spans="1:5" ht="32">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
-    <row r="2" spans="1:5" ht="16">
-      <c r="A2" s="8" t="s">
-        <v>1083</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" ht="16">
-      <c r="A3" s="8" t="s">
-        <v>1084</v>
-      </c>
-      <c r="B3" s="9" t="s">
+      <c r="D7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="10" t="s">
-        <v>1085</v>
-      </c>
-      <c r="B4" s="11" t="s">
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="32">
-      <c r="A5" s="25" t="s">
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15">
-      <c r="A6" s="13"/>
-      <c r="B6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="15">
-      <c r="A7" s="13"/>
-      <c r="B7" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-    </row>
-    <row r="8" spans="1:5" ht="15">
-      <c r="A8" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B8,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:CashAndCashEquivalentsAndInvestments</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="C8" s="18">
-        <v>13441679</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="10" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19">
+        <f>SUM(C10:D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="10" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19">
+        <f t="shared" ref="E11:E29" si="0">SUM(C11:D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="10" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="10" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="10" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="19">
+        <f t="shared" ref="E14" si="1">SUM(C14:D14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="10" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19">
+        <f t="shared" ref="E15:E16" si="2">SUM(C15:D15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="10" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="10" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19">
+        <f t="shared" ref="E17" si="3">SUM(C17:D17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="18">
-        <v>13441679</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:AccountsReceivableNetOfAllowance</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>324</v>
-      </c>
-      <c r="C9" s="20">
-        <v>1133315</v>
-      </c>
-      <c r="D9" s="19" t="s">
+      <c r="B18" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="19" cm="1">
+        <f t="array" aca="1" ref="C18" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="19" cm="1">
+        <f t="array" aca="1" ref="D18" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="19">
+        <f ca="1">SUM(C18:D18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="9"/>
+      <c r="B19" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="20">
-        <v>1133315</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15">
-      <c r="A10" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:AccruedInterestReceivable</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>429</v>
-      </c>
-      <c r="C10" s="20">
-        <v>25257</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="20">
-        <v>25257</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15">
-      <c r="A11" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:InternalBalance</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>475</v>
-      </c>
-      <c r="C11" s="20">
-        <v>120893</v>
-      </c>
-      <c r="D11" s="20">
-        <v>-120893</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15">
-      <c r="A12" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:PrepaidExpenses</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="20">
-        <v>52578</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="20">
-        <v>52578</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15">
-      <c r="A13" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="31"/>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="10" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="10" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="10" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="10" t="str">
+        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="10" t="str">
+        <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="10" t="str">
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="19">
+        <f t="shared" ref="E25" si="4">SUM(C25:D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="10" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="10" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="21"/>
+      <c r="E27" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="28" customFormat="1" ht="15">
+      <c r="A28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="20">
-        <v>14773722</v>
-      </c>
-      <c r="D13" s="20">
-        <v>-120893</v>
-      </c>
-      <c r="E13" s="20">
-        <v>14652829</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15" t="s">
+      <c r="B28" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-    </row>
-    <row r="15" spans="1:5" ht="15">
-      <c r="A15" s="16" t="s">
+      <c r="C28" s="19" cm="1">
+        <f t="array" aca="1" ref="C28" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="19" cm="1">
+        <f t="array" aca="1" ref="D28" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B15" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="20">
-        <v>3170453</v>
-      </c>
-      <c r="D15" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="20">
-        <v>3170453</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15">
-      <c r="A16" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:NotesAndLoansReceivableNoncurrent</v>
-      </c>
-      <c r="B16" s="17" t="s">
-        <v>477</v>
-      </c>
-      <c r="C16" s="20">
-        <v>3311550</v>
-      </c>
-      <c r="D16" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="20">
-        <v>3311550</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="15">
-      <c r="A17" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:CapitalAssetsNotBeingDepreciated</v>
-      </c>
-      <c r="B17" s="17" t="s">
-        <v>258</v>
-      </c>
-      <c r="C17" s="20">
-        <v>3133754</v>
-      </c>
-      <c r="D17" s="20">
-        <v>167738</v>
-      </c>
-      <c r="E17" s="20">
-        <v>3301492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:CapitalAssetsBeingDepreciatedNet</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="20">
-        <v>25982451</v>
-      </c>
-      <c r="D18" s="20">
-        <v>841465</v>
-      </c>
-      <c r="E18" s="20">
-        <v>26823916</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="17" t="s">
+      <c r="B29" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="32">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="32">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="32">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="9"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="9"/>
+      <c r="B31" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="10" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="19">
+        <f t="shared" ref="E32:E37" si="5">SUM(C32:D32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="10" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="19">
+        <f t="shared" ref="E33:E35" si="6">SUM(C33:D33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="10" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="10" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+      <c r="E35" s="19">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="10" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="22"/>
+      <c r="D36" s="22"/>
+      <c r="E36" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="20">
-        <v>35598208</v>
-      </c>
-      <c r="D19" s="20">
-        <v>1009203</v>
-      </c>
-      <c r="E19" s="20">
-        <v>36607411</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="15">
-      <c r="A20" s="16" t="s">
+      <c r="B37" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="C37" s="34" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="34" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="35">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="9"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="33"/>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C20" s="20">
-        <v>50371930</v>
-      </c>
-      <c r="D20" s="20">
-        <v>888310</v>
-      </c>
-      <c r="E20" s="20">
-        <v>51260240</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-    </row>
-    <row r="22" spans="1:5" ht="15">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="14"/>
-    </row>
-    <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:DeferredOutflowsOfResourcesPension</v>
-      </c>
-      <c r="B23" s="17" t="s">
-        <v>545</v>
-      </c>
-      <c r="C23" s="20">
-        <v>1285641</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="20">
-        <v>1285641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B24,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:DeferredOutflowsOfResourcesOPEB</v>
-      </c>
-      <c r="B24" s="17" t="s">
-        <v>538</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D24" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15">
-      <c r="A25" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" s="20">
-        <v>1285641</v>
-      </c>
-      <c r="D25" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="20">
-        <v>1285641</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="22"/>
-    </row>
-    <row r="27" spans="1:5" ht="15">
-      <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-    </row>
-    <row r="28" spans="1:5" ht="15">
-      <c r="A28" s="13"/>
-      <c r="B28" s="15" t="s">
+      <c r="C39" s="15"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C40" s="18"/>
+      <c r="D40" s="18"/>
+      <c r="E40" s="18"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="10" t="str">
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="21"/>
+      <c r="E41" s="19">
+        <f t="shared" ref="E41:E56" si="7">SUM(C41:D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="10" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="22"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="10" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="10" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="10" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="10" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19">
+        <f t="shared" ref="E46" si="8">SUM(C46:D46)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="10" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:AccountsPayable</v>
-      </c>
-      <c r="B29" s="17" t="s">
-        <v>451</v>
-      </c>
-      <c r="C29" s="20">
-        <v>149907</v>
-      </c>
-      <c r="D29" s="20">
-        <v>2671</v>
-      </c>
-      <c r="E29" s="20">
-        <v>152578</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:DepositsHeldforOthers</v>
-      </c>
-      <c r="B30" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D30" s="20">
-        <v>5500</v>
-      </c>
-      <c r="E30" s="20">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:AccruedWagesPayable</v>
-      </c>
-      <c r="B31" s="17" t="s">
-        <v>577</v>
-      </c>
-      <c r="C31" s="21">
+      <c r="B48" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="19" cm="1">
+        <f t="array" aca="1" ref="C48" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="19" cm="1">
+        <f t="array" aca="1" ref="D48" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="19">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="9"/>
+      <c r="B49" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="10" t="str">
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="10" t="str">
+        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B51" s="20"/>
+      <c r="C51" s="21"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="19">
+        <f t="shared" ref="E51" si="9">SUM(C51:D51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="10" t="str">
+        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B52" s="20"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="10" t="str">
+        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B53" s="20"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="10" t="str">
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="19">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D31" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="21">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15">
-      <c r="A32" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:UnearnedRevenue</v>
-      </c>
-      <c r="B32" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C32" s="20">
-        <v>332166</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E32" s="20">
-        <v>332166</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15">
-      <c r="A33" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:CompensatedAbsencesPayableCurrent</v>
-      </c>
-      <c r="B33" s="17" t="s">
-        <v>498</v>
-      </c>
-      <c r="C33" s="20">
-        <v>83645</v>
-      </c>
-      <c r="D33" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E33" s="20">
-        <v>83645</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15">
-      <c r="A34" s="16" t="s">
+      <c r="B55" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="17" t="s">
-        <v>317</v>
-      </c>
-      <c r="C34" s="20">
-        <v>74358</v>
-      </c>
-      <c r="D34" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E34" s="20">
-        <v>74358</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15">
-      <c r="A35" s="16" t="s">
+      <c r="C55" s="19" cm="1">
+        <f t="array" aca="1" ref="C55" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D55" s="19" cm="1">
+        <f t="array" aca="1" ref="D55" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E55" s="19">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B56" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="C35" s="20">
-        <v>640113</v>
-      </c>
-      <c r="D35" s="20">
-        <v>8171</v>
-      </c>
-      <c r="E35" s="20">
-        <v>648284</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15">
-      <c r="A36" s="13"/>
-      <c r="B36" s="15" t="s">
+      <c r="C56" s="32">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="32">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E56" s="32">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="9"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="9"/>
+      <c r="B58" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-    </row>
-    <row r="37" spans="1:5" ht="15">
-      <c r="A37" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="17" t="s">
-        <v>211</v>
-      </c>
-      <c r="C37" s="20">
-        <v>83645</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E37" s="20">
-        <v>83645</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B38,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:NetOPEBLiability</v>
-      </c>
-      <c r="B38" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="C38" s="20">
-        <v>578315</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E38" s="20">
-        <v>578315</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="15">
-      <c r="A39" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B39,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:NetPensionLiability</v>
-      </c>
-      <c r="B39" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="C39" s="20">
-        <v>2759739</v>
-      </c>
-      <c r="D39" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39" s="20">
-        <v>2759739</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15">
-      <c r="A40" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B40,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:LeasesPayableDueInMoreThanOneYear</v>
-      </c>
-      <c r="B40" s="17" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="20">
-        <v>244640</v>
-      </c>
-      <c r="D40" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E40" s="20">
-        <v>244640</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15">
-      <c r="A41" s="16" t="s">
+      <c r="C58" s="15"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="15"/>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="10" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="37">
+        <f t="shared" ref="E59:E64" si="10">SUM(C59:D59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="10" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="37">
+        <f t="shared" ref="E60:E62" si="11">SUM(C60:D60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="10" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="10" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="37">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="10" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="22"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="37">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="B41" s="17" t="s">
+      <c r="C64" s="35" cm="1">
+        <f t="array" aca="1" ref="C64" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D64" s="35" cm="1">
+        <f t="array" aca="1" ref="D64" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E64" s="35">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="9"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="38"/>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="9"/>
+      <c r="B66" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="C41" s="20">
-        <v>3666339</v>
-      </c>
-      <c r="D41" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E41" s="20">
-        <v>3666339</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15">
-      <c r="A42" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="B42" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="20">
-        <v>4306452</v>
-      </c>
-      <c r="D42" s="20">
-        <v>8171</v>
-      </c>
-      <c r="E42" s="20">
-        <v>4314623</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15">
-      <c r="A43" s="13"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="22"/>
-      <c r="E43" s="22"/>
-    </row>
-    <row r="44" spans="1:5" ht="15">
-      <c r="A44" s="13"/>
-      <c r="B44" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="14"/>
-      <c r="D44" s="14"/>
-      <c r="E44" s="14"/>
-    </row>
-    <row r="45" spans="1:5" ht="15">
-      <c r="A45" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:DeferredInflowsOfResourcesPension</v>
-      </c>
-      <c r="B45" s="17" t="s">
-        <v>513</v>
-      </c>
-      <c r="C45" s="20">
-        <v>2471384</v>
-      </c>
-      <c r="D45" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="20">
-        <v>2471384</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="15">
-      <c r="A46" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:DeferredInflowsOfResourcesOPEB</v>
-      </c>
-      <c r="B46" s="17" t="s">
-        <v>506</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" s="19" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="15">
-      <c r="A47" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="20">
-        <v>2471384</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E47" s="20">
-        <v>2471384</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="13"/>
-      <c r="B48" s="24"/>
-      <c r="C48" s="24"/>
-      <c r="D48" s="24"/>
-      <c r="E48" s="24"/>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="13"/>
-      <c r="B49" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C49" s="14"/>
-      <c r="D49" s="14"/>
-      <c r="E49" s="14"/>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:NetInvestmentInCapitalAssets</v>
-      </c>
-      <c r="B50" s="17" t="s">
-        <v>195</v>
-      </c>
-      <c r="C50" s="20">
-        <v>29116205</v>
-      </c>
-      <c r="D50" s="20">
-        <v>1009203</v>
-      </c>
-      <c r="E50" s="20">
-        <v>30125408</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B51,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:RestrictedNetPositionForCapitalProjects</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>453</v>
-      </c>
-      <c r="C51" s="20">
-        <v>9890048</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E51" s="20">
-        <v>9890048</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="16" t="str">
-        <f>_xlfn.XLOOKUP(B52,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522)</f>
-        <v>acfr:UnrestrictedNetPosition</v>
-      </c>
-      <c r="B52" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="C52" s="20">
-        <v>5873482</v>
-      </c>
-      <c r="D52" s="20">
-        <v>-129064</v>
-      </c>
-      <c r="E52" s="20">
-        <v>5744418</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53" s="18">
-        <v>44879735</v>
-      </c>
-      <c r="D53" s="18">
-        <v>880139</v>
-      </c>
-      <c r="E53" s="18">
-        <v>45759874</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="15">
-      <c r="B54" s="2"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="55" spans="1:5" ht="15">
-      <c r="B55" s="29"/>
-      <c r="C55" s="29"/>
-      <c r="D55" s="29"/>
-      <c r="E55" s="29"/>
-    </row>
-    <row r="56" spans="1:5" ht="16">
-      <c r="C56" s="4"/>
+      <c r="C66" s="15"/>
+      <c r="D66" s="15"/>
+      <c r="E66" s="15"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="10" t="str">
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="21"/>
+      <c r="E67" s="19">
+        <f t="shared" ref="E67:E72" si="12">SUM(C67:D67)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="10" t="str">
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="21"/>
+      <c r="E68" s="19">
+        <f t="shared" ref="E68:E69" si="13">SUM(C68:D68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="10" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="21"/>
+      <c r="E69" s="19">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="10" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="10" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="21"/>
+      <c r="E71" s="19">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="32" cm="1">
+        <f t="array" aca="1" ref="C72" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="32" cm="1">
+        <f t="array" aca="1" ref="D72" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="32">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="B73" s="39"/>
+      <c r="C73" s="40"/>
+      <c r="D73" s="40"/>
+      <c r="E73" s="40"/>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" ht="16">
+      <c r="C75" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B55:E55"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
+  <mergeCells count="2">
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="B19:E19"/>
   </mergeCells>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B8:B12" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
-      <formula1>current_assets</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B23:B24" xr:uid="{C6F2327E-A14D-45C3-8C61-E24259C3C0C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:B36" xr:uid="{C6F2327E-A14D-45C3-8C61-E24259C3C0C2}">
       <formula1>deferred_outflows</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16:B18 B15" xr:uid="{C5389767-4746-46E5-BA25-2828BE7E61BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B47" xr:uid="{61E20EE0-1A7F-49E9-A665-97287F53A86E}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B54" xr:uid="{01A12B58-D8F7-4A4C-8642-43B379BF3185}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B63" xr:uid="{D2A1AADB-B38D-4100-8257-A24270B336AA}">
+      <formula1>deferred_inflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B71" xr:uid="{D1E44EE8-79C2-481B-86D5-297405A0C1B3}">
+      <formula1>net_position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B27" xr:uid="{C5389767-4746-46E5-BA25-2828BE7E61BB}">
       <formula1>noncurrent_assets</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B29:B34" xr:uid="{61E20EE0-1A7F-49E9-A665-97287F53A86E}">
-      <formula1>current_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B37:B40" xr:uid="{01A12B58-D8F7-4A4C-8642-43B379BF3185}">
-      <formula1>noncurrent_liabilities</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45:B46" xr:uid="{D2A1AADB-B38D-4100-8257-A24270B336AA}">
-      <formula1>deferred_inflows</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B52" xr:uid="{D1E44EE8-79C2-481B-86D5-297405A0C1B3}">
-      <formula1>net_position</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B17" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
+      <formula1>current_assets</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD1E7ED3-4FAC-C143-ADEB-F26EDC44A3D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9AD47-08EC-104D-B0E7-BBA795373795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Statement of Net Position'!$B$20:$B$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
     <definedName name="current_assets">'Label Dropdowns'!$B$2:$B$204</definedName>
     <definedName name="current_liabilities">'Label Dropdowns'!$B$205:$B$319</definedName>
     <definedName name="deferred_inflows">'Label Dropdowns'!$B$320:$B$342</definedName>
@@ -67,7 +67,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1601" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="1082">
+  <si>
+    <t>Statement of Net Position</t>
+  </si>
   <si>
     <t>XBRL Element</t>
   </si>
@@ -3307,15 +3310,17 @@
   </si>
   <si>
     <t>Noncurrent Liabilities:</t>
+  </si>
+  <si>
+    <t>Calculated Total Net Position</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="[$$-809]#,##0"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -3544,32 +3549,32 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="10" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
@@ -3587,39 +3592,120 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="44" fontId="13" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="44" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="1" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3935,5744 +4021,5744 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15">
       <c r="A1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C2" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C3" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C5" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C6" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C9" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C12" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C15" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C16" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C17" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C18" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C19" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C20" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C21" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C22" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C23" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C24" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C25" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C26" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C27" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C28" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="C29" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B30" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C30" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B31" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C31" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B32" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="C32" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B33" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C33" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C34" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C35" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C36" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C40" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C41" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B42" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C42" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C43" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B44" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C44" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C47" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B48" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C48" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B49" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C49" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B50" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C50" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C51" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B52" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C52" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C53" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B54" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C54" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C55" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C56" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B57" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C57" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C58" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C59" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C61" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C62" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C63" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B64" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C64" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C65" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C66" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C67" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B68" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C68" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B69" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C69" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B70" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="C70" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C72" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C73" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C74" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B75" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C75" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B76" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C76" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B77" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="C77" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C78" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B79" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C79" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="C80" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C81" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C82" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B83" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C83" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B84" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C84" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B85" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C85" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B86" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C86" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B87" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C87" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B88" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C88" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B89" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C89" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B90" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C90" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B91" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C91" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B92" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C92" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B93" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C93" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B94" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C94" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B95" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C95" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B96" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C96" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B97" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C97" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B98" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C98" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C99" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B100" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B101" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C101" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B102" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C102" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B103" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C103" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B104" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C104" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B105" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C105" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B106" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C106" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B107" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C107" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B108" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C108" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C109" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C110" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B111" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C111" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B112" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C112" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B113" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C113" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B114" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C114" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B115" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C115" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B116" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C116" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B117" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C117" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B118" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C118" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B119" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C119" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B120" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C120" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C121" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B122" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C122" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B123" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C123" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B124" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C124" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B125" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C125" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B126" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C126" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C127" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B128" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C128" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B129" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C129" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B130" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C130" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B131" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B132" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C132" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B133" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C133" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B134" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C134" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B135" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C135" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B136" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C136" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B137" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C137" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C138" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B139" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C139" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B140" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C140" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B141" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C141" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B142" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C142" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B143" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C143" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B144" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C144" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B145" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C145" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B146" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C146" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B147" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C147" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B148" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C148" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B149" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C149" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B150" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B151" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C151" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B152" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C152" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B153" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C153" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B154" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C154" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B155" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C155" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B156" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C156" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B157" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C157" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B158" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C158" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B159" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C159" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B160" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C160" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B161" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C161" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B162" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="C162" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B163" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C163" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B164" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C164" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B165" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C165" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B166" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="C166" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B167" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C167" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B168" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C168" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B169" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C169" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B170" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="C170" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B171" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C171" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B172" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C172" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B173" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C173" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B174" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C174" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B175" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C175" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B176" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C176" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="177" spans="1:3">
       <c r="A177" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B177" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C177" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
     </row>
     <row r="178" spans="1:3">
       <c r="A178" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B178" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C178" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B179" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C179" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B180" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C180" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B181" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="C181" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B182" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C182" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
     </row>
     <row r="183" spans="1:3">
       <c r="A183" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B183" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C183" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B184" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C184" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B185" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C185" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B186" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C186" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
     </row>
     <row r="187" spans="1:3">
       <c r="A187" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B187" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C187" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B188" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C188" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B189" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C189" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B190" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C190" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
     </row>
     <row r="191" spans="1:3">
       <c r="A191" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C191" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="192" spans="1:3">
       <c r="A192" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B192" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C192" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
     </row>
     <row r="193" spans="1:3">
       <c r="A193" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B193" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C193" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
     </row>
     <row r="194" spans="1:3">
       <c r="A194" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B194" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C194" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
     </row>
     <row r="195" spans="1:3">
       <c r="A195" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B195" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C195" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
     </row>
     <row r="196" spans="1:3">
       <c r="A196" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B196" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C196" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
     </row>
     <row r="197" spans="1:3">
       <c r="A197" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B197" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C197" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B198" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C198" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B199" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C199" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B200" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C200" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B201" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C201" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B202" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C202" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B203" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C203" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="204" spans="1:3">
       <c r="A204" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B204" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C204" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
     </row>
     <row r="205" spans="1:3">
       <c r="A205" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B205" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C205" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="206" spans="1:3">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B206" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C206" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
     </row>
     <row r="207" spans="1:3">
       <c r="A207" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B207" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C207" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B208" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C208" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B209" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C209" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B210" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C210" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B211" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C211" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B212" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C212" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
     </row>
     <row r="213" spans="1:3">
       <c r="A213" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B213" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C213" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
     </row>
     <row r="214" spans="1:3">
       <c r="A214" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B214" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C214" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="215" spans="1:3">
       <c r="A215" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B215" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C215" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
     </row>
     <row r="216" spans="1:3">
       <c r="A216" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B216" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C216" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
     </row>
     <row r="217" spans="1:3">
       <c r="A217" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B217" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C217" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
     </row>
     <row r="218" spans="1:3">
       <c r="A218" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B218" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C218" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
     </row>
     <row r="219" spans="1:3">
       <c r="A219" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B219" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="C219" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="220" spans="1:3">
       <c r="A220" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C220" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
     </row>
     <row r="221" spans="1:3">
       <c r="A221" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B221" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C221" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="222" spans="1:3">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B222" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C222" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
     </row>
     <row r="223" spans="1:3">
       <c r="A223" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B223" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C223" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
     </row>
     <row r="224" spans="1:3">
       <c r="A224" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B224" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C224" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
     </row>
     <row r="225" spans="1:3">
       <c r="A225" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B225" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C225" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
     </row>
     <row r="226" spans="1:3">
       <c r="A226" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B226" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C226" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="227" spans="1:3">
       <c r="A227" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B227" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C227" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="228" spans="1:3">
       <c r="A228" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B228" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C228" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
     </row>
     <row r="229" spans="1:3">
       <c r="A229" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B229" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C229" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
     </row>
     <row r="230" spans="1:3">
       <c r="A230" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B230" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C230" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
     </row>
     <row r="231" spans="1:3">
       <c r="A231" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B231" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C231" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
     </row>
     <row r="232" spans="1:3">
       <c r="A232" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B232" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C232" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
     </row>
     <row r="233" spans="1:3">
       <c r="A233" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B233" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C233" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="234" spans="1:3">
       <c r="A234" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B234" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C234" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B235" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C235" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B236" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C236" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
     </row>
     <row r="237" spans="1:3">
       <c r="A237" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B237" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C237" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
     </row>
     <row r="238" spans="1:3">
       <c r="A238" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B238" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C238" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
     </row>
     <row r="239" spans="1:3">
       <c r="A239" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B239" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C239" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B240" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C240" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B241" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C241" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
     </row>
     <row r="242" spans="1:3">
       <c r="A242" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B242" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C242" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
     </row>
     <row r="243" spans="1:3">
       <c r="A243" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B243" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C243" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="244" spans="1:3">
       <c r="A244" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B244" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C244" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B245" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C245" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B246" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="C246" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
     </row>
     <row r="247" spans="1:3">
       <c r="A247" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B247" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C247" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
     </row>
     <row r="248" spans="1:3">
       <c r="A248" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B248" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C248" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="249" spans="1:3">
       <c r="A249" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B249" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C249" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B250" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C250" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B251" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C251" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
     </row>
     <row r="252" spans="1:3">
       <c r="A252" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B252" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C252" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
     </row>
     <row r="253" spans="1:3">
       <c r="A253" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B253" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C253" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
     </row>
     <row r="254" spans="1:3">
       <c r="A254" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B254" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C254" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B255" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C255" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C256" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="257" spans="1:3">
       <c r="A257" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B257" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C257" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
     </row>
     <row r="258" spans="1:3">
       <c r="A258" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B258" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C258" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
     </row>
     <row r="259" spans="1:3">
       <c r="A259" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B259" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C259" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B260" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C260" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B261" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C261" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
     </row>
     <row r="262" spans="1:3">
       <c r="A262" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B262" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C262" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
     </row>
     <row r="263" spans="1:3">
       <c r="A263" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B263" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C263" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
     </row>
     <row r="264" spans="1:3">
       <c r="A264" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B264" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C264" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
     </row>
     <row r="265" spans="1:3">
       <c r="A265" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B265" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C265" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
     </row>
     <row r="266" spans="1:3">
       <c r="A266" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B266" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C266" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
     </row>
     <row r="267" spans="1:3">
       <c r="A267" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B267" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C267" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="268" spans="1:3">
       <c r="A268" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B268" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C268" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="269" spans="1:3">
       <c r="A269" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B269" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C269" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="270" spans="1:3">
       <c r="A270" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B270" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C270" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
     </row>
     <row r="271" spans="1:3">
       <c r="A271" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B271" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C271" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
     </row>
     <row r="272" spans="1:3">
       <c r="A272" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B272" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C272" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
     </row>
     <row r="273" spans="1:3">
       <c r="A273" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B273" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C273" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="274" spans="1:3">
       <c r="A274" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B274" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C274" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
     </row>
     <row r="275" spans="1:3">
       <c r="A275" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B275" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C275" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
     </row>
     <row r="276" spans="1:3">
       <c r="A276" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B276" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C276" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
     </row>
     <row r="277" spans="1:3">
       <c r="A277" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B277" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C277" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
     </row>
     <row r="278" spans="1:3">
       <c r="A278" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B278" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C278" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
     </row>
     <row r="279" spans="1:3">
       <c r="A279" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B279" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C279" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
     </row>
     <row r="280" spans="1:3">
       <c r="A280" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B280" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C280" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
     </row>
     <row r="281" spans="1:3">
       <c r="A281" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B281" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C281" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
     </row>
     <row r="282" spans="1:3">
       <c r="A282" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B282" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C282" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
     </row>
     <row r="283" spans="1:3">
       <c r="A283" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B283" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C283" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
     </row>
     <row r="284" spans="1:3">
       <c r="A284" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B284" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C284" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
     </row>
     <row r="285" spans="1:3">
       <c r="A285" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B285" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C285" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
     </row>
     <row r="286" spans="1:3">
       <c r="A286" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B286" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C286" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
     </row>
     <row r="287" spans="1:3">
       <c r="A287" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B287" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C287" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
     </row>
     <row r="288" spans="1:3">
       <c r="A288" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B288" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C288" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="289" spans="1:3">
       <c r="A289" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B289" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C289" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
     </row>
     <row r="290" spans="1:3">
       <c r="A290" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B290" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C290" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="291" spans="1:3">
       <c r="A291" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B291" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C291" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
     </row>
     <row r="292" spans="1:3">
       <c r="A292" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B292" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="C292" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
     </row>
     <row r="293" spans="1:3">
       <c r="A293" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B293" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C293" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
     </row>
     <row r="294" spans="1:3">
       <c r="A294" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B294" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C294" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="295" spans="1:3">
       <c r="A295" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B295" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C295" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
     </row>
     <row r="296" spans="1:3">
       <c r="A296" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B296" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C296" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
     </row>
     <row r="297" spans="1:3">
       <c r="A297" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B297" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C297" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="298" spans="1:3">
       <c r="A298" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B298" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C298" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
     </row>
     <row r="299" spans="1:3">
       <c r="A299" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B299" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C299" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
     </row>
     <row r="300" spans="1:3">
       <c r="A300" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B300" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C300" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
     </row>
     <row r="301" spans="1:3">
       <c r="A301" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B301" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C301" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
     </row>
     <row r="302" spans="1:3">
       <c r="A302" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B302" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C302" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
     </row>
     <row r="303" spans="1:3">
       <c r="A303" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B303" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C303" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="304" spans="1:3">
       <c r="A304" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B304" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C304" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="305" spans="1:3">
       <c r="A305" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B305" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C305" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="306" spans="1:3">
       <c r="A306" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B306" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C306" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="307" spans="1:3">
       <c r="A307" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B307" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C307" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
     </row>
     <row r="308" spans="1:3">
       <c r="A308" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B308" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C308" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
     </row>
     <row r="309" spans="1:3">
       <c r="A309" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B309" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C309" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
     </row>
     <row r="310" spans="1:3">
       <c r="A310" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B310" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C310" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B311" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C311" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B312" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C312" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="313" spans="1:3">
       <c r="A313" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B313" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C313" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
     </row>
     <row r="314" spans="1:3">
       <c r="A314" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B314" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C314" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B315" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C315" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
     </row>
     <row r="316" spans="1:3">
       <c r="A316" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B316" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C316" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="317" spans="1:3">
       <c r="A317" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B317" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C317" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B318" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C318" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B319" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C319" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
     </row>
     <row r="320" spans="1:3">
       <c r="A320" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B320" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="C320" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
     </row>
     <row r="321" spans="1:3">
       <c r="A321" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B321" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C321" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B322" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="C322" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
     </row>
     <row r="323" spans="1:3">
       <c r="A323" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B323" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C323" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="324" spans="1:3">
       <c r="A324" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B324" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C324" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B325" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C325" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B326" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C326" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
     </row>
     <row r="327" spans="1:3">
       <c r="A327" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B327" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C327" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
     </row>
     <row r="328" spans="1:3">
       <c r="A328" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B328" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="C328" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B329" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C329" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
     </row>
     <row r="330" spans="1:3">
       <c r="A330" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B330" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C330" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
     </row>
     <row r="331" spans="1:3">
       <c r="A331" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B331" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C331" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B332" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C332" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B333" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C333" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
     </row>
     <row r="334" spans="1:3">
       <c r="A334" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B334" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C334" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
     </row>
     <row r="335" spans="1:3">
       <c r="A335" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B335" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C335" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B336" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C336" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
     </row>
     <row r="337" spans="1:3">
       <c r="A337" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B337" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C337" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="338" spans="1:3">
       <c r="A338" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B338" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C338" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B339" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C339" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B340" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C340" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B341" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C341" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
     </row>
     <row r="342" spans="1:3">
       <c r="A342" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B342" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C342" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B343" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C343" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
     </row>
     <row r="344" spans="1:3">
       <c r="A344" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B344" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C344" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
     </row>
     <row r="345" spans="1:3">
       <c r="A345" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B345" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C345" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B346" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C346" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B347" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C347" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B348" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C348" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="349" spans="1:3">
       <c r="A349" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B349" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C349" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B350" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C350" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
     </row>
     <row r="351" spans="1:3">
       <c r="A351" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B351" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C351" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
     </row>
     <row r="352" spans="1:3">
       <c r="A352" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B352" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C352" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
     </row>
     <row r="353" spans="1:3">
       <c r="A353" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B353" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C353" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="354" spans="1:3">
       <c r="A354" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B354" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C354" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
     </row>
     <row r="355" spans="1:3">
       <c r="A355" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B355" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C355" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
     </row>
     <row r="356" spans="1:3">
       <c r="A356" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B356" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C356" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="357" spans="1:3">
       <c r="A357" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B357" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C357" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="358" spans="1:3">
       <c r="A358" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B358" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C358" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="359" spans="1:3">
       <c r="A359" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B359" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C359" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="360" spans="1:3">
       <c r="A360" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B360" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C360" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="361" spans="1:3">
       <c r="A361" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B361" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C361" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="362" spans="1:3">
       <c r="A362" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B362" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="C362" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
     </row>
     <row r="363" spans="1:3">
       <c r="A363" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B363" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C363" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
     </row>
     <row r="364" spans="1:3">
       <c r="A364" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B364" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C364" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="365" spans="1:3">
       <c r="A365" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B365" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C365" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
     </row>
     <row r="366" spans="1:3">
       <c r="A366" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B366" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C366" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
     </row>
     <row r="367" spans="1:3">
       <c r="A367" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B367" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C367" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="368" spans="1:3">
       <c r="A368" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B368" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C368" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
     </row>
     <row r="369" spans="1:3">
       <c r="A369" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B369" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C369" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
     </row>
     <row r="370" spans="1:3">
       <c r="A370" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B370" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C370" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
     </row>
     <row r="371" spans="1:3">
       <c r="A371" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B371" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C371" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
     </row>
     <row r="372" spans="1:3">
       <c r="A372" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B372" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C372" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="373" spans="1:3">
       <c r="A373" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B373" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C373" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="374" spans="1:3">
       <c r="A374" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B374" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C374" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="375" spans="1:3">
       <c r="A375" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B375" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C375" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
     </row>
     <row r="376" spans="1:3">
       <c r="A376" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B376" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C376" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
     </row>
     <row r="377" spans="1:3">
       <c r="A377" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B377" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C377" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
     </row>
     <row r="378" spans="1:3">
       <c r="A378" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B378" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C378" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
     </row>
     <row r="379" spans="1:3">
       <c r="A379" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B379" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C379" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
     </row>
     <row r="380" spans="1:3">
       <c r="A380" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B380" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C380" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
     </row>
     <row r="381" spans="1:3">
       <c r="A381" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B381" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C381" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="382" spans="1:3">
       <c r="A382" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B382" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C382" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="383" spans="1:3">
       <c r="A383" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B383" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C383" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="384" spans="1:3">
       <c r="A384" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B384" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C384" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="385" spans="1:3">
       <c r="A385" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B385" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C385" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
     </row>
     <row r="386" spans="1:3">
       <c r="A386" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B386" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C386" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
     </row>
     <row r="387" spans="1:3">
       <c r="A387" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B387" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C387" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="388" spans="1:3">
       <c r="A388" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B388" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C388" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
     </row>
     <row r="389" spans="1:3">
       <c r="A389" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B389" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C389" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
     </row>
     <row r="390" spans="1:3">
       <c r="A390" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B390" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C390" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
     </row>
     <row r="391" spans="1:3">
       <c r="A391" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B391" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C391" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
     </row>
     <row r="392" spans="1:3">
       <c r="A392" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B392" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C392" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
     </row>
     <row r="393" spans="1:3">
       <c r="A393" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B393" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C393" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
     </row>
     <row r="394" spans="1:3">
       <c r="A394" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B394" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C394" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
     </row>
     <row r="395" spans="1:3">
       <c r="A395" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B395" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C395" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
     </row>
     <row r="396" spans="1:3">
       <c r="A396" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B396" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="C396" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
     </row>
     <row r="397" spans="1:3">
       <c r="A397" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B397" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="C397" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
     </row>
     <row r="398" spans="1:3">
       <c r="A398" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B398" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C398" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
     </row>
     <row r="399" spans="1:3">
       <c r="A399" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B399" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C399" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="400" spans="1:3">
       <c r="A400" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B400" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C400" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
     </row>
     <row r="401" spans="1:3">
       <c r="A401" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B401" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="C401" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="402" spans="1:3">
       <c r="A402" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B402" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C402" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="403" spans="1:3">
       <c r="A403" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B403" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="C403" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="404" spans="1:3">
       <c r="A404" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B404" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C404" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
     </row>
     <row r="405" spans="1:3">
       <c r="A405" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B405" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C405" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
     </row>
     <row r="406" spans="1:3">
       <c r="A406" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B406" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C406" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
     </row>
     <row r="407" spans="1:3">
       <c r="A407" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B407" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C407" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
     </row>
     <row r="408" spans="1:3">
       <c r="A408" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B408" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C408" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="409" spans="1:3">
       <c r="A409" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B409" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C409" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="410" spans="1:3">
       <c r="A410" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B410" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C410" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="411" spans="1:3">
       <c r="A411" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B411" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C411" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="412" spans="1:3">
       <c r="A412" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B412" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C412" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="413" spans="1:3">
       <c r="A413" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B413" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C413" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
     </row>
     <row r="414" spans="1:3">
       <c r="A414" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B414" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C414" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
     </row>
     <row r="415" spans="1:3">
       <c r="A415" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B415" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C415" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
     </row>
     <row r="416" spans="1:3">
       <c r="A416" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B416" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C416" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="417" spans="1:3">
       <c r="A417" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B417" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C417" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
     </row>
     <row r="418" spans="1:3">
       <c r="A418" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B418" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C418" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
     </row>
     <row r="419" spans="1:3">
       <c r="A419" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B419" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C419" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
     </row>
     <row r="420" spans="1:3">
       <c r="A420" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B420" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C420" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
     </row>
     <row r="421" spans="1:3">
       <c r="A421" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B421" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C421" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
     </row>
     <row r="422" spans="1:3">
       <c r="A422" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B422" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C422" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="423" spans="1:3">
       <c r="A423" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B423" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C423" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
     </row>
     <row r="424" spans="1:3">
       <c r="A424" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B424" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C424" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
     </row>
     <row r="425" spans="1:3">
       <c r="A425" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B425" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C425" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="426" spans="1:3">
       <c r="A426" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B426" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C426" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="427" spans="1:3">
       <c r="A427" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B427" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="C427" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
     </row>
     <row r="428" spans="1:3">
       <c r="A428" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B428" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C428" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
     </row>
     <row r="429" spans="1:3">
       <c r="A429" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B429" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C429" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
     </row>
     <row r="430" spans="1:3">
       <c r="A430" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B430" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C430" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
     </row>
     <row r="431" spans="1:3">
       <c r="A431" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B431" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C431" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
     </row>
     <row r="432" spans="1:3">
       <c r="A432" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B432" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C432" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
     </row>
     <row r="433" spans="1:3">
       <c r="A433" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B433" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C433" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
     </row>
     <row r="434" spans="1:3">
       <c r="A434" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B434" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C434" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
     </row>
     <row r="435" spans="1:3">
       <c r="A435" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B435" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C435" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
     </row>
     <row r="436" spans="1:3">
       <c r="A436" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B436" t="s">
+        <v>56</v>
+      </c>
+      <c r="C436" t="s">
         <v>55</v>
-      </c>
-      <c r="C436" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="437" spans="1:3">
       <c r="A437" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B437" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C437" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="438" spans="1:3">
       <c r="A438" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B438" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C438" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="439" spans="1:3">
       <c r="A439" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B439" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C439" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="440" spans="1:3">
       <c r="A440" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B440" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C440" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="441" spans="1:3">
       <c r="A441" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B441" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C441" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="442" spans="1:3">
       <c r="A442" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B442" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C442" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="443" spans="1:3">
       <c r="A443" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B443" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C443" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="444" spans="1:3">
       <c r="A444" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B444" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C444" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="445" spans="1:3">
       <c r="A445" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B445" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C445" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
     </row>
     <row r="446" spans="1:3">
       <c r="A446" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B446" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C446" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
     </row>
     <row r="447" spans="1:3">
       <c r="A447" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B447" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C447" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="448" spans="1:3">
       <c r="A448" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B448" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C448" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="449" spans="1:3">
       <c r="A449" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B449" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C449" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="450" spans="1:3">
       <c r="A450" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B450" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C450" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="451" spans="1:3">
       <c r="A451" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B451" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C451" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="452" spans="1:3">
       <c r="A452" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B452" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C452" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="453" spans="1:3">
       <c r="A453" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B453" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C453" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="454" spans="1:3">
       <c r="A454" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B454" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C454" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="455" spans="1:3">
       <c r="A455" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B455" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C455" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="456" spans="1:3">
       <c r="A456" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B456" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C456" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="457" spans="1:3">
       <c r="A457" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B457" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C457" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
     </row>
     <row r="458" spans="1:3">
       <c r="A458" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B458" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C458" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
     </row>
     <row r="459" spans="1:3">
       <c r="A459" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B459" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C459" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="460" spans="1:3">
       <c r="A460" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B460" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C460" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="461" spans="1:3">
       <c r="A461" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B461" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C461" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="462" spans="1:3">
       <c r="A462" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B462" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C462" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="463" spans="1:3">
       <c r="A463" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B463" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C463" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="464" spans="1:3">
       <c r="A464" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B464" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C464" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="465" spans="1:3">
       <c r="A465" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B465" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C465" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="466" spans="1:3">
       <c r="A466" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B466" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C466" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="467" spans="1:3">
       <c r="A467" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B467" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C467" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="468" spans="1:3">
       <c r="A468" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B468" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C468" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="469" spans="1:3">
       <c r="A469" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B469" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C469" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="470" spans="1:3">
       <c r="A470" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B470" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C470" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="471" spans="1:3">
       <c r="A471" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B471" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C471" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="472" spans="1:3">
       <c r="A472" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B472" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C472" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="473" spans="1:3">
       <c r="A473" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B473" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C473" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="474" spans="1:3">
       <c r="A474" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B474" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C474" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="475" spans="1:3">
       <c r="A475" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B475" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C475" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="476" spans="1:3">
       <c r="A476" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B476" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C476" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="477" spans="1:3">
       <c r="A477" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B477" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C477" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="478" spans="1:3">
       <c r="A478" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B478" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C478" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
     </row>
     <row r="479" spans="1:3">
       <c r="A479" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B479" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C479" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="480" spans="1:3">
       <c r="A480" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B480" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C480" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="481" spans="1:3">
       <c r="A481" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B481" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C481" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="482" spans="1:3">
       <c r="A482" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B482" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C482" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="483" spans="1:3">
       <c r="A483" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B483" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C483" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="484" spans="1:3">
       <c r="A484" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B484" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C484" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="485" spans="1:3">
       <c r="A485" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B485" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C485" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="486" spans="1:3">
       <c r="A486" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B486" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C486" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="487" spans="1:3">
       <c r="A487" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B487" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C487" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="488" spans="1:3">
       <c r="A488" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B488" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C488" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="489" spans="1:3">
       <c r="A489" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B489" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C489" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="490" spans="1:3">
       <c r="A490" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B490" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C490" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="491" spans="1:3">
       <c r="A491" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B491" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C491" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="492" spans="1:3">
       <c r="A492" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B492" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C492" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="493" spans="1:3">
       <c r="A493" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B493" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C493" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="494" spans="1:3">
       <c r="A494" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B494" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C494" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="495" spans="1:3">
       <c r="A495" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B495" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C495" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="496" spans="1:3">
       <c r="A496" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B496" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C496" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="497" spans="1:3">
       <c r="A497" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B497" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C497" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="498" spans="1:3">
       <c r="A498" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B498" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C498" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="499" spans="1:3">
       <c r="A499" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B499" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C499" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="500" spans="1:3">
       <c r="A500" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B500" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C500" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="501" spans="1:3">
       <c r="A501" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B501" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C501" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="502" spans="1:3">
       <c r="A502" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B502" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C502" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="503" spans="1:3">
       <c r="A503" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B503" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C503" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="504" spans="1:3">
       <c r="A504" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B504" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C504" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="505" spans="1:3">
       <c r="A505" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B505" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C505" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="506" spans="1:3">
       <c r="A506" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B506" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C506" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="507" spans="1:3">
       <c r="A507" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B507" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C507" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="508" spans="1:3">
       <c r="A508" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B508" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C508" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="509" spans="1:3">
       <c r="A509" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B509" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C509" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="510" spans="1:3">
       <c r="A510" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B510" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C510" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="511" spans="1:3">
       <c r="A511" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B511" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C511" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="512" spans="1:3">
       <c r="A512" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B512" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C512" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="513" spans="1:3">
       <c r="A513" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B513" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C513" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="514" spans="1:3">
       <c r="A514" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B514" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C514" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
     </row>
     <row r="515" spans="1:3">
       <c r="A515" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B515" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C515" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="516" spans="1:3">
       <c r="A516" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B516" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C516" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="517" spans="1:3">
       <c r="A517" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B517" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C517" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
     </row>
     <row r="518" spans="1:3">
       <c r="A518" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B518" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C518" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="519" spans="1:3">
       <c r="A519" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B519" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C519" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="520" spans="1:3">
       <c r="A520" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B520" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C520" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="521" spans="1:3">
       <c r="A521" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B521" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C521" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="522" spans="1:3">
       <c r="A522" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B522" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C522" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
     </row>
   </sheetData>
@@ -9688,23 +9774,31 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69404329-355D-4401-83F9-DCE9B92C9B36}">
   <sheetPr codeName="Sheet8"/>
-  <dimension ref="A2:E75"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
+      <selection activeCell="B93" sqref="B93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="23.6640625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="41.5" style="25" customWidth="1"/>
-    <col min="3" max="5" width="18.6640625" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="25"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
     <row r="2" spans="1:5" ht="16">
       <c r="A2" s="5" t="s">
-        <v>1074</v>
+        <v>1078</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="4"/>
@@ -9713,70 +9807,76 @@
     </row>
     <row r="3" spans="1:5" ht="16">
       <c r="A3" s="5" t="s">
-        <v>1077</v>
-      </c>
-      <c r="B3" s="23"/>
+        <v>1076</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5" ht="16">
-      <c r="A4" s="5" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B4" s="23"/>
+      <c r="A4" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B4" s="24"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
     </row>
-    <row r="5" spans="1:5" ht="16">
-      <c r="A5" s="6" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-    </row>
-    <row r="6" spans="1:5" s="28" customFormat="1" ht="16">
-      <c r="A6" s="7"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-    </row>
-    <row r="7" spans="1:5" ht="32">
-      <c r="A7" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14" t="s">
+    <row r="5" spans="1:5" s="27" customFormat="1" ht="16">
+      <c r="A5" s="7"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+    </row>
+    <row r="6" spans="1:5" ht="32">
+      <c r="A6" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14" t="s">
         <v>2</v>
       </c>
+      <c r="D6" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15">
+      <c r="A7" s="9"/>
+      <c r="B7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="15"/>
     </row>
     <row r="8" spans="1:5" ht="15">
       <c r="A8" s="9"/>
-      <c r="B8" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="15"/>
+      <c r="B8" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
     </row>
     <row r="9" spans="1:5" ht="15">
-      <c r="A9" s="9"/>
-      <c r="B9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
+      <c r="A9" s="10" t="str">
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19">
+        <f>SUM(C9:D9)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:5" ht="15">
       <c r="A10" s="10" t="str">
@@ -9787,7 +9887,7 @@
       <c r="C10" s="21"/>
       <c r="D10" s="22"/>
       <c r="E10" s="19">
-        <f>SUM(C10:D10)</f>
+        <f t="shared" ref="E10:E38" si="0">SUM(C10:D10)</f>
         <v>0</v>
       </c>
     </row>
@@ -9800,7 +9900,7 @@
       <c r="C11" s="21"/>
       <c r="D11" s="22"/>
       <c r="E11" s="19">
-        <f t="shared" ref="E11:E29" si="0">SUM(C11:D11)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9826,7 +9926,7 @@
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
       <c r="E13" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E13" si="1">SUM(C13:D13)</f>
         <v>0</v>
       </c>
     </row>
@@ -9839,7 +9939,7 @@
       <c r="C14" s="21"/>
       <c r="D14" s="22"/>
       <c r="E14" s="19">
-        <f t="shared" ref="E14" si="1">SUM(C14:D14)</f>
+        <f t="shared" ref="E14" si="2">SUM(C14:D14)</f>
         <v>0</v>
       </c>
     </row>
@@ -9852,7 +9952,7 @@
       <c r="C15" s="21"/>
       <c r="D15" s="22"/>
       <c r="E15" s="19">
-        <f t="shared" ref="E15:E16" si="2">SUM(C15:D15)</f>
+        <f t="shared" ref="E15:E17" si="3">SUM(C15:D15)</f>
         <v>0</v>
       </c>
     </row>
@@ -9865,7 +9965,7 @@
       <c r="C16" s="21"/>
       <c r="D16" s="22"/>
       <c r="E16" s="19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -9878,40 +9978,37 @@
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="19">
-        <f t="shared" ref="E17" si="3">SUM(C17:D17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="15">
-      <c r="A18" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="19" cm="1">
-        <f t="array" aca="1" ref="C18" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    <row r="18" spans="1:5" ht="15" hidden="1">
+      <c r="A18" s="10" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19">
+        <f t="shared" ref="E18:E21" si="4">SUM(C18:D18)</f>
         <v>0</v>
       </c>
-      <c r="D18" s="19" cm="1">
-        <f t="array" aca="1" ref="D18" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    </row>
+    <row r="19" spans="1:5" ht="15" hidden="1">
+      <c r="A19" s="10" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="19">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="E18" s="19">
-        <f ca="1">SUM(C18:D18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15">
-      <c r="A19" s="9"/>
-      <c r="B19" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="31"/>
-    </row>
-    <row r="20" spans="1:5" ht="15">
+    </row>
+    <row r="20" spans="1:5" ht="15" hidden="1">
       <c r="A20" s="10" t="str">
         <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -9920,11 +10017,11 @@
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="15">
+    <row r="21" spans="1:5" ht="15" hidden="1">
       <c r="A21" s="10" t="str">
         <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -9933,48 +10030,51 @@
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="15">
+    <row r="22" spans="1:5" ht="15" hidden="1">
       <c r="A22" s="10" t="str">
         <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="19">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E22" si="5">SUM(C22:D22)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15">
-      <c r="A23" s="10" t="str">
-        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="19" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
       <c r="E23" s="19">
-        <f t="shared" si="0"/>
+        <f ca="1">SUM(C23:D23)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="15">
-      <c r="A24" s="10" t="str">
-        <f>IF(B24="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B24,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="10" t="str">
@@ -9983,9 +10083,9 @@
       </c>
       <c r="B25" s="20"/>
       <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
+      <c r="D25" s="22"/>
       <c r="E25" s="19">
-        <f t="shared" ref="E25" si="4">SUM(C25:D25)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -9996,7 +10096,7 @@
       </c>
       <c r="B26" s="20"/>
       <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
+      <c r="D26" s="22"/>
       <c r="E26" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -10007,179 +10107,186 @@
         <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
+      <c r="D27" s="22"/>
       <c r="E27" s="19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="28" customFormat="1" ht="15">
-      <c r="A28" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="19" cm="1">
-        <f t="array" aca="1" ref="C28" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="10" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D28" s="19" cm="1">
-        <f t="array" aca="1" ref="D28" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="10" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="E28" s="19">
-        <f t="shared" ca="1" si="0"/>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="10" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19">
+        <f t="shared" ref="E30" si="6">SUM(C30:D30)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15">
-      <c r="A29" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29" s="32">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="10" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D29" s="32">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="32">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15">
-      <c r="A30" s="9"/>
-      <c r="B30" s="9"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-    </row>
-    <row r="31" spans="1:5" ht="15">
-      <c r="A31" s="9"/>
-      <c r="B31" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-    </row>
-    <row r="32" spans="1:5" ht="15">
+    </row>
+    <row r="32" spans="1:5" ht="15" hidden="1">
       <c r="A32" s="10" t="str">
         <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="D32" s="21"/>
       <c r="E32" s="19">
-        <f t="shared" ref="E32:E37" si="5">SUM(C32:D32)</f>
+        <f t="shared" ref="E32:E35" si="7">SUM(C32:D32)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="15">
+    <row r="33" spans="1:5" ht="15" hidden="1">
       <c r="A33" s="10" t="str">
         <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="D33" s="21"/>
       <c r="E33" s="19">
-        <f t="shared" ref="E33:E35" si="6">SUM(C33:D33)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="15">
+    <row r="34" spans="1:5" ht="15" hidden="1">
       <c r="A34" s="10" t="str">
         <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="D34" s="21"/>
       <c r="E34" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="15">
+    <row r="35" spans="1:5" ht="15" hidden="1">
       <c r="A35" s="10" t="str">
         <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="D35" s="21"/>
       <c r="E35" s="19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="15">
+    <row r="36" spans="1:5" ht="15" hidden="1">
       <c r="A36" s="10" t="str">
         <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B36" s="20"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="22"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
       <c r="E36" s="19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="15">
+    <row r="37" spans="1:5" s="27" customFormat="1" ht="15">
       <c r="A37" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="C37" s="34" cm="1">
-        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>17</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="19" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>0</v>
       </c>
-      <c r="D37" s="34" cm="1">
-        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+      <c r="D37" s="19" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>0</v>
       </c>
-      <c r="E37" s="35">
-        <f t="shared" ca="1" si="5"/>
+      <c r="E37" s="19">
+        <f t="shared" ca="1" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="33"/>
+      <c r="A38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="28">
+        <f t="shared" ca="1" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" spans="1:5" ht="15">
       <c r="A39" s="9"/>
-      <c r="B39" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
     </row>
     <row r="40" spans="1:5" ht="15">
       <c r="A40" s="9"/>
-      <c r="B40" s="17" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
+      <c r="B40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
     </row>
     <row r="41" spans="1:5" ht="15">
       <c r="A41" s="10" t="str">
@@ -10188,9 +10295,9 @@
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
+      <c r="D41" s="22"/>
       <c r="E41" s="19">
-        <f t="shared" ref="E41:E56" si="7">SUM(C41:D41)</f>
+        <f t="shared" ref="E41:E50" si="8">SUM(C41:D41)</f>
         <v>0</v>
       </c>
     </row>
@@ -10200,10 +10307,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B42" s="20"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="21"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
       <c r="E42" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E42:E44" si="9">SUM(C42:D42)</f>
         <v>0</v>
       </c>
     </row>
@@ -10216,7 +10323,7 @@
       <c r="C43" s="21"/>
       <c r="D43" s="22"/>
       <c r="E43" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10229,7 +10336,7 @@
       <c r="C44" s="21"/>
       <c r="D44" s="22"/>
       <c r="E44" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -10242,11 +10349,11 @@
       <c r="C45" s="21"/>
       <c r="D45" s="22"/>
       <c r="E45" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E45" si="10">SUM(C45:D45)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:5" ht="15">
+    <row r="46" spans="1:5" ht="15" hidden="1">
       <c r="A46" s="10" t="str">
         <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -10255,11 +10362,11 @@
       <c r="C46" s="21"/>
       <c r="D46" s="22"/>
       <c r="E46" s="19">
-        <f t="shared" ref="E46" si="8">SUM(C46:D46)</f>
+        <f t="shared" ref="E46:E48" si="11">SUM(C46:D46)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="15">
+    <row r="47" spans="1:5" ht="15" hidden="1">
       <c r="A47" s="10" t="str">
         <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -10268,90 +10375,80 @@
       <c r="C47" s="21"/>
       <c r="D47" s="22"/>
       <c r="E47" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="15">
-      <c r="A48" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="19" cm="1">
-        <f t="array" aca="1" ref="C48" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    <row r="48" spans="1:5" ht="15" hidden="1">
+      <c r="A48" s="10" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="19">
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="D48" s="19" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    </row>
+    <row r="49" spans="1:5" ht="15" hidden="1">
+      <c r="A49" s="10" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="19">
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="E48" s="19">
-        <f t="shared" ca="1" si="7"/>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="30" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" ht="15">
-      <c r="A49" s="9"/>
-      <c r="B49" s="17" t="s">
+      <c r="D50" s="30" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="31">
+        <f t="shared" ca="1" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="9"/>
+      <c r="B53" s="17" t="s">
         <v>1079</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-    </row>
-    <row r="50" spans="1:5" ht="15">
-      <c r="A50" s="10" t="str">
-        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="15">
-      <c r="A51" s="10" t="str">
-        <f>IF(B51="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B51,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="19">
-        <f t="shared" ref="E51" si="9">SUM(C51:D51)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="15">
-      <c r="A52" s="10" t="str">
-        <f>IF(B52="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B52,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="22"/>
-      <c r="E52" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="15">
-      <c r="A53" s="10" t="str">
-        <f>IF(B53="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B53,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="22"/>
-      <c r="E53" s="19">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
     </row>
     <row r="54" spans="1:5" ht="15">
       <c r="A54" s="10" t="str">
@@ -10360,69 +10457,65 @@
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="21"/>
-      <c r="D54" s="22"/>
+      <c r="D54" s="21"/>
       <c r="E54" s="19">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="E54:E77" si="12">SUM(C54:D54)</f>
         <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15">
-      <c r="A55" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B55" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="19" cm="1">
-        <f t="array" aca="1" ref="C55" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+      <c r="A55" s="10" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="19">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D55" s="19" cm="1">
-        <f t="array" aca="1" ref="D55" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="10" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="19">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E55" s="19">
-        <f t="shared" ca="1" si="7"/>
+    </row>
+    <row r="57" spans="1:5" ht="16" customHeight="1">
+      <c r="A57" s="10" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="19">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="15">
-      <c r="A56" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C56" s="32">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+    <row r="58" spans="1:5" ht="16" customHeight="1">
+      <c r="A58" s="10" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19">
+        <f t="shared" ref="E58:E61" si="13">SUM(C58:D58)</f>
         <v>0</v>
       </c>
-      <c r="D56" s="32">
-        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="32">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="15">
-      <c r="A57" s="9"/>
-      <c r="B57" s="9"/>
-      <c r="C57" s="33"/>
-      <c r="D57" s="33"/>
-      <c r="E57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="15">
-      <c r="A58" s="9"/>
-      <c r="B58" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-    </row>
-    <row r="59" spans="1:5" ht="15">
+    </row>
+    <row r="59" spans="1:5" ht="16" customHeight="1">
       <c r="A59" s="10" t="str">
         <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -10430,12 +10523,12 @@
       <c r="B59" s="20"/>
       <c r="C59" s="21"/>
       <c r="D59" s="22"/>
-      <c r="E59" s="37">
-        <f t="shared" ref="E59:E64" si="10">SUM(C59:D59)</f>
+      <c r="E59" s="19">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="15">
+    <row r="60" spans="1:5" ht="16" hidden="1" customHeight="1">
       <c r="A60" s="10" t="str">
         <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -10443,12 +10536,12 @@
       <c r="B60" s="20"/>
       <c r="C60" s="21"/>
       <c r="D60" s="22"/>
-      <c r="E60" s="37">
-        <f t="shared" ref="E60:E62" si="11">SUM(C60:D60)</f>
+      <c r="E60" s="19">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="15">
+    <row r="61" spans="1:5" ht="16" hidden="1" customHeight="1">
       <c r="A61" s="10" t="str">
         <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -10456,12 +10549,12 @@
       <c r="B61" s="20"/>
       <c r="C61" s="21"/>
       <c r="D61" s="22"/>
-      <c r="E61" s="37">
-        <f t="shared" si="11"/>
+      <c r="E61" s="19">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="15">
+    <row r="62" spans="1:5" ht="15" hidden="1">
       <c r="A62" s="10" t="str">
         <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
@@ -10469,59 +10562,65 @@
       <c r="B62" s="20"/>
       <c r="C62" s="21"/>
       <c r="D62" s="22"/>
-      <c r="E62" s="37">
-        <f t="shared" si="11"/>
+      <c r="E62" s="19">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="15">
+    <row r="63" spans="1:5" ht="15" hidden="1">
       <c r="A63" s="10" t="str">
         <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="22"/>
+      <c r="C63" s="21"/>
       <c r="D63" s="22"/>
-      <c r="E63" s="37">
-        <f t="shared" si="10"/>
+      <c r="E63" s="19">
+        <f t="shared" ref="E63" si="14">SUM(C63:D63)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="15">
-      <c r="A64" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C64" s="35" cm="1">
-        <f t="array" aca="1" ref="C64" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    <row r="64" spans="1:5" ht="15" hidden="1">
+      <c r="A64" s="10" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="19">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="D64" s="35" cm="1">
-        <f t="array" aca="1" ref="D64" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="19" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>0</v>
       </c>
-      <c r="E64" s="35">
-        <f t="shared" ca="1" si="10"/>
+      <c r="D65" s="19" cm="1">
+        <f t="array" aca="1" ref="D65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="15">
-      <c r="A65" s="9"/>
-      <c r="B65" s="38"/>
-      <c r="C65" s="38"/>
-      <c r="D65" s="38"/>
-      <c r="E65" s="38"/>
+      <c r="E65" s="19">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:5" ht="15">
       <c r="A66" s="9"/>
-      <c r="B66" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
+      <c r="B66" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
     </row>
     <row r="67" spans="1:5" ht="15">
       <c r="A67" s="10" t="str">
@@ -10530,9 +10629,9 @@
       </c>
       <c r="B67" s="20"/>
       <c r="C67" s="21"/>
-      <c r="D67" s="21"/>
+      <c r="D67" s="22"/>
       <c r="E67" s="19">
-        <f t="shared" ref="E67:E72" si="12">SUM(C67:D67)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10543,9 +10642,9 @@
       </c>
       <c r="B68" s="20"/>
       <c r="C68" s="21"/>
-      <c r="D68" s="21"/>
+      <c r="D68" s="22"/>
       <c r="E68" s="19">
-        <f t="shared" ref="E68:E69" si="13">SUM(C68:D68)</f>
+        <f t="shared" ref="E68" si="15">SUM(C68:D68)</f>
         <v>0</v>
       </c>
     </row>
@@ -10556,9 +10655,9 @@
       </c>
       <c r="B69" s="20"/>
       <c r="C69" s="21"/>
-      <c r="D69" s="21"/>
+      <c r="D69" s="22"/>
       <c r="E69" s="19">
-        <f t="shared" si="13"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -10575,80 +10674,497 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:5" ht="15">
+    <row r="71" spans="1:5" ht="15" hidden="1">
       <c r="A71" s="10" t="str">
         <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B71" s="20"/>
       <c r="C71" s="21"/>
-      <c r="D71" s="21"/>
+      <c r="D71" s="22"/>
       <c r="E71" s="19">
+        <f t="shared" ref="E71:E74" si="16">SUM(C71:D71)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15" hidden="1">
+      <c r="A72" s="10" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" hidden="1">
+      <c r="A73" s="10" t="str">
+        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" hidden="1">
+      <c r="A74" s="10" t="str">
+        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="19">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" hidden="1">
+      <c r="A75" s="10" t="str">
+        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="19">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:5" ht="15">
-      <c r="A72" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C72" s="32" cm="1">
-        <f t="array" aca="1" ref="C72" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="19" cm="1">
+        <f t="array" aca="1" ref="C76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>0</v>
       </c>
-      <c r="D72" s="32" cm="1">
-        <f t="array" aca="1" ref="D72" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+      <c r="D76" s="19" cm="1">
+        <f t="array" aca="1" ref="D76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
         <v>0</v>
       </c>
-      <c r="E72" s="32">
+      <c r="E76" s="19">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:5" ht="15">
-      <c r="B73" s="39"/>
-      <c r="C73" s="40"/>
-      <c r="D73" s="40"/>
-      <c r="E73" s="40"/>
-    </row>
-    <row r="74" spans="1:5" ht="15">
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
-    </row>
-    <row r="75" spans="1:5" ht="16">
-      <c r="C75" s="42"/>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="28">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="9"/>
+      <c r="B79" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="10" t="str">
+        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="33">
+        <f t="shared" ref="E80:E89" si="17">SUM(C80:D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="10" t="str">
+        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="33">
+        <f t="shared" ref="E81:E83" si="18">SUM(C81:D81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="10" t="str">
+        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="10" t="str">
+        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="33">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15" hidden="1">
+      <c r="A84" s="10" t="str">
+        <f>IF(B84="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B84,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="33">
+        <f t="shared" ref="E84:E87" si="19">SUM(C84:D84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" hidden="1">
+      <c r="A85" s="10" t="str">
+        <f>IF(B85="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B85,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" hidden="1">
+      <c r="A86" s="10" t="str">
+        <f>IF(B86="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B86,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" hidden="1">
+      <c r="A87" s="10" t="str">
+        <f>IF(B87="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B87,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="33">
+        <f t="shared" si="19"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" hidden="1">
+      <c r="A88" s="10" t="str">
+        <f>IF(B88="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B88,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="33">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="31" cm="1">
+        <f t="array" aca="1" ref="C89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="31" cm="1">
+        <f t="array" aca="1" ref="D89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="31">
+        <f t="shared" ca="1" si="17"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="9"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="10" t="str">
+        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="19">
+        <f t="shared" ref="E92:E100" si="20">SUM(C92:D92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="10" t="str">
+        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="19">
+        <f t="shared" ref="E93:E94" si="21">SUM(C93:D93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="10" t="str">
+        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="19">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="10" t="str">
+        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="19">
+        <f t="shared" ref="E95:E98" si="22">SUM(C95:D95)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15" hidden="1">
+      <c r="A96" s="10" t="str">
+        <f>IF(B96="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B96,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" hidden="1">
+      <c r="A97" s="10" t="str">
+        <f>IF(B97="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B97,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" hidden="1">
+      <c r="A98" s="10" t="str">
+        <f>IF(B98="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B98,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="19">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" hidden="1">
+      <c r="A99" s="10" t="str">
+        <f>IF(B99="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B99,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" hidden="1">
+      <c r="A100" s="10" t="str">
+        <f>IF(B100="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B100,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="19">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="28" cm="1">
+        <f t="array" aca="1" ref="C101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="28" cm="1">
+        <f t="array" aca="1" ref="D101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="28" cm="1">
+        <f t="array" aca="1" ref="E101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15" hidden="1">
+      <c r="A102" s="12"/>
+      <c r="B102" s="12" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C102" s="41">
+        <f ca="1">(C38+C50)-(C77+C89)</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="41">
+        <f t="shared" ref="D102:E102" ca="1" si="23">(D38+D50)-(D77+D89)</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="41">
+        <f t="shared" ca="1" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="16">
+      <c r="C103" s="35"/>
+      <c r="D103" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" insertRows="0" deleteRows="0"/>
-  <mergeCells count="2">
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="B19:E19"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
+  <mergeCells count="1">
+    <mergeCell ref="B24:E24"/>
   </mergeCells>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>$E$102</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+      <formula>$E$102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$C$102</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="12" stopIfTrue="1" operator="notEqual">
+      <formula>$C$102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$D$102</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="notEqual">
+      <formula>$D$102</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B32:B36" xr:uid="{C6F2327E-A14D-45C3-8C61-E24259C3C0C2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{C6F2327E-A14D-45C3-8C61-E24259C3C0C2}">
       <formula1>deferred_outflows</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B47" xr:uid="{61E20EE0-1A7F-49E9-A665-97287F53A86E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B64" xr:uid="{61E20EE0-1A7F-49E9-A665-97287F53A86E}">
       <formula1>current_liabilities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B50:B54" xr:uid="{01A12B58-D8F7-4A4C-8642-43B379BF3185}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B75" xr:uid="{01A12B58-D8F7-4A4C-8642-43B379BF3185}">
       <formula1>noncurrent_liabilities</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B59:B63" xr:uid="{D2A1AADB-B38D-4100-8257-A24270B336AA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B88" xr:uid="{D2A1AADB-B38D-4100-8257-A24270B336AA}">
       <formula1>deferred_inflows</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B71" xr:uid="{D1E44EE8-79C2-481B-86D5-297405A0C1B3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92:B100" xr:uid="{D1E44EE8-79C2-481B-86D5-297405A0C1B3}">
       <formula1>net_position</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20:B27" xr:uid="{C5389767-4746-46E5-BA25-2828BE7E61BB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B36" xr:uid="{C5389767-4746-46E5-BA25-2828BE7E61BB}">
       <formula1>noncurrent_assets</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B17" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{17CB63B2-6582-4D03-B5CB-EC836B51979D}">
       <formula1>current_assets</formula1>
     </dataValidation>
   </dataValidations>

--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F9AD47-08EC-104D-B0E7-BBA795373795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D58913A-92CA-564F-8C7F-746DB16477DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15720" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-35200" yWindow="-8860" windowWidth="28800" windowHeight="19940" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
     <sheet name="Statement of Net Position" sheetId="9" r:id="rId2"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" r:id="rId3"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
@@ -67,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1603" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1091">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -3313,6 +3315,33 @@
   </si>
   <si>
     <t>Calculated Total Net Position</t>
+  </si>
+  <si>
+    <t>Proprietary Funds</t>
+  </si>
+  <si>
+    <t>Business-type Activities - Endeavor Hall</t>
+  </si>
+  <si>
+    <t>Governmental Activities - Internal Service Funds</t>
+  </si>
+  <si>
+    <t>Scope</t>
+  </si>
+  <si>
+    <t>Government-Wide</t>
+  </si>
+  <si>
+    <t>Statement of Revenues, Expenses and Changes in Net Position</t>
+  </si>
+  <si>
+    <t>OERATING REVENUE</t>
+  </si>
+  <si>
+    <t>Total Operating Revenue</t>
+  </si>
+  <si>
+    <t>OERATING EXPENSE</t>
   </si>
 </sst>
 </file>
@@ -3470,7 +3499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -3543,13 +3572,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3617,13 +3659,271 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -4008,8 +4308,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
@@ -9776,8 +10076,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="168" zoomScaleNormal="168" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C93" sqref="C93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -9798,9 +10098,11 @@
     </row>
     <row r="2" spans="1:5" ht="16">
       <c r="A2" s="5" t="s">
-        <v>1078</v>
-      </c>
-      <c r="B2" s="23"/>
+        <v>1085</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>1086</v>
+      </c>
       <c r="C2" s="4"/>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -11113,39 +11415,39 @@
     <mergeCell ref="B24:E24"/>
   </mergeCells>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="34" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="13" operator="equal">
       <formula>$E$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="12" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="12" stopIfTrue="1" operator="notEqual">
       <formula>$C$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="2" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="27" priority="7" operator="notEqual">
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="7">
+  <dataValidations disablePrompts="1" count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{C6F2327E-A14D-45C3-8C61-E24259C3C0C2}">
       <formula1>deferred_outflows</formula1>
     </dataValidation>
@@ -11171,4 +11473,2743 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788A9A8B-CD70-4E43-B731-FB7C17794303}">
+  <dimension ref="A1:E102"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="29.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" ht="16">
+      <c r="A3" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" ht="32">
+      <c r="A6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="9"/>
+      <c r="B9" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="10" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19">
+        <f>SUM(C10:D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="10" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19">
+        <f t="shared" ref="E11:E39" si="0">SUM(C11:D11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="10" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="10" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="10" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="10" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="10" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15" hidden="1">
+      <c r="A17" s="10" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15" hidden="1">
+      <c r="A18" s="10" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15" hidden="1">
+      <c r="A19" s="10" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15" hidden="1">
+      <c r="A20" s="10" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15" hidden="1">
+      <c r="A21" s="10" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15" hidden="1">
+      <c r="A22" s="10" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15" hidden="1">
+      <c r="A23" s="10" t="str">
+        <f>IF(B23="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B23,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="19" cm="1">
+        <f t="array" aca="1" ref="C24" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="19" cm="1">
+        <f t="array" aca="1" ref="D24" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="19">
+        <f ca="1">SUM(C24:D24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="9"/>
+      <c r="B25" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="39"/>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="10" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="19">
+        <f t="shared" ref="E26:E54" si="1">SUM(C26:D26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="10" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="10" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="10" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="10" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="10" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15" hidden="1">
+      <c r="A32" s="10" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15" hidden="1">
+      <c r="A33" s="10" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15" hidden="1">
+      <c r="A34" s="10" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15" hidden="1">
+      <c r="A35" s="10" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15" hidden="1">
+      <c r="A36" s="10" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15" hidden="1">
+      <c r="A37" s="10" t="str">
+        <f>IF(B37="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B37,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="19" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="19" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="28">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="29"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="9"/>
+      <c r="B41" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="10" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19">
+        <f t="shared" ref="E42:E51" si="2">SUM(C42:D42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="10" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="10" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="10" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15" hidden="1">
+      <c r="A46" s="10" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15" hidden="1">
+      <c r="A47" s="10" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15" hidden="1">
+      <c r="A48" s="10" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15" hidden="1">
+      <c r="A49" s="10" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15" hidden="1">
+      <c r="A50" s="10" t="str">
+        <f>IF(B50="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B50,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51" s="30" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="30" cm="1">
+        <f t="array" aca="1" ref="D51" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="29"/>
+      <c r="D52" s="32"/>
+      <c r="E52" s="29"/>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="9"/>
+      <c r="B53" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" s="15"/>
+      <c r="D53" s="15"/>
+      <c r="E53" s="15"/>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="9"/>
+      <c r="B54" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="10" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="21"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="19">
+        <f t="shared" ref="E55:E78" si="3">SUM(C55:D55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="10" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="22"/>
+      <c r="D56" s="21"/>
+      <c r="E56" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="10" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="10" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="10" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15" hidden="1">
+      <c r="A60" s="10" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15" hidden="1">
+      <c r="A61" s="10" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15" hidden="1">
+      <c r="A62" s="10" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15" hidden="1">
+      <c r="A63" s="10" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15" hidden="1">
+      <c r="A64" s="10" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15" hidden="1">
+      <c r="A65" s="10" t="str">
+        <f>IF(B65="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B65,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B65" s="20"/>
+      <c r="C65" s="21"/>
+      <c r="D65" s="22"/>
+      <c r="E65" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="19" cm="1">
+        <f t="array" aca="1" ref="C66" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D66" s="19" cm="1">
+        <f t="array" aca="1" ref="D66" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E66" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="9"/>
+      <c r="B67" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="10" t="str">
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="10" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="10" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="10" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="10" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15" hidden="1">
+      <c r="A73" s="10" t="str">
+        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15" hidden="1">
+      <c r="A74" s="10" t="str">
+        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15" hidden="1">
+      <c r="A75" s="10" t="str">
+        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15" hidden="1">
+      <c r="A76" s="10" t="str">
+        <f>IF(B76="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B76,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B76" s="20"/>
+      <c r="C76" s="21"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77" s="19" cm="1">
+        <f t="array" aca="1" ref="C77" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="19" cm="1">
+        <f t="array" aca="1" ref="D77" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C78" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D78" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E78" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="29"/>
+      <c r="D79" s="29"/>
+      <c r="E79" s="29"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="9"/>
+      <c r="B80" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80" s="15"/>
+      <c r="D80" s="15"/>
+      <c r="E80" s="15"/>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="10" t="str">
+        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="33">
+        <f t="shared" ref="E81:E90" si="4">SUM(C81:D81)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="10" t="str">
+        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="10" t="str">
+        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="10" t="str">
+        <f>IF(B84="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B84,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15" hidden="1">
+      <c r="A85" s="10" t="str">
+        <f>IF(B85="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B85,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15" hidden="1">
+      <c r="A86" s="10" t="str">
+        <f>IF(B86="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B86,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15" hidden="1">
+      <c r="A87" s="10" t="str">
+        <f>IF(B87="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B87,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15" hidden="1">
+      <c r="A88" s="10" t="str">
+        <f>IF(B88="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B88,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="21"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15" hidden="1">
+      <c r="A89" s="10" t="str">
+        <f>IF(B89="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B89,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B89" s="20"/>
+      <c r="C89" s="22"/>
+      <c r="D89" s="22"/>
+      <c r="E89" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C90" s="31" cm="1">
+        <f t="array" aca="1" ref="C90" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D90" s="31" cm="1">
+        <f t="array" aca="1" ref="D90" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E90" s="31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="9"/>
+      <c r="B92" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C92" s="15"/>
+      <c r="D92" s="15"/>
+      <c r="E92" s="15"/>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="10" t="str">
+        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="19">
+        <f t="shared" ref="E93:E101" si="5">SUM(C93:D93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="10" t="str">
+        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="10" t="str">
+        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="10" t="str">
+        <f>IF(B96="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B96,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15" hidden="1">
+      <c r="A97" s="10" t="str">
+        <f>IF(B97="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B97,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15" hidden="1">
+      <c r="A98" s="10" t="str">
+        <f>IF(B98="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B98,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15" hidden="1">
+      <c r="A99" s="10" t="str">
+        <f>IF(B99="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B99,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="21"/>
+      <c r="E99" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15" hidden="1">
+      <c r="A100" s="10" t="str">
+        <f>IF(B100="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B100,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15" hidden="1">
+      <c r="A101" s="10" t="str">
+        <f>IF(B101="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B101,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B101" s="20"/>
+      <c r="C101" s="21"/>
+      <c r="D101" s="21"/>
+      <c r="E101" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15">
+      <c r="A102" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B102" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C102" s="28" cm="1">
+        <f t="array" aca="1" ref="C102" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D102" s="28" cm="1">
+        <f t="array" aca="1" ref="D102" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E102" s="28" cm="1">
+        <f t="array" aca="1" ref="E102" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="1">
+    <mergeCell ref="B25:E25"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E102">
+    <cfRule type="cellIs" dxfId="26" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>$E$102</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="equal">
+      <formula>$E$102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="cellIs" dxfId="23" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$C$102</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="8" stopIfTrue="1" operator="notEqual">
+      <formula>$C$102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="cellIs" dxfId="20" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$D$102</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="7" operator="notEqual">
+      <formula>$D$102</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10:B23" xr:uid="{5216BECB-30A9-364B-A3FE-3C6D07FF79E5}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B26:B37" xr:uid="{1C68B9CD-BC4B-1C4A-9ED7-21B61F928AA2}">
+      <formula1>noncurrent_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B93:B101" xr:uid="{C51E0E44-CF2C-2546-B952-A1B75DE819D0}">
+      <formula1>net_position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B81:B89" xr:uid="{731C61B1-7E72-BE45-AC93-F1A94B43F5EA}">
+      <formula1>deferred_inflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B68:B76" xr:uid="{BD0A5E91-649F-274F-86C8-D0B4F9B73AAD}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B55:B65" xr:uid="{8609995E-CCC0-A549-B0D4-66C714CBB6FF}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B50" xr:uid="{E0CC80CC-F2D6-794E-B236-99527455B4DB}">
+      <formula1>deferred_outflows</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
+  <dimension ref="A1:E101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="35.1640625" customWidth="1"/>
+    <col min="2" max="2" width="29.1640625" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16">
+      <c r="A1" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+    </row>
+    <row r="2" spans="1:5" ht="16">
+      <c r="A2" s="5" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B2" s="44" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+    </row>
+    <row r="3" spans="1:5" ht="34" customHeight="1">
+      <c r="A3" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+    </row>
+    <row r="4" spans="1:5" ht="16">
+      <c r="A4" s="6" t="s">
+        <v>1077</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+    </row>
+    <row r="5" spans="1:5" ht="15">
+      <c r="A5" s="48"/>
+      <c r="B5" s="49"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="49"/>
+    </row>
+    <row r="6" spans="1:5" ht="32">
+      <c r="A6" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47" t="s">
+        <v>1083</v>
+      </c>
+      <c r="D6" s="47" t="s">
+        <v>1084</v>
+      </c>
+      <c r="E6" s="47" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15">
+      <c r="A8" s="9"/>
+      <c r="B8" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="15"/>
+    </row>
+    <row r="9" spans="1:5" ht="15">
+      <c r="A9" s="10" t="str">
+        <f>IF(B9="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B9,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="19">
+        <f>SUM(C9:D9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15">
+      <c r="A10" s="10" t="str">
+        <f>IF(B10="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B10,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="19">
+        <f t="shared" ref="E10:E38" si="0">SUM(C10:D10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15">
+      <c r="A11" s="10" t="str">
+        <f>IF(B11="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B11,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15">
+      <c r="A12" s="10" t="str">
+        <f>IF(B12="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B12,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15">
+      <c r="A13" s="10" t="str">
+        <f>IF(B13="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B13,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15">
+      <c r="A14" s="10" t="str">
+        <f>IF(B14="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B14,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15">
+      <c r="A15" s="10" t="str">
+        <f>IF(B15="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B15,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15">
+      <c r="A16" s="10" t="str">
+        <f>IF(B16="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B16,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15">
+      <c r="A17" s="10" t="str">
+        <f>IF(B17="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B17,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15">
+      <c r="A18" s="10" t="str">
+        <f>IF(B18="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B18,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15">
+      <c r="A19" s="10" t="str">
+        <f>IF(B19="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B19,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15">
+      <c r="A20" s="10" t="str">
+        <f>IF(B20="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B20,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15">
+      <c r="A21" s="10" t="str">
+        <f>IF(B21="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B21,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15">
+      <c r="A22" s="10" t="str">
+        <f>IF(B22="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B22,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="C23" s="19" cm="1">
+        <f t="array" aca="1" ref="C23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="19" cm="1">
+        <f t="array" aca="1" ref="D23" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="19">
+        <f ca="1">SUM(C23:D23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15">
+      <c r="A24" s="9"/>
+      <c r="B24" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="15"/>
+    </row>
+    <row r="25" spans="1:5" ht="15">
+      <c r="A25" s="10" t="str">
+        <f>IF(B25="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B25,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="19">
+        <f t="shared" ref="E25:E53" si="1">SUM(C25:D25)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15">
+      <c r="A26" s="10" t="str">
+        <f>IF(B26="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B26,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B26" s="20"/>
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15">
+      <c r="A27" s="10" t="str">
+        <f>IF(B27="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B27,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B27" s="21"/>
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15">
+      <c r="A28" s="10" t="str">
+        <f>IF(B28="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B28,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B28" s="21"/>
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15">
+      <c r="A29" s="10" t="str">
+        <f>IF(B29="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B29,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B29" s="21"/>
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15">
+      <c r="A30" s="10" t="str">
+        <f>IF(B30="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B30,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15">
+      <c r="A31" s="10" t="str">
+        <f>IF(B31="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B31,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="21"/>
+      <c r="E31" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15">
+      <c r="A32" s="10" t="str">
+        <f>IF(B32="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B32,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15">
+      <c r="A33" s="10" t="str">
+        <f>IF(B33="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B33,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15">
+      <c r="A34" s="10" t="str">
+        <f>IF(B34="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B34,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15">
+      <c r="A35" s="10" t="str">
+        <f>IF(B35="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B35,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15">
+      <c r="A36" s="10" t="str">
+        <f>IF(B36="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B36,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15">
+      <c r="A37" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37" s="19" cm="1">
+        <f t="array" aca="1" ref="C37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="19" cm="1">
+        <f t="array" aca="1" ref="D37" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Assets:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15">
+      <c r="A38" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C38" s="28" t="e">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,C:C)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="28" t="e">
+        <f>SUM(_xlfn.XLOOKUP("Total Current Assets",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Assets",$B:$B,D:D)))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="E38" s="28" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15">
+      <c r="A39" s="9"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" ht="15">
+      <c r="A40" s="9"/>
+      <c r="B40" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+    </row>
+    <row r="41" spans="1:5" ht="15">
+      <c r="A41" s="10" t="str">
+        <f>IF(B41="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B41,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="19">
+        <f t="shared" ref="E41:E50" si="2">SUM(C41:D41)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15">
+      <c r="A42" s="10" t="str">
+        <f>IF(B42="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B42,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B42" s="20"/>
+      <c r="C42" s="21"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15">
+      <c r="A43" s="10" t="str">
+        <f>IF(B43="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B43,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15">
+      <c r="A44" s="10" t="str">
+        <f>IF(B44="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B44,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B44" s="20"/>
+      <c r="C44" s="21"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15">
+      <c r="A45" s="10" t="str">
+        <f>IF(B45="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B45,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B45" s="20"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15">
+      <c r="A46" s="10" t="str">
+        <f>IF(B46="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B46,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B46" s="20"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15">
+      <c r="A47" s="10" t="str">
+        <f>IF(B47="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B47,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B47" s="20"/>
+      <c r="C47" s="21"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15">
+      <c r="A48" s="10" t="str">
+        <f>IF(B48="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B48,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B48" s="20"/>
+      <c r="C48" s="21"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15">
+      <c r="A49" s="10" t="str">
+        <f>IF(B49="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B49,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15">
+      <c r="A50" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="30" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="30" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED OUTFLOW OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="31">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15">
+      <c r="A51" s="9"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="29"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="29"/>
+    </row>
+    <row r="52" spans="1:5" ht="15">
+      <c r="A52" s="9"/>
+      <c r="B52" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" s="15"/>
+      <c r="D52" s="15"/>
+      <c r="E52" s="15"/>
+    </row>
+    <row r="53" spans="1:5" ht="15">
+      <c r="A53" s="9"/>
+      <c r="B53" s="17" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+    </row>
+    <row r="54" spans="1:5" ht="15">
+      <c r="A54" s="10" t="str">
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B54" s="20"/>
+      <c r="C54" s="21"/>
+      <c r="D54" s="21"/>
+      <c r="E54" s="19">
+        <f t="shared" ref="E54:E77" si="3">SUM(C54:D54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15">
+      <c r="A55" s="10" t="str">
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B55" s="20"/>
+      <c r="C55" s="22"/>
+      <c r="D55" s="21"/>
+      <c r="E55" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15">
+      <c r="A56" s="10" t="str">
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B56" s="20"/>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15">
+      <c r="A57" s="10" t="str">
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B57" s="20"/>
+      <c r="C57" s="21"/>
+      <c r="D57" s="22"/>
+      <c r="E57" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15">
+      <c r="A58" s="10" t="str">
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B58" s="20"/>
+      <c r="C58" s="21"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15">
+      <c r="A59" s="10" t="str">
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B59" s="20"/>
+      <c r="C59" s="21"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15">
+      <c r="A60" s="10" t="str">
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B60" s="20"/>
+      <c r="C60" s="21"/>
+      <c r="D60" s="22"/>
+      <c r="E60" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15">
+      <c r="A61" s="10" t="str">
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B61" s="20"/>
+      <c r="C61" s="21"/>
+      <c r="D61" s="22"/>
+      <c r="E61" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15">
+      <c r="A62" s="10" t="str">
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B62" s="20"/>
+      <c r="C62" s="21"/>
+      <c r="D62" s="22"/>
+      <c r="E62" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15">
+      <c r="A63" s="10" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="20"/>
+      <c r="C63" s="21"/>
+      <c r="D63" s="22"/>
+      <c r="E63" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15">
+      <c r="A64" s="10" t="str">
+        <f>IF(B64="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B64,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B64" s="20"/>
+      <c r="C64" s="21"/>
+      <c r="D64" s="22"/>
+      <c r="E64" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15">
+      <c r="A65" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="19" cm="1">
+        <f t="array" aca="1" ref="C65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D65" s="19" cm="1">
+        <f t="array" aca="1" ref="D65" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Current Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E65" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15">
+      <c r="A66" s="9"/>
+      <c r="B66" s="17" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="1:5" ht="15">
+      <c r="A67" s="10" t="str">
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="21"/>
+      <c r="D67" s="22"/>
+      <c r="E67" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15">
+      <c r="A68" s="10" t="str">
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B68" s="20"/>
+      <c r="C68" s="21"/>
+      <c r="D68" s="22"/>
+      <c r="E68" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15">
+      <c r="A69" s="10" t="str">
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B69" s="20"/>
+      <c r="C69" s="21"/>
+      <c r="D69" s="22"/>
+      <c r="E69" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15">
+      <c r="A70" s="10" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="20"/>
+      <c r="C70" s="21"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15">
+      <c r="A71" s="10" t="str">
+        <f>IF(B71="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B71,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B71" s="20"/>
+      <c r="C71" s="21"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15">
+      <c r="A72" s="10" t="str">
+        <f>IF(B72="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B72,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B72" s="20"/>
+      <c r="C72" s="21"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15">
+      <c r="A73" s="10" t="str">
+        <f>IF(B73="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B73,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B73" s="20"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15">
+      <c r="A74" s="10" t="str">
+        <f>IF(B74="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B74,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B74" s="20"/>
+      <c r="C74" s="21"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15">
+      <c r="A75" s="10" t="str">
+        <f>IF(B75="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B75,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="21"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15">
+      <c r="A76" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="19" cm="1">
+        <f t="array" aca="1" ref="C76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="19" cm="1">
+        <f t="array" aca="1" ref="D76" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("Noncurrent Liabilities:",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="19">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15">
+      <c r="A77" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C77" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,C:C),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,C:C)))</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="28">
+        <f ca="1">SUM(_xlfn.XLOOKUP("Total Current Liabilities",$B:$B,D:D),(_xlfn.XLOOKUP("Total Noncurrent Liabilities",$B:$B,D:D)))</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="28">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15">
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+    </row>
+    <row r="79" spans="1:5" ht="15">
+      <c r="A79" s="9"/>
+      <c r="B79" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C79" s="15"/>
+      <c r="D79" s="15"/>
+      <c r="E79" s="15"/>
+    </row>
+    <row r="80" spans="1:5" ht="15">
+      <c r="A80" s="10" t="str">
+        <f>IF(B80="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B80,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B80" s="20"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="33">
+        <f t="shared" ref="E80:E89" si="4">SUM(C80:D80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15">
+      <c r="A81" s="10" t="str">
+        <f>IF(B81="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B81,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15">
+      <c r="A82" s="10" t="str">
+        <f>IF(B82="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B82,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B82" s="20"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15">
+      <c r="A83" s="10" t="str">
+        <f>IF(B83="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B83,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="21"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15">
+      <c r="A84" s="10" t="str">
+        <f>IF(B84="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B84,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B84" s="20"/>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15">
+      <c r="A85" s="10" t="str">
+        <f>IF(B85="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B85,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B85" s="20"/>
+      <c r="C85" s="21"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15">
+      <c r="A86" s="10" t="str">
+        <f>IF(B86="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B86,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B86" s="20"/>
+      <c r="C86" s="21"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15">
+      <c r="A87" s="10" t="str">
+        <f>IF(B87="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B87,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B87" s="20"/>
+      <c r="C87" s="21"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15">
+      <c r="A88" s="10" t="str">
+        <f>IF(B88="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B88,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B88" s="20"/>
+      <c r="C88" s="22"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="33">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15">
+      <c r="A89" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C89" s="31" cm="1">
+        <f t="array" aca="1" ref="C89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D89" s="31" cm="1">
+        <f t="array" aca="1" ref="D89" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("DEFERRED INFLOWS OF RESOURCES",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E89" s="31">
+        <f t="shared" ca="1" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15">
+      <c r="A90" s="9"/>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+    </row>
+    <row r="91" spans="1:5" ht="15">
+      <c r="A91" s="9"/>
+      <c r="B91" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="15"/>
+    </row>
+    <row r="92" spans="1:5" ht="15">
+      <c r="A92" s="10" t="str">
+        <f>IF(B92="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B92,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B92" s="20"/>
+      <c r="C92" s="21"/>
+      <c r="D92" s="21"/>
+      <c r="E92" s="19">
+        <f t="shared" ref="E92:E100" si="5">SUM(C92:D92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15">
+      <c r="A93" s="10" t="str">
+        <f>IF(B93="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B93,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B93" s="20"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+      <c r="E93" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15">
+      <c r="A94" s="10" t="str">
+        <f>IF(B94="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B94,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B94" s="20"/>
+      <c r="C94" s="21"/>
+      <c r="D94" s="21"/>
+      <c r="E94" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15">
+      <c r="A95" s="10" t="str">
+        <f>IF(B95="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B95,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B95" s="20"/>
+      <c r="C95" s="21"/>
+      <c r="D95" s="21"/>
+      <c r="E95" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15">
+      <c r="A96" s="10" t="str">
+        <f>IF(B96="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B96,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B96" s="20"/>
+      <c r="C96" s="21"/>
+      <c r="D96" s="21"/>
+      <c r="E96" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15">
+      <c r="A97" s="10" t="str">
+        <f>IF(B97="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B97,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B97" s="20"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15">
+      <c r="A98" s="10" t="str">
+        <f>IF(B98="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B98,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B98" s="20"/>
+      <c r="C98" s="21"/>
+      <c r="D98" s="21"/>
+      <c r="E98" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15">
+      <c r="A99" s="10" t="str">
+        <f>IF(B99="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B99,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B99" s="20"/>
+      <c r="C99" s="21"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15">
+      <c r="A100" s="10" t="str">
+        <f>IF(B100="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B100,'Label Dropdowns'!$B$2:$B$522,'Label Dropdowns'!$C$2:$C$522))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21"/>
+      <c r="E100" s="19">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15">
+      <c r="A101" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B101" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C101" s="28" cm="1">
+        <f t="array" aca="1" ref="C101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="D101" s="28" cm="1">
+        <f t="array" aca="1" ref="D101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="28" cm="1">
+        <f t="array" aca="1" ref="E101" ca="1">SUM(INDIRECT(ADDRESS(CELL("row",INDEX($B:$B,_xlfn.XMATCH("NET POSITION",$B:$B,1)))+1,COLUMN())&amp;":"&amp;ADDRESS(ROW()-1,COLUMN())))</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E101">
+    <cfRule type="cellIs" dxfId="8" priority="1" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="6" stopIfTrue="1" operator="notEqual">
+      <formula>$E$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>$E$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C101">
+    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$C$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" stopIfTrue="1" operator="notEqual">
+      <formula>$C$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$D$101</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="notEqual">
+      <formula>$D$101</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{9BC0AF47-8E6A-144C-B8AC-ED095E97A81D}">
+      <formula1>deferred_outflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B64" xr:uid="{5C058698-9073-DC49-8BB5-F4FB5112E246}">
+      <formula1>current_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B67:B75" xr:uid="{3F616EBA-A90E-4541-9183-0F01CFC3F5F8}">
+      <formula1>noncurrent_liabilities</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B88" xr:uid="{EBEC4932-F8CB-1846-89BE-0CC169CA7F33}">
+      <formula1>deferred_inflows</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B92:B100" xr:uid="{8A04D23E-8118-1A4B-8A84-8F6AD5B16721}">
+      <formula1>net_position</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B25:B36" xr:uid="{FA5EF3AC-325A-BC4B-874B-CA2CF2946D73}">
+      <formula1>noncurrent_assets</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22" xr:uid="{5C4A5840-DD0A-C841-8FFC-758CD4B37D08}">
+      <formula1>current_assets</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D58913A-92CA-564F-8C7F-746DB16477DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A508A681-EF19-2742-A616-C2895EC18A43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35200" yWindow="-8860" windowWidth="28800" windowHeight="19940" tabRatio="834" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37160" yWindow="-8860" windowWidth="28800" windowHeight="19940" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
-    <sheet name="Statement of Net Position" sheetId="9" r:id="rId2"/>
-    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" r:id="rId3"/>
-    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" r:id="rId4"/>
+    <sheet name="Master Info" sheetId="13" r:id="rId1"/>
+    <sheet name="Label Dropdowns" sheetId="8" r:id="rId2"/>
+    <sheet name="Statement of Net Position" sheetId="9" r:id="rId3"/>
+    <sheet name="Prop Fund Stmt of Net Position" sheetId="11" r:id="rId4"/>
+    <sheet name="Prop Fund Stmt of Rev Exp Bal" sheetId="12" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Label Dropdowns'!$A$1:$C$522</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Statement of Net Position'!$B$25:$B$36</definedName>
     <definedName name="current_assets">'Label Dropdowns'!$B$2:$B$204</definedName>
     <definedName name="current_liabilities">'Label Dropdowns'!$B$205:$B$319</definedName>
     <definedName name="deferred_inflows">'Label Dropdowns'!$B$320:$B$342</definedName>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1676" uniqueCount="1091">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1682" uniqueCount="1096">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -3342,14 +3343,30 @@
   </si>
   <si>
     <t>OERATING EXPENSE</t>
+  </si>
+  <si>
+    <t>Total Primary Government</t>
+  </si>
+  <si>
+    <t>End of Fiscal Year Date</t>
+  </si>
+  <si>
+    <t>Business-Type Activities? (Y/N)</t>
+  </si>
+  <si>
+    <t>Component Units? (Y/N)</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -3499,7 +3516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -3585,13 +3602,64 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3674,6 +3742,12 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -4304,11 +4378,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8474313-8EAC-0141-BA8E-861AF31ED060}">
+  <dimension ref="B1:E5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="1" max="1" width="4" customWidth="1"/>
+    <col min="2" max="2" width="24.6640625" customWidth="1"/>
+    <col min="3" max="3" width="18.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="14" thickBot="1"/>
+    <row r="2" spans="2:5">
+      <c r="B2" s="51" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C2" s="54"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="52" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C3" s="56"/>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="52" t="s">
+        <v>1093</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="2:5" ht="14" thickBot="1">
+      <c r="B5" s="53" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>1095</v>
+      </c>
+      <c r="E5" s="2"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C5" xr:uid="{146644EA-53C7-1642-84D4-FDA957F35368}">
+      <formula1>"Y,N"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE09D81-CE0E-407C-B6C2-C3432BAC9950}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C522"/>
   <sheetViews>
-    <sheetView topLeftCell="A492" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C154" sqref="C154"/>
     </sheetView>
   </sheetViews>
@@ -10071,13 +10201,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69404329-355D-4401-83F9-DCE9B92C9B36}">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C93" sqref="C93"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -10146,7 +10276,7 @@
         <v>53</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>3</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15">
@@ -11410,7 +11540,7 @@
       <c r="D103" s="40"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1" formatRows="0" insertRows="0" deleteRows="0"/>
+  <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="1">
     <mergeCell ref="B24:E24"/>
   </mergeCells>
@@ -11447,7 +11577,7 @@
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="7">
+  <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B41:B49" xr:uid="{C6F2327E-A14D-45C3-8C61-E24259C3C0C2}">
       <formula1>deferred_outflows</formula1>
     </dataValidation>
@@ -11475,7 +11605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{788A9A8B-CD70-4E43-B731-FB7C17794303}">
   <dimension ref="A1:E102"/>
   <sheetViews>
@@ -12852,7 +12982,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2A27AB5-4C32-7545-9FCB-B1E2421FAC8B}">
   <dimension ref="A1:E101"/>
   <sheetViews>

--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5531B00-12A0-3144-9C9C-F84F065B1229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD601F11-7289-A647-BE96-0163B49465BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-9360" windowWidth="28160" windowHeight="21600" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13266,7 +13266,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD601F11-7289-A647-BE96-0163B49465BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD564B52-7016-8149-8EBB-293F2827D303}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38400" yWindow="-9360" windowWidth="28160" windowHeight="21600" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13266,7 +13266,7 @@
   <dimension ref="A1:E102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>

--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72F33417-F562-984F-BBC2-A62CA7F4D008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9489C06-BF10-7144-B4DF-281ED8216F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-8860" windowWidth="36160" windowHeight="20080" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2540" yWindow="500" windowWidth="24180" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Label Dropdowns" sheetId="8" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2589" uniqueCount="1742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2593" uniqueCount="1744">
   <si>
     <t>Statement of Net Position</t>
   </si>
@@ -4727,213 +4727,108 @@
     <t>general_revenues</t>
   </si>
   <si>
-    <t>Revenues from National Forest Reserve Taxes</t>
-  </si>
-  <si>
     <t>RevenueFromNationalForestReserveTaxes</t>
   </si>
   <si>
-    <t>Revenues from Trailer Tax</t>
-  </si>
-  <si>
     <t>RevenueFromTrailerTax</t>
   </si>
   <si>
-    <t>Revenues from Accommodations Tax (PA 263 of 1974)</t>
-  </si>
-  <si>
     <t>RevenueFromAccomodationsTax</t>
   </si>
   <si>
-    <t>Revenues from Parking Occupancy Tax</t>
-  </si>
-  <si>
     <t>RevenueFromParkingOccupancyTax</t>
   </si>
   <si>
-    <t>Revenues from Industrial Facilities Tax</t>
-  </si>
-  <si>
     <t>RevenueFromIndustrialFacilitiesTax</t>
   </si>
   <si>
-    <t>Revenues from Commercial Facilities Tax</t>
-  </si>
-  <si>
     <t>RevenueFromCommercialFacilitiesTax</t>
   </si>
   <si>
-    <t>Revenues from Income Tax</t>
-  </si>
-  <si>
     <t>RevenueFromIncomeTax</t>
   </si>
   <si>
-    <t>Revenues from Transaction Privilege Tax</t>
-  </si>
-  <si>
     <t>RevenueFromTransactionPrivilegeTax</t>
   </si>
   <si>
-    <t>Revenues from Current Property Taxes, Extra or Special Voted</t>
-  </si>
-  <si>
     <t>RevenueFromCurrentPropertyTaxesExtraOrSpecialVoted</t>
   </si>
   <si>
-    <t>Revenues from Current Personal Property Tax</t>
-  </si>
-  <si>
     <t>RevenueFromCurrentPersonalPropertyTax</t>
   </si>
   <si>
-    <t>Revenues from Current Real Property Tax</t>
-  </si>
-  <si>
     <t>RevenuesFromCurrentRealPropertyTax</t>
   </si>
   <si>
-    <t>Revenues from Property Tax</t>
-  </si>
-  <si>
     <t>RevenueFromPropertyTax</t>
   </si>
   <si>
-    <t>Revenues from Delinquent Real Property Tax</t>
-  </si>
-  <si>
     <t>RevenueFromDelinquentRealPropertyTax</t>
   </si>
   <si>
-    <t>Revenues from Delinquent Personal Property Tax</t>
-  </si>
-  <si>
     <t>RevenueFromDelinquentPersonalPropertyTax</t>
   </si>
   <si>
-    <t>Revenues from Marijuana Tax</t>
-  </si>
-  <si>
     <t>RevenueFromMarijuanaTax</t>
   </si>
   <si>
-    <t>Revenues from City Utility Users Tax</t>
-  </si>
-  <si>
     <t>RevenueFromCityUtilityUsersTax</t>
   </si>
   <si>
-    <t>Revenues from Motor Fuel Tax</t>
-  </si>
-  <si>
     <t>RevenueFromMotorFuelTax</t>
   </si>
   <si>
-    <t>Revenues from Lottery for Education, Lottery Proceeds</t>
-  </si>
-  <si>
     <t>RevenueFromLotteryForEducationLotteryProceeds</t>
   </si>
   <si>
-    <t>Revenues from Corporate Tax</t>
-  </si>
-  <si>
     <t>RevenueFromCorporateTax</t>
   </si>
   <si>
-    <t>Revenues from Usage of Utilities Tax</t>
-  </si>
-  <si>
     <t>RevenueFromUsageOfUtilitiesTax</t>
   </si>
   <si>
-    <t>Revenues from Convention Tax</t>
-  </si>
-  <si>
     <t>RevenueFromConventionTax</t>
   </si>
   <si>
-    <t>Revenues from Sales and Use Tax</t>
-  </si>
-  <si>
     <t>RevenueFromSalesAndUseTax</t>
   </si>
   <si>
-    <t>Revenues from Sales Tax</t>
-  </si>
-  <si>
     <t>RevenueFromSalesTax</t>
   </si>
   <si>
-    <t>Revenues from Unclaimed Property</t>
-  </si>
-  <si>
     <t>RevenueFromUnclaimedProperty</t>
   </si>
   <si>
-    <t>Revenues from Nursing Home and Hospital Provider Fees</t>
-  </si>
-  <si>
     <t>RevenueFromNursingHomeAndHospitalProviderFees</t>
   </si>
   <si>
-    <t>Revenues from Business License Tax</t>
-  </si>
-  <si>
     <t>RevenueFromBusinessLicenseTax</t>
   </si>
   <si>
-    <t>Revenues from Property Transfer Tax</t>
-  </si>
-  <si>
     <t>RevenueFromPropertyTransferTax</t>
   </si>
   <si>
-    <t>Revenues from Documents Transfer Tax</t>
-  </si>
-  <si>
     <t>RevenueFromDocumentsTransferTax</t>
   </si>
   <si>
-    <t>Revenues from Transfer Stamps Tax</t>
-  </si>
-  <si>
     <t>RevenueFromTransferStampsTax</t>
   </si>
   <si>
-    <t>Revenues from Hotel and Motel Tax</t>
-  </si>
-  <si>
     <t>RevenueFromHotelAndMotelTax</t>
   </si>
   <si>
-    <t>Revenues from Vehicles Tax</t>
-  </si>
-  <si>
     <t>RevenueFromVehiclesTax</t>
   </si>
   <si>
-    <t>Revenues from Meals Tax</t>
-  </si>
-  <si>
     <t>RevenueFromMealsTax</t>
   </si>
   <si>
-    <t>Revenues from Franchise Income Tax</t>
-  </si>
-  <si>
     <t>RevenueFromFranchiseIncomeTax</t>
   </si>
   <si>
-    <t>Revenues from Other Tax for General Purpose</t>
-  </si>
-  <si>
     <t>RevenueFromOtherTaxForGeneralPurpose</t>
   </si>
   <si>
-    <t>Revenues from Taxes</t>
-  </si>
-  <si>
     <t>RevenueFromTaxes</t>
   </si>
   <si>
@@ -4949,21 +4844,12 @@
     <t>AllowanceForRefunds</t>
   </si>
   <si>
-    <t>Revenues from Collection Fees</t>
-  </si>
-  <si>
     <t>RevenueFromCollectionFees</t>
   </si>
   <si>
-    <t>Revenues from Interest and Penalties on Taxes</t>
-  </si>
-  <si>
     <t>RevenueFromInterestAndPenaltiesOnTaxes</t>
   </si>
   <si>
-    <t>Revenues from Community Wide Special Assessments</t>
-  </si>
-  <si>
     <t>RevenueFromCommunityWideSpecialAssessments</t>
   </si>
   <si>
@@ -4973,27 +4859,15 @@
     <t>RedemptionsAndReconveyance</t>
   </si>
   <si>
-    <t>Revenues from County Expense of Sale</t>
-  </si>
-  <si>
     <t>RevenueFromCountyExpenseOfSale</t>
   </si>
   <si>
-    <t>Revenues from Commercial Forest Reserve</t>
-  </si>
-  <si>
     <t>RevenueFromCommercialForestReserve</t>
   </si>
   <si>
-    <t>Revenues from Sub Marginal Land Act</t>
-  </si>
-  <si>
     <t>RevenueFromSubMarginalLandAct</t>
   </si>
   <si>
-    <t>Revenues from Tax Reverted Property</t>
-  </si>
-  <si>
     <t>RevenueFromTaxRevertedProperty</t>
   </si>
   <si>
@@ -5003,9 +4877,6 @@
     <t>PaymentInLieuOfTaxes</t>
   </si>
   <si>
-    <t>Revenues from Property Tax Administration Fee</t>
-  </si>
-  <si>
     <t>RevenueFromPropertyTaxAdministrationFee</t>
   </si>
   <si>
@@ -5015,33 +4886,18 @@
     <t>TaxesAndTaxRelatedRevenues</t>
   </si>
   <si>
-    <t>Revenues from Interest and Penalties on Special Assessments</t>
-  </si>
-  <si>
     <t>RevenuesFromInterestAndPenaltiesOnSpecialAssessments</t>
   </si>
   <si>
-    <t>Revenues from Special Assessments</t>
-  </si>
-  <si>
     <t>RevenueFromSpecialAssessments</t>
   </si>
   <si>
-    <t>Revenues from Dividends</t>
-  </si>
-  <si>
     <t>RevenueFromDividends</t>
   </si>
   <si>
-    <t>Revenues from Interest</t>
-  </si>
-  <si>
     <t>RevenueFromInterest</t>
   </si>
   <si>
-    <t>Revenues from Interest and Dividends</t>
-  </si>
-  <si>
     <t>RevenueFromInterestAndDividends</t>
   </si>
   <si>
@@ -5057,9 +4913,6 @@
     <t>InvestmentIncome</t>
   </si>
   <si>
-    <t>Revenues from Interest, Dividends, Royalties and Rent</t>
-  </si>
-  <si>
     <t>RevenueFromInterestAndRent</t>
   </si>
   <si>
@@ -5075,69 +4928,36 @@
     <t>InvestmentIncomeAndRentals</t>
   </si>
   <si>
-    <t>Revenues from Rent</t>
-  </si>
-  <si>
     <t>RevenueFromRent</t>
   </si>
   <si>
-    <t>Revenues from Royalties</t>
-  </si>
-  <si>
     <t>RevenueFromRoyalties</t>
   </si>
   <si>
-    <t>Revenues from Rents and Royalties</t>
-  </si>
-  <si>
     <t>RevenueFromRentsAndRoyalties</t>
   </si>
   <si>
-    <t>Revenues from Shared Revenue</t>
-  </si>
-  <si>
     <t>RevenueFromSharedRevenue</t>
   </si>
   <si>
-    <t>Revenues from Use of Money and Property</t>
-  </si>
-  <si>
     <t>RevenueFromUseOfMoneyAndProperty</t>
   </si>
   <si>
-    <t>Revenues from Gas and Oil Royalties</t>
-  </si>
-  <si>
     <t>RevenueFromGasAndOilRoyalties</t>
   </si>
   <si>
-    <t>Revenues from Casino Revenue Sharing</t>
-  </si>
-  <si>
     <t>RevenueFromCasinoRevenueSharing</t>
   </si>
   <si>
-    <t>Revenues from Recreation Fees</t>
-  </si>
-  <si>
     <t>RevenueFromRecreationFees</t>
   </si>
   <si>
-    <t>Revenues from Refunds and Rebates</t>
-  </si>
-  <si>
     <t>RevenueFromRefundsAndRebates</t>
   </si>
   <si>
-    <t>Revenues from Reimbursements</t>
-  </si>
-  <si>
     <t>RevenueFromReimbursements</t>
   </si>
   <si>
-    <t>Revenues from Grants and Entitlements Not Restricted for Specific Programs</t>
-  </si>
-  <si>
     <t>RevenueFromGrantsAndEntitlementsForSpecificProgramsUnrestricted</t>
   </si>
   <si>
@@ -5304,6 +5124,192 @@
   </si>
   <si>
     <t>City of Clayton, California</t>
+  </si>
+  <si>
+    <t>ProgramRevenues,Expenses,NetExpenseRevenue</t>
+  </si>
+  <si>
+    <t>National Forest Reserve Taxes</t>
+  </si>
+  <si>
+    <t>Trailer Tax</t>
+  </si>
+  <si>
+    <t>Accommodations Tax (PA 263 of 1974)</t>
+  </si>
+  <si>
+    <t>Parking Occupancy Tax</t>
+  </si>
+  <si>
+    <t>Industrial Facilities Tax</t>
+  </si>
+  <si>
+    <t>Commercial Facilities Tax</t>
+  </si>
+  <si>
+    <t>Income Tax</t>
+  </si>
+  <si>
+    <t>Transaction Privilege Tax</t>
+  </si>
+  <si>
+    <t>Current Property Taxes, Extra or Special Voted</t>
+  </si>
+  <si>
+    <t>Current Personal Property Tax</t>
+  </si>
+  <si>
+    <t>Current Real Property Tax</t>
+  </si>
+  <si>
+    <t>Property Tax</t>
+  </si>
+  <si>
+    <t>Delinquent Real Property Tax</t>
+  </si>
+  <si>
+    <t>Delinquent Personal Property Tax</t>
+  </si>
+  <si>
+    <t>Marijuana Tax</t>
+  </si>
+  <si>
+    <t>City Utility Users Tax</t>
+  </si>
+  <si>
+    <t>Motor Fuel Tax</t>
+  </si>
+  <si>
+    <t>Lottery for Education, Lottery Proceeds</t>
+  </si>
+  <si>
+    <t>Corporate Tax</t>
+  </si>
+  <si>
+    <t>Usage of Utilities Tax</t>
+  </si>
+  <si>
+    <t>Convention Tax</t>
+  </si>
+  <si>
+    <t>Sales and Use Tax</t>
+  </si>
+  <si>
+    <t>Sales Tax</t>
+  </si>
+  <si>
+    <t>Unclaimed Property</t>
+  </si>
+  <si>
+    <t>Nursing Home and Hospital Provider Fees</t>
+  </si>
+  <si>
+    <t>Business License Tax</t>
+  </si>
+  <si>
+    <t>Property Transfer Tax</t>
+  </si>
+  <si>
+    <t>Documents Transfer Tax</t>
+  </si>
+  <si>
+    <t>Transfer Stamps Tax</t>
+  </si>
+  <si>
+    <t>Hotel and Motel Tax</t>
+  </si>
+  <si>
+    <t>Vehicles Tax</t>
+  </si>
+  <si>
+    <t>Meals Tax</t>
+  </si>
+  <si>
+    <t>Franchise Income Tax</t>
+  </si>
+  <si>
+    <t>Other Tax for General Purpose</t>
+  </si>
+  <si>
+    <t>Taxes</t>
+  </si>
+  <si>
+    <t>Collection Fees</t>
+  </si>
+  <si>
+    <t>Interest and Penalties on Taxes</t>
+  </si>
+  <si>
+    <t>Community Wide Special Assessments</t>
+  </si>
+  <si>
+    <t>County Expense of Sale</t>
+  </si>
+  <si>
+    <t>Commercial Forest Reserve</t>
+  </si>
+  <si>
+    <t>Sub Marginal Land Act</t>
+  </si>
+  <si>
+    <t>Tax Reverted Property</t>
+  </si>
+  <si>
+    <t>Property Tax Administration Fee</t>
+  </si>
+  <si>
+    <t>Interest and Penalties on Special Assessments</t>
+  </si>
+  <si>
+    <t>Special Assessments</t>
+  </si>
+  <si>
+    <t>Fines and Forfeitures and Penalties</t>
+  </si>
+  <si>
+    <t>Dividends</t>
+  </si>
+  <si>
+    <t>Interest</t>
+  </si>
+  <si>
+    <t>Interest and Dividends</t>
+  </si>
+  <si>
+    <t>Interest, Dividends, Royalties and Rent</t>
+  </si>
+  <si>
+    <t>Rent</t>
+  </si>
+  <si>
+    <t>Royalties</t>
+  </si>
+  <si>
+    <t>Rents and Royalties</t>
+  </si>
+  <si>
+    <t>Shared Revenue</t>
+  </si>
+  <si>
+    <t>Use of Money and Property</t>
+  </si>
+  <si>
+    <t>Gas and Oil Royalties</t>
+  </si>
+  <si>
+    <t>Casino Revenue Sharing</t>
+  </si>
+  <si>
+    <t>Recreation Fees</t>
+  </si>
+  <si>
+    <t>Refunds and Rebates</t>
+  </si>
+  <si>
+    <t>Reimbursements</t>
+  </si>
+  <si>
+    <t>Grants and Entitlements Not Restricted for Specific Programs</t>
   </si>
 </sst>
 </file>
@@ -5769,7 +5775,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5895,28 +5901,15 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -5924,12 +5917,8 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -5966,13 +5955,32 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
-  <dxfs count="190">
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6236,102 +6244,6 @@
       </fill>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -6355,1181 +6267,6 @@
       <fill>
         <patternFill>
           <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -13603,33 +12340,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF490C29-31E1-3E46-B6B7-83D944E71A74}">
   <dimension ref="A1:H218"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A165" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B177" sqref="B177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="37.83203125" style="85" customWidth="1"/>
+    <col min="2" max="2" width="37.83203125" customWidth="1"/>
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
     <col min="5" max="5" width="24" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="92" t="s">
-        <v>1738</v>
-      </c>
-      <c r="C1" s="90" t="s">
+      <c r="B1" s="36" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C1" s="82" t="s">
         <v>1331</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="D1" s="82" t="s">
         <v>1332</v>
       </c>
-      <c r="E1" s="91" t="s">
+      <c r="E1" s="83" t="s">
         <v>1448</v>
       </c>
     </row>
@@ -13637,19 +12374,19 @@
       <c r="A2" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="36" t="s">
         <v>1449</v>
       </c>
-      <c r="C2" s="86" t="s">
+      <c r="C2" s="79" t="s">
         <v>1144</v>
       </c>
-      <c r="D2" s="86" t="s">
+      <c r="D2" s="79" t="s">
         <v>1254</v>
       </c>
-      <c r="E2" s="86" t="s">
+      <c r="E2" s="79" t="s">
         <v>1340</v>
       </c>
-      <c r="H2" s="94" t="e" cm="1">
+      <c r="H2" s="85" t="e" cm="1">
         <f t="array" aca="1" ref="H2" ca="1">OFFSET($B$1,0,0,COUNTIF($B:$B,"program_revenues"),1)</f>
         <v>#REF!</v>
       </c>
@@ -13658,16 +12395,16 @@
       <c r="A3" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B3" s="92" t="s">
+      <c r="B3" s="36" t="s">
         <v>1450</v>
       </c>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="79" t="s">
         <v>1145</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="79" t="s">
         <v>1255</v>
       </c>
-      <c r="E3" s="86" t="s">
+      <c r="E3" s="79" t="s">
         <v>1341</v>
       </c>
     </row>
@@ -13675,16 +12412,16 @@
       <c r="A4" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="36" t="s">
         <v>1451</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="79" t="s">
         <v>1146</v>
       </c>
-      <c r="D4" s="86" t="s">
+      <c r="D4" s="79" t="s">
         <v>1256</v>
       </c>
-      <c r="E4" s="86" t="s">
+      <c r="E4" s="79" t="s">
         <v>1342</v>
       </c>
     </row>
@@ -13692,16 +12429,16 @@
       <c r="A5" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="36" t="s">
         <v>1452</v>
       </c>
-      <c r="C5" s="86" t="s">
+      <c r="C5" s="79" t="s">
         <v>1147</v>
       </c>
-      <c r="D5" s="86" t="s">
+      <c r="D5" s="79" t="s">
         <v>1257</v>
       </c>
-      <c r="E5" s="86" t="s">
+      <c r="E5" s="79" t="s">
         <v>1343</v>
       </c>
     </row>
@@ -13709,16 +12446,16 @@
       <c r="A6" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="36" t="s">
         <v>1453</v>
       </c>
-      <c r="C6" s="86" t="s">
+      <c r="C6" s="79" t="s">
         <v>1148</v>
       </c>
-      <c r="D6" s="86" t="s">
+      <c r="D6" s="79" t="s">
         <v>1258</v>
       </c>
-      <c r="E6" s="86" t="s">
+      <c r="E6" s="79" t="s">
         <v>1344</v>
       </c>
     </row>
@@ -13726,16 +12463,16 @@
       <c r="A7" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="36" t="s">
         <v>1454</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="79" t="s">
         <v>1149</v>
       </c>
-      <c r="D7" s="86" t="s">
+      <c r="D7" s="79" t="s">
         <v>1259</v>
       </c>
-      <c r="E7" s="86" t="s">
+      <c r="E7" s="79" t="s">
         <v>1345</v>
       </c>
     </row>
@@ -13743,16 +12480,16 @@
       <c r="A8" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="36" t="s">
         <v>1455</v>
       </c>
-      <c r="C8" s="86" t="s">
+      <c r="C8" s="79" t="s">
         <v>1150</v>
       </c>
-      <c r="D8" s="86" t="s">
+      <c r="D8" s="79" t="s">
         <v>1260</v>
       </c>
-      <c r="E8" s="86" t="s">
+      <c r="E8" s="79" t="s">
         <v>1347</v>
       </c>
     </row>
@@ -13760,16 +12497,16 @@
       <c r="A9" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="36" t="s">
         <v>1456</v>
       </c>
-      <c r="C9" s="86" t="s">
+      <c r="C9" s="79" t="s">
         <v>1151</v>
       </c>
-      <c r="D9" s="86" t="s">
+      <c r="D9" s="79" t="s">
         <v>1261</v>
       </c>
-      <c r="E9" s="86" t="s">
+      <c r="E9" s="79" t="s">
         <v>1348</v>
       </c>
     </row>
@@ -13777,16 +12514,16 @@
       <c r="A10" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="36" t="s">
         <v>1457</v>
       </c>
-      <c r="C10" s="86" t="s">
+      <c r="C10" s="79" t="s">
         <v>1152</v>
       </c>
-      <c r="D10" s="86" t="s">
+      <c r="D10" s="79" t="s">
         <v>1262</v>
       </c>
-      <c r="E10" s="86" t="s">
+      <c r="E10" s="79" t="s">
         <v>1349</v>
       </c>
     </row>
@@ -13794,16 +12531,16 @@
       <c r="A11" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B11" s="92" t="s">
+      <c r="B11" s="36" t="s">
         <v>1458</v>
       </c>
-      <c r="C11" s="86" t="s">
+      <c r="C11" s="79" t="s">
         <v>1153</v>
       </c>
-      <c r="D11" s="86" t="s">
+      <c r="D11" s="79" t="s">
         <v>1263</v>
       </c>
-      <c r="E11" s="86" t="s">
+      <c r="E11" s="79" t="s">
         <v>1350</v>
       </c>
     </row>
@@ -13811,16 +12548,16 @@
       <c r="A12" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="36" t="s">
         <v>1459</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="79" t="s">
         <v>1154</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="79" t="s">
         <v>1264</v>
       </c>
-      <c r="E12" s="86" t="s">
+      <c r="E12" s="79" t="s">
         <v>1351</v>
       </c>
     </row>
@@ -13828,16 +12565,16 @@
       <c r="A13" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B13" s="92" t="s">
+      <c r="B13" s="36" t="s">
         <v>1460</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="79" t="s">
         <v>1155</v>
       </c>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="79" t="s">
         <v>1265</v>
       </c>
-      <c r="E13" s="86" t="s">
+      <c r="E13" s="79" t="s">
         <v>1352</v>
       </c>
     </row>
@@ -13845,16 +12582,16 @@
       <c r="A14" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B14" s="92" t="s">
+      <c r="B14" s="36" t="s">
         <v>1461</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="79" t="s">
         <v>1156</v>
       </c>
-      <c r="D14" s="86" t="s">
+      <c r="D14" s="79" t="s">
         <v>1266</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="79" t="s">
         <v>1353</v>
       </c>
     </row>
@@ -13862,16 +12599,16 @@
       <c r="A15" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B15" s="92" t="s">
+      <c r="B15" s="36" t="s">
         <v>1462</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="79" t="s">
         <v>1157</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="79" t="s">
         <v>1267</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="79" t="s">
         <v>1354</v>
       </c>
     </row>
@@ -13879,16 +12616,16 @@
       <c r="A16" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B16" s="92" t="s">
+      <c r="B16" s="36" t="s">
         <v>1463</v>
       </c>
-      <c r="C16" s="86" t="s">
+      <c r="C16" s="79" t="s">
         <v>1158</v>
       </c>
-      <c r="D16" s="86" t="s">
+      <c r="D16" s="79" t="s">
         <v>1268</v>
       </c>
-      <c r="E16" s="86" t="s">
+      <c r="E16" s="79" t="s">
         <v>1355</v>
       </c>
     </row>
@@ -13896,16 +12633,16 @@
       <c r="A17" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="36" t="s">
         <v>1464</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="79" t="s">
         <v>1159</v>
       </c>
-      <c r="D17" s="86" t="s">
+      <c r="D17" s="79" t="s">
         <v>1269</v>
       </c>
-      <c r="E17" s="86" t="s">
+      <c r="E17" s="79" t="s">
         <v>1356</v>
       </c>
     </row>
@@ -13913,16 +12650,16 @@
       <c r="A18" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B18" s="92" t="s">
+      <c r="B18" s="36" t="s">
         <v>1465</v>
       </c>
-      <c r="C18" s="86" t="s">
+      <c r="C18" s="79" t="s">
         <v>1160</v>
       </c>
-      <c r="D18" s="86" t="s">
+      <c r="D18" s="79" t="s">
         <v>1270</v>
       </c>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="79" t="s">
         <v>1357</v>
       </c>
     </row>
@@ -13930,16 +12667,16 @@
       <c r="A19" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B19" s="92" t="s">
+      <c r="B19" s="36" t="s">
         <v>1466</v>
       </c>
-      <c r="C19" s="86" t="s">
+      <c r="C19" s="79" t="s">
         <v>1161</v>
       </c>
-      <c r="D19" s="86" t="s">
+      <c r="D19" s="79" t="s">
         <v>1271</v>
       </c>
-      <c r="E19" s="86" t="s">
+      <c r="E19" s="79" t="s">
         <v>1358</v>
       </c>
     </row>
@@ -13947,16 +12684,16 @@
       <c r="A20" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B20" s="92" t="s">
+      <c r="B20" s="36" t="s">
         <v>1467</v>
       </c>
-      <c r="C20" s="86" t="s">
+      <c r="C20" s="79" t="s">
         <v>1162</v>
       </c>
-      <c r="D20" s="86" t="s">
+      <c r="D20" s="79" t="s">
         <v>1272</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E20" s="79" t="s">
         <v>1359</v>
       </c>
     </row>
@@ -13964,16 +12701,16 @@
       <c r="A21" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B21" s="92" t="s">
+      <c r="B21" s="36" t="s">
         <v>1468</v>
       </c>
-      <c r="C21" s="86" t="s">
+      <c r="C21" s="79" t="s">
         <v>1163</v>
       </c>
-      <c r="D21" s="86" t="s">
+      <c r="D21" s="79" t="s">
         <v>1273</v>
       </c>
-      <c r="E21" s="86" t="s">
+      <c r="E21" s="79" t="s">
         <v>1360</v>
       </c>
     </row>
@@ -13981,16 +12718,16 @@
       <c r="A22" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="36" t="s">
         <v>1469</v>
       </c>
-      <c r="C22" s="86" t="s">
+      <c r="C22" s="79" t="s">
         <v>1164</v>
       </c>
-      <c r="D22" s="86" t="s">
+      <c r="D22" s="79" t="s">
         <v>1274</v>
       </c>
-      <c r="E22" s="86" t="s">
+      <c r="E22" s="79" t="s">
         <v>1361</v>
       </c>
     </row>
@@ -13998,16 +12735,16 @@
       <c r="A23" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B23" s="92" t="s">
+      <c r="B23" s="36" t="s">
         <v>1470</v>
       </c>
-      <c r="C23" s="86" t="s">
+      <c r="C23" s="79" t="s">
         <v>1165</v>
       </c>
-      <c r="D23" s="86" t="s">
+      <c r="D23" s="79" t="s">
         <v>1275</v>
       </c>
-      <c r="E23" s="86" t="s">
+      <c r="E23" s="79" t="s">
         <v>1362</v>
       </c>
     </row>
@@ -14015,16 +12752,16 @@
       <c r="A24" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B24" s="92" t="s">
+      <c r="B24" s="36" t="s">
         <v>1471</v>
       </c>
-      <c r="C24" s="86" t="s">
+      <c r="C24" s="79" t="s">
         <v>1166</v>
       </c>
-      <c r="D24" s="86" t="s">
+      <c r="D24" s="79" t="s">
         <v>1276</v>
       </c>
-      <c r="E24" s="86" t="s">
+      <c r="E24" s="79" t="s">
         <v>1363</v>
       </c>
     </row>
@@ -14032,16 +12769,16 @@
       <c r="A25" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B25" s="92" t="s">
+      <c r="B25" s="36" t="s">
         <v>1472</v>
       </c>
-      <c r="C25" s="86" t="s">
+      <c r="C25" s="79" t="s">
         <v>1167</v>
       </c>
-      <c r="D25" s="86" t="s">
+      <c r="D25" s="79" t="s">
         <v>1277</v>
       </c>
-      <c r="E25" s="86" t="s">
+      <c r="E25" s="79" t="s">
         <v>1364</v>
       </c>
     </row>
@@ -14049,16 +12786,16 @@
       <c r="A26" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B26" s="36" t="s">
         <v>1473</v>
       </c>
-      <c r="C26" s="86" t="s">
+      <c r="C26" s="79" t="s">
         <v>1168</v>
       </c>
-      <c r="D26" s="86" t="s">
+      <c r="D26" s="79" t="s">
         <v>1278</v>
       </c>
-      <c r="E26" s="86" t="s">
+      <c r="E26" s="79" t="s">
         <v>1365</v>
       </c>
     </row>
@@ -14066,16 +12803,16 @@
       <c r="A27" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="36" t="s">
         <v>1474</v>
       </c>
-      <c r="C27" s="86" t="s">
+      <c r="C27" s="79" t="s">
         <v>1169</v>
       </c>
-      <c r="D27" s="86" t="s">
+      <c r="D27" s="79" t="s">
         <v>1279</v>
       </c>
-      <c r="E27" s="86" t="s">
+      <c r="E27" s="79" t="s">
         <v>1366</v>
       </c>
     </row>
@@ -14083,16 +12820,16 @@
       <c r="A28" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="36" t="s">
         <v>1475</v>
       </c>
-      <c r="C28" s="86" t="s">
+      <c r="C28" s="79" t="s">
         <v>1170</v>
       </c>
-      <c r="D28" s="86" t="s">
+      <c r="D28" s="79" t="s">
         <v>1280</v>
       </c>
-      <c r="E28" s="86" t="s">
+      <c r="E28" s="79" t="s">
         <v>1367</v>
       </c>
     </row>
@@ -14100,16 +12837,16 @@
       <c r="A29" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="36" t="s">
         <v>1476</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="79" t="s">
         <v>1171</v>
       </c>
-      <c r="D29" s="86" t="s">
+      <c r="D29" s="79" t="s">
         <v>1281</v>
       </c>
-      <c r="E29" s="86" t="s">
+      <c r="E29" s="79" t="s">
         <v>1368</v>
       </c>
     </row>
@@ -14117,16 +12854,16 @@
       <c r="A30" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="36" t="s">
         <v>1477</v>
       </c>
-      <c r="C30" s="86" t="s">
+      <c r="C30" s="79" t="s">
         <v>1172</v>
       </c>
-      <c r="D30" s="86" t="s">
+      <c r="D30" s="79" t="s">
         <v>1282</v>
       </c>
-      <c r="E30" s="86" t="s">
+      <c r="E30" s="79" t="s">
         <v>1369</v>
       </c>
     </row>
@@ -14134,16 +12871,16 @@
       <c r="A31" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="36" t="s">
         <v>1478</v>
       </c>
-      <c r="C31" s="86" t="s">
+      <c r="C31" s="79" t="s">
         <v>1173</v>
       </c>
-      <c r="D31" s="86" t="s">
+      <c r="D31" s="79" t="s">
         <v>1283</v>
       </c>
-      <c r="E31" s="86" t="s">
+      <c r="E31" s="79" t="s">
         <v>1370</v>
       </c>
     </row>
@@ -14151,16 +12888,16 @@
       <c r="A32" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="36" t="s">
         <v>1479</v>
       </c>
-      <c r="C32" s="86" t="s">
+      <c r="C32" s="79" t="s">
         <v>1174</v>
       </c>
-      <c r="D32" s="86" t="s">
+      <c r="D32" s="79" t="s">
         <v>1284</v>
       </c>
-      <c r="E32" s="86" t="s">
+      <c r="E32" s="79" t="s">
         <v>1371</v>
       </c>
     </row>
@@ -14168,16 +12905,16 @@
       <c r="A33" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="36" t="s">
         <v>1480</v>
       </c>
-      <c r="C33" s="86" t="s">
+      <c r="C33" s="79" t="s">
         <v>1175</v>
       </c>
-      <c r="D33" s="86" t="s">
+      <c r="D33" s="79" t="s">
         <v>1285</v>
       </c>
-      <c r="E33" s="86" t="s">
+      <c r="E33" s="79" t="s">
         <v>1372</v>
       </c>
     </row>
@@ -14185,16 +12922,16 @@
       <c r="A34" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="36" t="s">
         <v>1481</v>
       </c>
-      <c r="C34" s="86" t="s">
+      <c r="C34" s="79" t="s">
         <v>1176</v>
       </c>
-      <c r="D34" s="86" t="s">
+      <c r="D34" s="79" t="s">
         <v>1286</v>
       </c>
-      <c r="E34" s="86" t="s">
+      <c r="E34" s="79" t="s">
         <v>1373</v>
       </c>
     </row>
@@ -14202,16 +12939,16 @@
       <c r="A35" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B35" s="92" t="s">
+      <c r="B35" s="36" t="s">
         <v>1482</v>
       </c>
-      <c r="C35" s="86" t="s">
+      <c r="C35" s="79" t="s">
         <v>1177</v>
       </c>
-      <c r="D35" s="86" t="s">
+      <c r="D35" s="79" t="s">
         <v>1287</v>
       </c>
-      <c r="E35" s="86" t="s">
+      <c r="E35" s="79" t="s">
         <v>1374</v>
       </c>
     </row>
@@ -14219,16 +12956,16 @@
       <c r="A36" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B36" s="92" t="s">
+      <c r="B36" s="36" t="s">
         <v>1178</v>
       </c>
-      <c r="C36" s="86" t="s">
+      <c r="C36" s="79" t="s">
         <v>1179</v>
       </c>
-      <c r="D36" s="86" t="s">
+      <c r="D36" s="79" t="s">
         <v>1288</v>
       </c>
-      <c r="E36" s="86" t="s">
+      <c r="E36" s="79" t="s">
         <v>1375</v>
       </c>
     </row>
@@ -14236,16 +12973,16 @@
       <c r="A37" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B37" s="92" t="s">
+      <c r="B37" s="36" t="s">
         <v>1483</v>
       </c>
-      <c r="C37" s="86" t="s">
+      <c r="C37" s="79" t="s">
         <v>1180</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D37" s="79" t="s">
         <v>1289</v>
       </c>
-      <c r="E37" s="86" t="s">
+      <c r="E37" s="79" t="s">
         <v>1376</v>
       </c>
     </row>
@@ -14253,16 +12990,16 @@
       <c r="A38" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B38" s="92" t="s">
+      <c r="B38" s="36" t="s">
         <v>1484</v>
       </c>
-      <c r="C38" s="86" t="s">
+      <c r="C38" s="79" t="s">
         <v>1181</v>
       </c>
-      <c r="D38" s="86" t="s">
+      <c r="D38" s="79" t="s">
         <v>1298</v>
       </c>
-      <c r="E38" s="89" t="s">
+      <c r="E38" s="79" t="s">
         <v>1415</v>
       </c>
     </row>
@@ -14270,16 +13007,16 @@
       <c r="A39" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B39" s="92" t="s">
+      <c r="B39" s="36" t="s">
         <v>1485</v>
       </c>
-      <c r="C39" s="86" t="s">
+      <c r="C39" s="79" t="s">
         <v>1182</v>
       </c>
-      <c r="D39" s="86" t="s">
+      <c r="D39" s="79" t="s">
         <v>1291</v>
       </c>
-      <c r="E39" s="86" t="s">
+      <c r="E39" s="79" t="s">
         <v>1378</v>
       </c>
     </row>
@@ -14287,16 +13024,16 @@
       <c r="A40" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B40" s="92" t="s">
+      <c r="B40" s="36" t="s">
         <v>1486</v>
       </c>
-      <c r="C40" s="86" t="s">
+      <c r="C40" s="79" t="s">
         <v>1183</v>
       </c>
-      <c r="D40" s="86" t="s">
+      <c r="D40" s="79" t="s">
         <v>1292</v>
       </c>
-      <c r="E40" s="86" t="s">
+      <c r="E40" s="79" t="s">
         <v>1379</v>
       </c>
     </row>
@@ -14304,16 +13041,16 @@
       <c r="A41" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B41" s="92" t="s">
+      <c r="B41" s="36" t="s">
         <v>1487</v>
       </c>
-      <c r="C41" s="86" t="s">
+      <c r="C41" s="79" t="s">
         <v>1184</v>
       </c>
-      <c r="D41" s="86" t="s">
+      <c r="D41" s="79" t="s">
         <v>1293</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="79" t="s">
         <v>1380</v>
       </c>
     </row>
@@ -14321,16 +13058,16 @@
       <c r="A42" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B42" s="92" t="s">
+      <c r="B42" s="36" t="s">
         <v>1488</v>
       </c>
-      <c r="C42" s="86" t="s">
+      <c r="C42" s="79" t="s">
         <v>1185</v>
       </c>
-      <c r="D42" s="86" t="s">
+      <c r="D42" s="79" t="s">
         <v>1290</v>
       </c>
-      <c r="E42" s="86" t="s">
+      <c r="E42" s="79" t="s">
         <v>1377</v>
       </c>
     </row>
@@ -14338,16 +13075,16 @@
       <c r="A43" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B43" s="92" t="s">
+      <c r="B43" s="36" t="s">
         <v>1489</v>
       </c>
-      <c r="C43" s="86" t="s">
+      <c r="C43" s="79" t="s">
         <v>1186</v>
       </c>
-      <c r="D43" s="86" t="s">
+      <c r="D43" s="79" t="s">
         <v>1294</v>
       </c>
-      <c r="E43" s="86" t="s">
+      <c r="E43" s="79" t="s">
         <v>1381</v>
       </c>
     </row>
@@ -14355,16 +13092,16 @@
       <c r="A44" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B44" s="92" t="s">
+      <c r="B44" s="36" t="s">
         <v>1490</v>
       </c>
-      <c r="C44" s="86" t="s">
+      <c r="C44" s="79" t="s">
         <v>1187</v>
       </c>
-      <c r="D44" s="86" t="s">
+      <c r="D44" s="79" t="s">
         <v>1295</v>
       </c>
-      <c r="E44" s="86" t="s">
+      <c r="E44" s="79" t="s">
         <v>1382</v>
       </c>
     </row>
@@ -14372,16 +13109,16 @@
       <c r="A45" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B45" s="92" t="s">
+      <c r="B45" s="36" t="s">
         <v>1491</v>
       </c>
-      <c r="C45" s="86" t="s">
+      <c r="C45" s="79" t="s">
         <v>1188</v>
       </c>
-      <c r="D45" s="86" t="s">
+      <c r="D45" s="79" t="s">
         <v>1296</v>
       </c>
-      <c r="E45" s="86" t="s">
+      <c r="E45" s="79" t="s">
         <v>1383</v>
       </c>
     </row>
@@ -14389,14 +13126,14 @@
       <c r="A46" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B46" s="92" t="s">
+      <c r="B46" s="36" t="s">
         <v>1492</v>
       </c>
-      <c r="C46" s="86" t="s">
+      <c r="C46" s="79" t="s">
         <v>1189</v>
       </c>
       <c r="D46" s="36"/>
-      <c r="E46" s="86" t="s">
+      <c r="E46" s="79" t="s">
         <v>1384</v>
       </c>
     </row>
@@ -14404,14 +13141,14 @@
       <c r="A47" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B47" s="92" t="s">
+      <c r="B47" s="36" t="s">
         <v>1493</v>
       </c>
-      <c r="C47" s="86" t="s">
+      <c r="C47" s="79" t="s">
         <v>1190</v>
       </c>
       <c r="D47" s="36"/>
-      <c r="E47" s="86" t="s">
+      <c r="E47" s="79" t="s">
         <v>1385</v>
       </c>
     </row>
@@ -14419,14 +13156,14 @@
       <c r="A48" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B48" s="92" t="s">
+      <c r="B48" s="36" t="s">
         <v>1494</v>
       </c>
-      <c r="C48" s="86" t="s">
+      <c r="C48" s="79" t="s">
         <v>1191</v>
       </c>
       <c r="D48" s="36"/>
-      <c r="E48" s="86" t="s">
+      <c r="E48" s="79" t="s">
         <v>1386</v>
       </c>
     </row>
@@ -14434,14 +13171,14 @@
       <c r="A49" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B49" s="92" t="s">
+      <c r="B49" s="36" t="s">
         <v>1495</v>
       </c>
-      <c r="C49" s="86" t="s">
+      <c r="C49" s="79" t="s">
         <v>1192</v>
       </c>
       <c r="D49" s="36"/>
-      <c r="E49" s="86" t="s">
+      <c r="E49" s="79" t="s">
         <v>1387</v>
       </c>
     </row>
@@ -14449,14 +13186,14 @@
       <c r="A50" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B50" s="92" t="s">
+      <c r="B50" s="36" t="s">
         <v>1496</v>
       </c>
-      <c r="C50" s="86" t="s">
+      <c r="C50" s="79" t="s">
         <v>1193</v>
       </c>
       <c r="D50" s="36"/>
-      <c r="E50" s="86" t="s">
+      <c r="E50" s="79" t="s">
         <v>1388</v>
       </c>
     </row>
@@ -14464,14 +13201,14 @@
       <c r="A51" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B51" s="92" t="s">
+      <c r="B51" s="36" t="s">
         <v>1497</v>
       </c>
-      <c r="C51" s="86" t="s">
+      <c r="C51" s="79" t="s">
         <v>1194</v>
       </c>
       <c r="D51" s="36"/>
-      <c r="E51" s="86" t="s">
+      <c r="E51" s="79" t="s">
         <v>1389</v>
       </c>
     </row>
@@ -14479,14 +13216,14 @@
       <c r="A52" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B52" s="92" t="s">
+      <c r="B52" s="36" t="s">
         <v>1498</v>
       </c>
-      <c r="C52" s="86" t="s">
+      <c r="C52" s="79" t="s">
         <v>1195</v>
       </c>
       <c r="D52" s="36"/>
-      <c r="E52" s="86" t="s">
+      <c r="E52" s="79" t="s">
         <v>1390</v>
       </c>
     </row>
@@ -14494,14 +13231,14 @@
       <c r="A53" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B53" s="92" t="s">
+      <c r="B53" s="36" t="s">
         <v>1499</v>
       </c>
-      <c r="C53" s="86" t="s">
+      <c r="C53" s="79" t="s">
         <v>1196</v>
       </c>
       <c r="D53" s="36"/>
-      <c r="E53" s="86" t="s">
+      <c r="E53" s="79" t="s">
         <v>1391</v>
       </c>
     </row>
@@ -14509,14 +13246,14 @@
       <c r="A54" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B54" s="92" t="s">
+      <c r="B54" s="36" t="s">
         <v>1500</v>
       </c>
-      <c r="C54" s="86" t="s">
+      <c r="C54" s="79" t="s">
         <v>1197</v>
       </c>
       <c r="D54" s="36"/>
-      <c r="E54" s="86" t="s">
+      <c r="E54" s="79" t="s">
         <v>1392</v>
       </c>
     </row>
@@ -14524,14 +13261,14 @@
       <c r="A55" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B55" s="92" t="s">
+      <c r="B55" s="36" t="s">
         <v>1501</v>
       </c>
-      <c r="C55" s="86" t="s">
+      <c r="C55" s="79" t="s">
         <v>1198</v>
       </c>
       <c r="D55" s="36"/>
-      <c r="E55" s="86" t="s">
+      <c r="E55" s="79" t="s">
         <v>1393</v>
       </c>
     </row>
@@ -14539,14 +13276,14 @@
       <c r="A56" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B56" s="92" t="s">
+      <c r="B56" s="36" t="s">
         <v>1502</v>
       </c>
-      <c r="C56" s="86" t="s">
+      <c r="C56" s="79" t="s">
         <v>1199</v>
       </c>
       <c r="D56" s="36"/>
-      <c r="E56" s="86" t="s">
+      <c r="E56" s="79" t="s">
         <v>1394</v>
       </c>
     </row>
@@ -14554,14 +13291,14 @@
       <c r="A57" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B57" s="92" t="s">
+      <c r="B57" s="36" t="s">
         <v>1503</v>
       </c>
-      <c r="C57" s="86" t="s">
+      <c r="C57" s="79" t="s">
         <v>1200</v>
       </c>
       <c r="D57" s="36"/>
-      <c r="E57" s="86" t="s">
+      <c r="E57" s="79" t="s">
         <v>1395</v>
       </c>
     </row>
@@ -14569,14 +13306,14 @@
       <c r="A58" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B58" s="92" t="s">
+      <c r="B58" s="36" t="s">
         <v>1504</v>
       </c>
-      <c r="C58" s="86" t="s">
+      <c r="C58" s="79" t="s">
         <v>1201</v>
       </c>
       <c r="D58" s="36"/>
-      <c r="E58" s="86" t="s">
+      <c r="E58" s="79" t="s">
         <v>1396</v>
       </c>
     </row>
@@ -14584,14 +13321,14 @@
       <c r="A59" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B59" s="92" t="s">
+      <c r="B59" s="36" t="s">
         <v>1505</v>
       </c>
-      <c r="C59" s="86" t="s">
+      <c r="C59" s="79" t="s">
         <v>1202</v>
       </c>
       <c r="D59" s="36"/>
-      <c r="E59" s="86" t="s">
+      <c r="E59" s="79" t="s">
         <v>1397</v>
       </c>
     </row>
@@ -14599,14 +13336,14 @@
       <c r="A60" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B60" s="92" t="s">
+      <c r="B60" s="36" t="s">
         <v>1506</v>
       </c>
-      <c r="C60" s="86" t="s">
+      <c r="C60" s="79" t="s">
         <v>1203</v>
       </c>
       <c r="D60" s="36"/>
-      <c r="E60" s="86" t="s">
+      <c r="E60" s="79" t="s">
         <v>1398</v>
       </c>
     </row>
@@ -14614,14 +13351,14 @@
       <c r="A61" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B61" s="92" t="s">
+      <c r="B61" s="36" t="s">
         <v>1507</v>
       </c>
-      <c r="C61" s="86" t="s">
+      <c r="C61" s="79" t="s">
         <v>1204</v>
       </c>
       <c r="D61" s="36"/>
-      <c r="E61" s="86" t="s">
+      <c r="E61" s="79" t="s">
         <v>1399</v>
       </c>
     </row>
@@ -14629,14 +13366,14 @@
       <c r="A62" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B62" s="92" t="s">
+      <c r="B62" s="36" t="s">
         <v>1508</v>
       </c>
-      <c r="C62" s="86" t="s">
+      <c r="C62" s="79" t="s">
         <v>1205</v>
       </c>
       <c r="D62" s="36"/>
-      <c r="E62" s="86" t="s">
+      <c r="E62" s="79" t="s">
         <v>1400</v>
       </c>
     </row>
@@ -14644,14 +13381,14 @@
       <c r="A63" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B63" s="92" t="s">
+      <c r="B63" s="36" t="s">
         <v>1509</v>
       </c>
-      <c r="C63" s="86" t="s">
+      <c r="C63" s="79" t="s">
         <v>1206</v>
       </c>
       <c r="D63" s="36"/>
-      <c r="E63" s="86" t="s">
+      <c r="E63" s="79" t="s">
         <v>1401</v>
       </c>
     </row>
@@ -14659,14 +13396,14 @@
       <c r="A64" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B64" s="92" t="s">
+      <c r="B64" s="36" t="s">
         <v>1510</v>
       </c>
-      <c r="C64" s="86" t="s">
+      <c r="C64" s="79" t="s">
         <v>1207</v>
       </c>
       <c r="D64" s="36"/>
-      <c r="E64" s="86" t="s">
+      <c r="E64" s="79" t="s">
         <v>1402</v>
       </c>
     </row>
@@ -14674,14 +13411,14 @@
       <c r="A65" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B65" s="92" t="s">
+      <c r="B65" s="36" t="s">
         <v>1511</v>
       </c>
-      <c r="C65" s="86" t="s">
+      <c r="C65" s="79" t="s">
         <v>1208</v>
       </c>
       <c r="D65" s="36"/>
-      <c r="E65" s="86" t="s">
+      <c r="E65" s="79" t="s">
         <v>1403</v>
       </c>
     </row>
@@ -14689,14 +13426,14 @@
       <c r="A66" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B66" s="92" t="s">
+      <c r="B66" s="36" t="s">
         <v>1119</v>
       </c>
-      <c r="C66" s="86" t="s">
+      <c r="C66" s="79" t="s">
         <v>1209</v>
       </c>
       <c r="D66" s="36"/>
-      <c r="E66" s="86" t="s">
+      <c r="E66" s="79" t="s">
         <v>1404</v>
       </c>
     </row>
@@ -14704,14 +13441,14 @@
       <c r="A67" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B67" s="92" t="s">
+      <c r="B67" s="36" t="s">
         <v>1512</v>
       </c>
-      <c r="C67" s="86" t="s">
+      <c r="C67" s="79" t="s">
         <v>1211</v>
       </c>
       <c r="D67" s="36"/>
-      <c r="E67" s="86" t="s">
+      <c r="E67" s="79" t="s">
         <v>1405</v>
       </c>
     </row>
@@ -14719,14 +13456,14 @@
       <c r="A68" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B68" s="92" t="s">
+      <c r="B68" s="36" t="s">
         <v>1513</v>
       </c>
-      <c r="C68" s="86" t="s">
+      <c r="C68" s="79" t="s">
         <v>1213</v>
       </c>
       <c r="D68" s="36"/>
-      <c r="E68" s="86" t="s">
+      <c r="E68" s="79" t="s">
         <v>1406</v>
       </c>
     </row>
@@ -14734,14 +13471,14 @@
       <c r="A69" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B69" s="92" t="s">
+      <c r="B69" s="36" t="s">
         <v>1514</v>
       </c>
-      <c r="C69" s="86" t="s">
+      <c r="C69" s="79" t="s">
         <v>1215</v>
       </c>
       <c r="D69" s="36"/>
-      <c r="E69" s="86" t="s">
+      <c r="E69" s="79" t="s">
         <v>1407</v>
       </c>
     </row>
@@ -14749,14 +13486,14 @@
       <c r="A70" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B70" s="92" t="s">
+      <c r="B70" s="36" t="s">
         <v>1515</v>
       </c>
-      <c r="C70" s="86" t="s">
+      <c r="C70" s="79" t="s">
         <v>1217</v>
       </c>
       <c r="D70" s="36"/>
-      <c r="E70" s="86" t="s">
+      <c r="E70" s="79" t="s">
         <v>1408</v>
       </c>
     </row>
@@ -14764,14 +13501,14 @@
       <c r="A71" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B71" s="92" t="s">
+      <c r="B71" s="36" t="s">
         <v>1218</v>
       </c>
-      <c r="C71" s="86" t="s">
+      <c r="C71" s="79" t="s">
         <v>1219</v>
       </c>
       <c r="D71" s="36"/>
-      <c r="E71" s="86" t="s">
+      <c r="E71" s="79" t="s">
         <v>1409</v>
       </c>
     </row>
@@ -14779,14 +13516,14 @@
       <c r="A72" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B72" s="92" t="s">
+      <c r="B72" s="36" t="s">
         <v>1516</v>
       </c>
-      <c r="C72" s="86" t="s">
+      <c r="C72" s="79" t="s">
         <v>1221</v>
       </c>
       <c r="D72" s="36"/>
-      <c r="E72" s="86" t="s">
+      <c r="E72" s="79" t="s">
         <v>1410</v>
       </c>
     </row>
@@ -14794,14 +13531,14 @@
       <c r="A73" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B73" s="92" t="s">
+      <c r="B73" s="36" t="s">
         <v>1517</v>
       </c>
-      <c r="C73" s="86" t="s">
+      <c r="C73" s="79" t="s">
         <v>1223</v>
       </c>
       <c r="D73" s="36"/>
-      <c r="E73" s="86" t="s">
+      <c r="E73" s="79" t="s">
         <v>1411</v>
       </c>
     </row>
@@ -14809,14 +13546,14 @@
       <c r="A74" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B74" s="92" t="s">
+      <c r="B74" s="36" t="s">
         <v>1518</v>
       </c>
-      <c r="C74" s="86" t="s">
+      <c r="C74" s="79" t="s">
         <v>1225</v>
       </c>
       <c r="D74" s="36"/>
-      <c r="E74" s="86" t="s">
+      <c r="E74" s="79" t="s">
         <v>1412</v>
       </c>
     </row>
@@ -14824,14 +13561,14 @@
       <c r="A75" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B75" s="92" t="s">
+      <c r="B75" s="36" t="s">
         <v>1519</v>
       </c>
-      <c r="C75" s="86" t="s">
+      <c r="C75" s="79" t="s">
         <v>1227</v>
       </c>
       <c r="D75" s="36"/>
-      <c r="E75" s="86" t="s">
+      <c r="E75" s="79" t="s">
         <v>1413</v>
       </c>
     </row>
@@ -14839,16 +13576,16 @@
       <c r="A76" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B76" s="92" t="s">
+      <c r="B76" s="36" t="s">
         <v>1520</v>
       </c>
-      <c r="C76" s="86" t="s">
+      <c r="C76" s="79" t="s">
         <v>1228</v>
       </c>
-      <c r="D76" s="86" t="s">
+      <c r="D76" s="79" t="s">
         <v>1299</v>
       </c>
-      <c r="E76" s="86" t="s">
+      <c r="E76" s="79" t="s">
         <v>1416</v>
       </c>
     </row>
@@ -14856,16 +13593,16 @@
       <c r="A77" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B77" s="92" t="s">
+      <c r="B77" s="36" t="s">
         <v>1521</v>
       </c>
-      <c r="C77" s="86" t="s">
+      <c r="C77" s="79" t="s">
         <v>1229</v>
       </c>
-      <c r="D77" s="86" t="s">
+      <c r="D77" s="79" t="s">
         <v>1303</v>
       </c>
-      <c r="E77" s="86" t="s">
+      <c r="E77" s="79" t="s">
         <v>1420</v>
       </c>
     </row>
@@ -14873,16 +13610,16 @@
       <c r="A78" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B78" s="92" t="s">
+      <c r="B78" s="36" t="s">
         <v>1522</v>
       </c>
-      <c r="C78" s="86" t="s">
+      <c r="C78" s="79" t="s">
         <v>1230</v>
       </c>
-      <c r="D78" s="86" t="s">
+      <c r="D78" s="79" t="s">
         <v>1304</v>
       </c>
-      <c r="E78" s="86" t="s">
+      <c r="E78" s="79" t="s">
         <v>1421</v>
       </c>
     </row>
@@ -14890,16 +13627,16 @@
       <c r="A79" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B79" s="92" t="s">
+      <c r="B79" s="36" t="s">
         <v>1523</v>
       </c>
-      <c r="C79" s="86" t="s">
+      <c r="C79" s="79" t="s">
         <v>1231</v>
       </c>
-      <c r="D79" s="86" t="s">
+      <c r="D79" s="79" t="s">
         <v>1300</v>
       </c>
-      <c r="E79" s="86" t="s">
+      <c r="E79" s="79" t="s">
         <v>1417</v>
       </c>
     </row>
@@ -14907,16 +13644,16 @@
       <c r="A80" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B80" s="92" t="s">
+      <c r="B80" s="36" t="s">
         <v>1524</v>
       </c>
-      <c r="C80" s="86" t="s">
+      <c r="C80" s="79" t="s">
         <v>1232</v>
       </c>
-      <c r="D80" s="86" t="s">
+      <c r="D80" s="79" t="s">
         <v>1302</v>
       </c>
-      <c r="E80" s="86" t="s">
+      <c r="E80" s="79" t="s">
         <v>1419</v>
       </c>
     </row>
@@ -14924,16 +13661,16 @@
       <c r="A81" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B81" s="92" t="s">
+      <c r="B81" s="36" t="s">
         <v>1525</v>
       </c>
-      <c r="C81" s="86" t="s">
+      <c r="C81" s="79" t="s">
         <v>1233</v>
       </c>
-      <c r="D81" s="86" t="s">
+      <c r="D81" s="79" t="s">
         <v>1305</v>
       </c>
-      <c r="E81" s="86" t="s">
+      <c r="E81" s="79" t="s">
         <v>1422</v>
       </c>
     </row>
@@ -14941,16 +13678,16 @@
       <c r="A82" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B82" s="92" t="s">
+      <c r="B82" s="36" t="s">
         <v>1526</v>
       </c>
-      <c r="C82" s="86" t="s">
+      <c r="C82" s="79" t="s">
         <v>1234</v>
       </c>
-      <c r="D82" s="86" t="s">
+      <c r="D82" s="79" t="s">
         <v>1306</v>
       </c>
-      <c r="E82" s="86" t="s">
+      <c r="E82" s="79" t="s">
         <v>1423</v>
       </c>
     </row>
@@ -14958,16 +13695,16 @@
       <c r="A83" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B83" s="92" t="s">
+      <c r="B83" s="36" t="s">
         <v>1527</v>
       </c>
-      <c r="C83" s="86" t="s">
+      <c r="C83" s="79" t="s">
         <v>1235</v>
       </c>
-      <c r="D83" s="86" t="s">
+      <c r="D83" s="79" t="s">
         <v>1307</v>
       </c>
-      <c r="E83" s="86" t="s">
+      <c r="E83" s="79" t="s">
         <v>1424</v>
       </c>
     </row>
@@ -14975,16 +13712,16 @@
       <c r="A84" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B84" s="92" t="s">
+      <c r="B84" s="36" t="s">
         <v>1528</v>
       </c>
-      <c r="C84" s="86" t="s">
+      <c r="C84" s="79" t="s">
         <v>1236</v>
       </c>
-      <c r="D84" s="86" t="s">
+      <c r="D84" s="79" t="s">
         <v>1308</v>
       </c>
-      <c r="E84" s="86" t="s">
+      <c r="E84" s="79" t="s">
         <v>1425</v>
       </c>
     </row>
@@ -14992,16 +13729,16 @@
       <c r="A85" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B85" s="92" t="s">
+      <c r="B85" s="36" t="s">
         <v>1529</v>
       </c>
-      <c r="C85" s="86" t="s">
+      <c r="C85" s="79" t="s">
         <v>1237</v>
       </c>
-      <c r="D85" s="86" t="s">
+      <c r="D85" s="79" t="s">
         <v>1309</v>
       </c>
-      <c r="E85" s="86" t="s">
+      <c r="E85" s="79" t="s">
         <v>1426</v>
       </c>
     </row>
@@ -15009,16 +13746,16 @@
       <c r="A86" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B86" s="92" t="s">
+      <c r="B86" s="36" t="s">
         <v>1530</v>
       </c>
-      <c r="C86" s="86" t="s">
+      <c r="C86" s="79" t="s">
         <v>1238</v>
       </c>
-      <c r="D86" s="86" t="s">
+      <c r="D86" s="79" t="s">
         <v>1310</v>
       </c>
-      <c r="E86" s="86" t="s">
+      <c r="E86" s="79" t="s">
         <v>1427</v>
       </c>
     </row>
@@ -15026,16 +13763,16 @@
       <c r="A87" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B87" s="92" t="s">
+      <c r="B87" s="36" t="s">
         <v>1531</v>
       </c>
-      <c r="C87" s="86" t="s">
+      <c r="C87" s="79" t="s">
         <v>1239</v>
       </c>
-      <c r="D87" s="86" t="s">
+      <c r="D87" s="79" t="s">
         <v>1311</v>
       </c>
-      <c r="E87" s="86" t="s">
+      <c r="E87" s="79" t="s">
         <v>1428</v>
       </c>
     </row>
@@ -15043,16 +13780,16 @@
       <c r="A88" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B88" s="92" t="s">
+      <c r="B88" s="36" t="s">
         <v>1532</v>
       </c>
-      <c r="C88" s="86" t="s">
+      <c r="C88" s="79" t="s">
         <v>1240</v>
       </c>
-      <c r="D88" s="86" t="s">
+      <c r="D88" s="79" t="s">
         <v>1312</v>
       </c>
-      <c r="E88" s="86" t="s">
+      <c r="E88" s="79" t="s">
         <v>1429</v>
       </c>
     </row>
@@ -15060,16 +13797,16 @@
       <c r="A89" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B89" s="92" t="s">
+      <c r="B89" s="36" t="s">
         <v>1533</v>
       </c>
-      <c r="C89" s="86" t="s">
+      <c r="C89" s="79" t="s">
         <v>1241</v>
       </c>
-      <c r="D89" s="86" t="s">
+      <c r="D89" s="79" t="s">
         <v>1314</v>
       </c>
-      <c r="E89" s="86" t="s">
+      <c r="E89" s="79" t="s">
         <v>1430</v>
       </c>
     </row>
@@ -15077,16 +13814,16 @@
       <c r="A90" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B90" s="92" t="s">
+      <c r="B90" s="36" t="s">
         <v>1534</v>
       </c>
-      <c r="C90" s="86" t="s">
+      <c r="C90" s="79" t="s">
         <v>1242</v>
       </c>
-      <c r="D90" s="86" t="s">
+      <c r="D90" s="79" t="s">
         <v>1315</v>
       </c>
-      <c r="E90" s="86" t="s">
+      <c r="E90" s="79" t="s">
         <v>1431</v>
       </c>
     </row>
@@ -15094,16 +13831,16 @@
       <c r="A91" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B91" s="92" t="s">
+      <c r="B91" s="36" t="s">
         <v>1535</v>
       </c>
-      <c r="C91" s="86" t="s">
+      <c r="C91" s="79" t="s">
         <v>1243</v>
       </c>
-      <c r="D91" s="86" t="s">
+      <c r="D91" s="79" t="s">
         <v>1316</v>
       </c>
-      <c r="E91" s="86" t="s">
+      <c r="E91" s="79" t="s">
         <v>1432</v>
       </c>
     </row>
@@ -15111,16 +13848,16 @@
       <c r="A92" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B92" s="92" t="s">
+      <c r="B92" s="36" t="s">
         <v>1536</v>
       </c>
-      <c r="C92" s="86" t="s">
+      <c r="C92" s="79" t="s">
         <v>1244</v>
       </c>
-      <c r="D92" s="86" t="s">
+      <c r="D92" s="79" t="s">
         <v>1317</v>
       </c>
-      <c r="E92" s="86" t="s">
+      <c r="E92" s="79" t="s">
         <v>1433</v>
       </c>
     </row>
@@ -15128,16 +13865,16 @@
       <c r="A93" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B93" s="92" t="s">
+      <c r="B93" s="36" t="s">
         <v>1537</v>
       </c>
-      <c r="C93" s="86" t="s">
+      <c r="C93" s="79" t="s">
         <v>1245</v>
       </c>
-      <c r="D93" s="86" t="s">
+      <c r="D93" s="79" t="s">
         <v>1318</v>
       </c>
-      <c r="E93" s="86" t="s">
+      <c r="E93" s="79" t="s">
         <v>1434</v>
       </c>
     </row>
@@ -15145,16 +13882,16 @@
       <c r="A94" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B94" s="92" t="s">
+      <c r="B94" s="36" t="s">
         <v>1538</v>
       </c>
-      <c r="C94" s="86" t="s">
+      <c r="C94" s="79" t="s">
         <v>1246</v>
       </c>
-      <c r="D94" s="86" t="s">
+      <c r="D94" s="79" t="s">
         <v>1319</v>
       </c>
-      <c r="E94" s="86" t="s">
+      <c r="E94" s="79" t="s">
         <v>1435</v>
       </c>
     </row>
@@ -15162,16 +13899,16 @@
       <c r="A95" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B95" s="92" t="s">
+      <c r="B95" s="36" t="s">
         <v>1539</v>
       </c>
-      <c r="C95" s="86" t="s">
+      <c r="C95" s="79" t="s">
         <v>1247</v>
       </c>
-      <c r="D95" s="86" t="s">
+      <c r="D95" s="79" t="s">
         <v>1320</v>
       </c>
-      <c r="E95" s="86" t="s">
+      <c r="E95" s="79" t="s">
         <v>1436</v>
       </c>
     </row>
@@ -15179,16 +13916,16 @@
       <c r="A96" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B96" s="92" t="s">
+      <c r="B96" s="36" t="s">
         <v>1540</v>
       </c>
-      <c r="C96" s="86" t="s">
+      <c r="C96" s="79" t="s">
         <v>1248</v>
       </c>
-      <c r="D96" s="86" t="s">
+      <c r="D96" s="79" t="s">
         <v>1321</v>
       </c>
-      <c r="E96" s="86" t="s">
+      <c r="E96" s="79" t="s">
         <v>1437</v>
       </c>
     </row>
@@ -15196,16 +13933,16 @@
       <c r="A97" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B97" s="92" t="s">
+      <c r="B97" s="36" t="s">
         <v>1541</v>
       </c>
-      <c r="C97" s="86" t="s">
+      <c r="C97" s="79" t="s">
         <v>1249</v>
       </c>
-      <c r="D97" s="86" t="s">
+      <c r="D97" s="79" t="s">
         <v>1322</v>
       </c>
-      <c r="E97" s="86" t="s">
+      <c r="E97" s="79" t="s">
         <v>1438</v>
       </c>
     </row>
@@ -15213,14 +13950,14 @@
       <c r="A98" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B98" s="92" t="s">
+      <c r="B98" s="36" t="s">
         <v>1250</v>
       </c>
-      <c r="C98" s="86" t="s">
+      <c r="C98" s="79" t="s">
         <v>1251</v>
       </c>
       <c r="D98" s="36"/>
-      <c r="E98" s="86" t="s">
+      <c r="E98" s="79" t="s">
         <v>1439</v>
       </c>
     </row>
@@ -15228,16 +13965,16 @@
       <c r="A99" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B99" s="92" t="s">
+      <c r="B99" s="36" t="s">
         <v>1542</v>
       </c>
-      <c r="C99" s="86" t="s">
+      <c r="C99" s="79" t="s">
         <v>1252</v>
       </c>
-      <c r="D99" s="86" t="s">
+      <c r="D99" s="79" t="s">
         <v>1330</v>
       </c>
-      <c r="E99" s="86" t="s">
+      <c r="E99" s="79" t="s">
         <v>1446</v>
       </c>
     </row>
@@ -15245,16 +13982,16 @@
       <c r="A100" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B100" s="92" t="s">
+      <c r="B100" s="36" t="s">
         <v>1130</v>
       </c>
-      <c r="C100" s="86" t="s">
+      <c r="C100" s="79" t="s">
         <v>1253</v>
       </c>
-      <c r="D100" s="86" t="s">
+      <c r="D100" s="79" t="s">
         <v>1118</v>
       </c>
-      <c r="E100" s="86" t="s">
+      <c r="E100" s="79" t="s">
         <v>1447</v>
       </c>
     </row>
@@ -15262,27 +13999,27 @@
       <c r="A101" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B101" s="92" t="s">
+      <c r="B101" s="36" t="s">
         <v>1543</v>
       </c>
       <c r="C101" s="36"/>
-      <c r="D101" s="86" t="s">
+      <c r="D101" s="79" t="s">
         <v>1313</v>
       </c>
-      <c r="E101" s="88"/>
+      <c r="E101" s="81"/>
     </row>
     <row r="102" spans="1:5" ht="15">
       <c r="A102" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B102" s="92" t="s">
+      <c r="B102" s="36" t="s">
         <v>1544</v>
       </c>
       <c r="C102" s="36"/>
-      <c r="D102" s="86" t="s">
+      <c r="D102" s="79" t="s">
         <v>1297</v>
       </c>
-      <c r="E102" s="86" t="s">
+      <c r="E102" s="79" t="s">
         <v>1414</v>
       </c>
     </row>
@@ -15290,14 +14027,14 @@
       <c r="A103" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B103" s="92" t="s">
+      <c r="B103" s="36" t="s">
         <v>1545</v>
       </c>
       <c r="C103" s="36"/>
-      <c r="D103" s="86" t="s">
+      <c r="D103" s="79" t="s">
         <v>1301</v>
       </c>
-      <c r="E103" s="86" t="s">
+      <c r="E103" s="79" t="s">
         <v>1418</v>
       </c>
     </row>
@@ -15305,14 +14042,14 @@
       <c r="A104" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B104" s="92" t="s">
+      <c r="B104" s="36" t="s">
         <v>1333</v>
       </c>
       <c r="C104" s="36"/>
-      <c r="D104" s="86" t="s">
+      <c r="D104" s="79" t="s">
         <v>1323</v>
       </c>
-      <c r="E104" s="86" t="s">
+      <c r="E104" s="79" t="s">
         <v>1440</v>
       </c>
     </row>
@@ -15320,27 +14057,27 @@
       <c r="A105" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B105" s="92" t="s">
+      <c r="B105" s="36" t="s">
         <v>1334</v>
       </c>
       <c r="C105" s="36"/>
-      <c r="D105" s="86" t="s">
+      <c r="D105" s="79" t="s">
         <v>1324</v>
       </c>
-      <c r="E105" s="88"/>
+      <c r="E105" s="81"/>
     </row>
     <row r="106" spans="1:5" ht="15">
       <c r="A106" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B106" s="92" t="s">
+      <c r="B106" s="36" t="s">
         <v>1335</v>
       </c>
       <c r="C106" s="36"/>
-      <c r="D106" s="86" t="s">
+      <c r="D106" s="79" t="s">
         <v>1325</v>
       </c>
-      <c r="E106" s="86" t="s">
+      <c r="E106" s="79" t="s">
         <v>1441</v>
       </c>
     </row>
@@ -15348,14 +14085,14 @@
       <c r="A107" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B107" s="92" t="s">
+      <c r="B107" s="36" t="s">
         <v>1336</v>
       </c>
       <c r="C107" s="36"/>
-      <c r="D107" s="86" t="s">
+      <c r="D107" s="79" t="s">
         <v>1326</v>
       </c>
-      <c r="E107" s="86" t="s">
+      <c r="E107" s="79" t="s">
         <v>1442</v>
       </c>
     </row>
@@ -15363,14 +14100,14 @@
       <c r="A108" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B108" s="92" t="s">
+      <c r="B108" s="36" t="s">
         <v>1337</v>
       </c>
       <c r="C108" s="36"/>
-      <c r="D108" s="86" t="s">
+      <c r="D108" s="79" t="s">
         <v>1327</v>
       </c>
-      <c r="E108" s="86" t="s">
+      <c r="E108" s="79" t="s">
         <v>1443</v>
       </c>
     </row>
@@ -15378,14 +14115,14 @@
       <c r="A109" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B109" s="92" t="s">
+      <c r="B109" s="36" t="s">
         <v>1338</v>
       </c>
       <c r="C109" s="36"/>
-      <c r="D109" s="86" t="s">
+      <c r="D109" s="79" t="s">
         <v>1328</v>
       </c>
-      <c r="E109" s="86" t="s">
+      <c r="E109" s="79" t="s">
         <v>1444</v>
       </c>
     </row>
@@ -15393,23 +14130,23 @@
       <c r="A110" s="2" t="s">
         <v>1547</v>
       </c>
-      <c r="B110" s="92" t="s">
+      <c r="B110" s="36" t="s">
         <v>1339</v>
       </c>
       <c r="C110" s="36"/>
-      <c r="D110" s="86" t="s">
+      <c r="D110" s="79" t="s">
         <v>1329</v>
       </c>
-      <c r="E110" s="86" t="s">
+      <c r="E110" s="79" t="s">
         <v>1445</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="15">
       <c r="A111" s="2"/>
-      <c r="B111" s="85" t="s">
+      <c r="B111" t="s">
         <v>1546</v>
       </c>
-      <c r="E111" s="87" t="s">
+      <c r="E111" s="80" t="s">
         <v>1346</v>
       </c>
     </row>
@@ -15417,571 +14154,571 @@
       <c r="A112" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B112" s="86" t="s">
+      <c r="B112" s="79" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C112" s="79" t="s">
         <v>1549</v>
-      </c>
-      <c r="C112" s="86" t="s">
-        <v>1550</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="15">
       <c r="A113" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B113" s="86" t="s">
-        <v>1551</v>
-      </c>
-      <c r="C113" s="86" t="s">
-        <v>1552</v>
+      <c r="B113" s="79" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C113" s="79" t="s">
+        <v>1550</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="15">
       <c r="A114" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B114" s="86" t="s">
-        <v>1553</v>
-      </c>
-      <c r="C114" s="86" t="s">
-        <v>1554</v>
+      <c r="B114" s="79" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C114" s="79" t="s">
+        <v>1551</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="15">
       <c r="A115" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B115" s="86" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C115" s="86" t="s">
-        <v>1556</v>
+      <c r="B115" s="79" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C115" s="79" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="15">
       <c r="A116" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B116" s="86" t="s">
-        <v>1557</v>
-      </c>
-      <c r="C116" s="86" t="s">
-        <v>1558</v>
+      <c r="B116" s="79" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C116" s="79" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="117" spans="1:3" ht="15">
       <c r="A117" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B117" s="86" t="s">
-        <v>1559</v>
-      </c>
-      <c r="C117" s="86" t="s">
-        <v>1560</v>
+      <c r="B117" s="79" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C117" s="79" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="118" spans="1:3" ht="15">
       <c r="A118" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B118" s="86" t="s">
-        <v>1561</v>
-      </c>
-      <c r="C118" s="86" t="s">
-        <v>1562</v>
+      <c r="B118" s="79" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C118" s="79" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="119" spans="1:3" ht="15">
       <c r="A119" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B119" s="86" t="s">
-        <v>1563</v>
-      </c>
-      <c r="C119" s="86" t="s">
-        <v>1564</v>
+      <c r="B119" s="79" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C119" s="79" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="15">
       <c r="A120" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B120" s="86" t="s">
-        <v>1565</v>
-      </c>
-      <c r="C120" s="86" t="s">
-        <v>1566</v>
+      <c r="B120" s="79" t="s">
+        <v>1691</v>
+      </c>
+      <c r="C120" s="79" t="s">
+        <v>1557</v>
       </c>
     </row>
     <row r="121" spans="1:3" ht="15">
       <c r="A121" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B121" s="86" t="s">
-        <v>1567</v>
-      </c>
-      <c r="C121" s="86" t="s">
-        <v>1568</v>
+      <c r="B121" s="79" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C121" s="79" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="15">
       <c r="A122" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B122" s="86" t="s">
-        <v>1569</v>
-      </c>
-      <c r="C122" s="86" t="s">
-        <v>1570</v>
+      <c r="B122" s="79" t="s">
+        <v>1693</v>
+      </c>
+      <c r="C122" s="79" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="15">
       <c r="A123" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B123" s="86" t="s">
-        <v>1571</v>
-      </c>
-      <c r="C123" s="86" t="s">
-        <v>1572</v>
+      <c r="B123" s="79" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C123" s="79" t="s">
+        <v>1560</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="15">
       <c r="A124" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B124" s="86" t="s">
-        <v>1573</v>
-      </c>
-      <c r="C124" s="86" t="s">
-        <v>1574</v>
+      <c r="B124" s="79" t="s">
+        <v>1695</v>
+      </c>
+      <c r="C124" s="79" t="s">
+        <v>1561</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="15">
       <c r="A125" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B125" s="86" t="s">
-        <v>1575</v>
-      </c>
-      <c r="C125" s="86" t="s">
-        <v>1576</v>
+      <c r="B125" s="79" t="s">
+        <v>1696</v>
+      </c>
+      <c r="C125" s="79" t="s">
+        <v>1562</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="15">
       <c r="A126" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B126" s="86" t="s">
-        <v>1577</v>
-      </c>
-      <c r="C126" s="86" t="s">
-        <v>1578</v>
+      <c r="B126" s="79" t="s">
+        <v>1697</v>
+      </c>
+      <c r="C126" s="79" t="s">
+        <v>1563</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="15">
       <c r="A127" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B127" s="86" t="s">
-        <v>1579</v>
-      </c>
-      <c r="C127" s="86" t="s">
-        <v>1580</v>
+      <c r="B127" s="79" t="s">
+        <v>1698</v>
+      </c>
+      <c r="C127" s="79" t="s">
+        <v>1564</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="15">
       <c r="A128" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B128" s="86" t="s">
-        <v>1581</v>
-      </c>
-      <c r="C128" s="86" t="s">
-        <v>1582</v>
+      <c r="B128" s="79" t="s">
+        <v>1699</v>
+      </c>
+      <c r="C128" s="79" t="s">
+        <v>1565</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="15">
       <c r="A129" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B129" s="86" t="s">
-        <v>1583</v>
-      </c>
-      <c r="C129" s="86" t="s">
-        <v>1584</v>
+      <c r="B129" s="79" t="s">
+        <v>1700</v>
+      </c>
+      <c r="C129" s="79" t="s">
+        <v>1566</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="15">
       <c r="A130" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B130" s="86" t="s">
-        <v>1585</v>
-      </c>
-      <c r="C130" s="86" t="s">
-        <v>1586</v>
+      <c r="B130" s="79" t="s">
+        <v>1701</v>
+      </c>
+      <c r="C130" s="79" t="s">
+        <v>1567</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="15">
       <c r="A131" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B131" s="86" t="s">
-        <v>1587</v>
-      </c>
-      <c r="C131" s="86" t="s">
-        <v>1588</v>
+      <c r="B131" s="79" t="s">
+        <v>1702</v>
+      </c>
+      <c r="C131" s="79" t="s">
+        <v>1568</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="15">
       <c r="A132" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B132" s="86" t="s">
-        <v>1589</v>
-      </c>
-      <c r="C132" s="86" t="s">
-        <v>1590</v>
+      <c r="B132" s="79" t="s">
+        <v>1703</v>
+      </c>
+      <c r="C132" s="79" t="s">
+        <v>1569</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="15">
       <c r="A133" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B133" s="86" t="s">
-        <v>1591</v>
-      </c>
-      <c r="C133" s="86" t="s">
-        <v>1592</v>
+      <c r="B133" s="79" t="s">
+        <v>1704</v>
+      </c>
+      <c r="C133" s="79" t="s">
+        <v>1570</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="15">
       <c r="A134" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B134" s="86" t="s">
-        <v>1593</v>
-      </c>
-      <c r="C134" s="86" t="s">
-        <v>1594</v>
+      <c r="B134" s="79" t="s">
+        <v>1705</v>
+      </c>
+      <c r="C134" s="79" t="s">
+        <v>1571</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="15">
       <c r="A135" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B135" s="86" t="s">
-        <v>1595</v>
-      </c>
-      <c r="C135" s="86" t="s">
-        <v>1596</v>
+      <c r="B135" s="79" t="s">
+        <v>1706</v>
+      </c>
+      <c r="C135" s="79" t="s">
+        <v>1572</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="15">
       <c r="A136" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B136" s="86" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C136" s="86" t="s">
-        <v>1598</v>
+      <c r="B136" s="79" t="s">
+        <v>1707</v>
+      </c>
+      <c r="C136" s="79" t="s">
+        <v>1573</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="15">
       <c r="A137" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B137" s="86" t="s">
-        <v>1599</v>
-      </c>
-      <c r="C137" s="86" t="s">
-        <v>1600</v>
+      <c r="B137" s="79" t="s">
+        <v>1708</v>
+      </c>
+      <c r="C137" s="79" t="s">
+        <v>1574</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="15">
       <c r="A138" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B138" s="86" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C138" s="86" t="s">
-        <v>1602</v>
+      <c r="B138" s="79" t="s">
+        <v>1709</v>
+      </c>
+      <c r="C138" s="79" t="s">
+        <v>1575</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="15">
       <c r="A139" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B139" s="86" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C139" s="86" t="s">
-        <v>1604</v>
+      <c r="B139" s="79" t="s">
+        <v>1710</v>
+      </c>
+      <c r="C139" s="79" t="s">
+        <v>1576</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="15">
       <c r="A140" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B140" s="86" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C140" s="86" t="s">
-        <v>1606</v>
+      <c r="B140" s="79" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C140" s="79" t="s">
+        <v>1577</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="15">
       <c r="A141" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B141" s="86" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C141" s="86" t="s">
-        <v>1608</v>
+      <c r="B141" s="79" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C141" s="79" t="s">
+        <v>1578</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="15">
       <c r="A142" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B142" s="86" t="s">
-        <v>1609</v>
-      </c>
-      <c r="C142" s="86" t="s">
-        <v>1610</v>
+      <c r="B142" s="79" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C142" s="79" t="s">
+        <v>1579</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="15">
       <c r="A143" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B143" s="86" t="s">
-        <v>1555</v>
-      </c>
-      <c r="C143" s="86" t="s">
-        <v>1556</v>
+      <c r="B143" s="79" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C143" s="79" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="15">
       <c r="A144" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B144" s="86" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C144" s="86" t="s">
-        <v>1612</v>
+      <c r="B144" s="79" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C144" s="79" t="s">
+        <v>1580</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="15">
       <c r="A145" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B145" s="86" t="s">
-        <v>1613</v>
-      </c>
-      <c r="C145" s="86" t="s">
-        <v>1614</v>
+      <c r="B145" s="79" t="s">
+        <v>1715</v>
+      </c>
+      <c r="C145" s="79" t="s">
+        <v>1581</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="15">
       <c r="A146" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B146" s="86" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C146" s="86" t="s">
-        <v>1616</v>
+      <c r="B146" s="79" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C146" s="79" t="s">
+        <v>1582</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="15">
       <c r="A147" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B147" s="86" t="s">
-        <v>1617</v>
-      </c>
-      <c r="C147" s="86" t="s">
-        <v>1618</v>
+      <c r="B147" s="79" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C147" s="79" t="s">
+        <v>1583</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="15">
       <c r="A148" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B148" s="86" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C148" s="86" t="s">
-        <v>1620</v>
+      <c r="B148" s="79" t="s">
+        <v>1584</v>
+      </c>
+      <c r="C148" s="79" t="s">
+        <v>1585</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="15">
       <c r="A149" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B149" s="86" t="s">
-        <v>1621</v>
-      </c>
-      <c r="C149" s="86" t="s">
-        <v>1622</v>
+      <c r="B149" s="79" t="s">
+        <v>1586</v>
+      </c>
+      <c r="C149" s="79" t="s">
+        <v>1587</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="15">
       <c r="A150" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B150" s="86" t="s">
-        <v>1623</v>
-      </c>
-      <c r="C150" s="86" t="s">
-        <v>1624</v>
+      <c r="B150" s="79" t="s">
+        <v>1718</v>
+      </c>
+      <c r="C150" s="79" t="s">
+        <v>1588</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="15">
       <c r="A151" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B151" s="86" t="s">
-        <v>1625</v>
-      </c>
-      <c r="C151" s="86" t="s">
-        <v>1626</v>
+      <c r="B151" s="79" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C151" s="79" t="s">
+        <v>1589</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="15">
       <c r="A152" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B152" s="86" t="s">
-        <v>1627</v>
-      </c>
-      <c r="C152" s="86" t="s">
-        <v>1628</v>
+      <c r="B152" s="79" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C152" s="79" t="s">
+        <v>1590</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="15">
       <c r="A153" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B153" s="86" t="s">
-        <v>1629</v>
-      </c>
-      <c r="C153" s="86" t="s">
-        <v>1630</v>
+      <c r="B153" s="79" t="s">
+        <v>1591</v>
+      </c>
+      <c r="C153" s="79" t="s">
+        <v>1592</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="15">
       <c r="A154" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B154" s="86" t="s">
-        <v>1631</v>
-      </c>
-      <c r="C154" s="86" t="s">
-        <v>1632</v>
+      <c r="B154" s="79" t="s">
+        <v>1721</v>
+      </c>
+      <c r="C154" s="79" t="s">
+        <v>1593</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="15">
       <c r="A155" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B155" s="86" t="s">
-        <v>1633</v>
-      </c>
-      <c r="C155" s="86" t="s">
-        <v>1634</v>
+      <c r="B155" s="79" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C155" s="79" t="s">
+        <v>1594</v>
       </c>
     </row>
     <row r="156" spans="1:3" ht="15">
       <c r="A156" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B156" s="86" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C156" s="86" t="s">
-        <v>1636</v>
+      <c r="B156" s="79" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C156" s="79" t="s">
+        <v>1595</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15">
       <c r="A157" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B157" s="86" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C157" s="86" t="s">
-        <v>1638</v>
+      <c r="B157" s="79" t="s">
+        <v>1724</v>
+      </c>
+      <c r="C157" s="79" t="s">
+        <v>1596</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15">
       <c r="A158" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B158" s="86" t="s">
-        <v>1639</v>
-      </c>
-      <c r="C158" s="86" t="s">
-        <v>1640</v>
+      <c r="B158" s="79" t="s">
+        <v>1597</v>
+      </c>
+      <c r="C158" s="79" t="s">
+        <v>1598</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15">
       <c r="A159" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B159" s="86" t="s">
-        <v>1641</v>
-      </c>
-      <c r="C159" s="86" t="s">
-        <v>1642</v>
+      <c r="B159" s="79" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C159" s="79" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="15">
       <c r="A160" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B160" s="86" t="s">
-        <v>1643</v>
-      </c>
-      <c r="C160" s="86" t="s">
-        <v>1644</v>
+      <c r="B160" s="79" t="s">
+        <v>1600</v>
+      </c>
+      <c r="C160" s="79" t="s">
+        <v>1601</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="15">
       <c r="A161" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B161" s="86" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C161" s="86" t="s">
-        <v>1646</v>
+      <c r="B161" s="79" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C161" s="79" t="s">
+        <v>1602</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15">
       <c r="A162" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B162" s="86" t="s">
-        <v>1647</v>
-      </c>
-      <c r="C162" s="86" t="s">
-        <v>1648</v>
+      <c r="B162" s="79" t="s">
+        <v>1727</v>
+      </c>
+      <c r="C162" s="79" t="s">
+        <v>1603</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15">
       <c r="A163" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B163" s="86" t="s">
+      <c r="B163" s="79" t="s">
         <v>1220</v>
       </c>
-      <c r="C163" s="86" t="s">
+      <c r="C163" s="79" t="s">
         <v>1221</v>
       </c>
     </row>
@@ -15989,10 +14726,10 @@
       <c r="A164" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B164" s="86" t="s">
+      <c r="B164" s="79" t="s">
         <v>1222</v>
       </c>
-      <c r="C164" s="86" t="s">
+      <c r="C164" s="79" t="s">
         <v>1223</v>
       </c>
     </row>
@@ -16000,10 +14737,10 @@
       <c r="A165" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B165" s="86" t="s">
+      <c r="B165" s="79" t="s">
         <v>1224</v>
       </c>
-      <c r="C165" s="86" t="s">
+      <c r="C165" s="79" t="s">
         <v>1225</v>
       </c>
     </row>
@@ -16011,10 +14748,10 @@
       <c r="A166" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B166" s="86" t="s">
+      <c r="B166" s="79" t="s">
         <v>1226</v>
       </c>
-      <c r="C166" s="86" t="s">
+      <c r="C166" s="79" t="s">
         <v>1227</v>
       </c>
     </row>
@@ -16022,10 +14759,10 @@
       <c r="A167" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B167" s="86" t="s">
+      <c r="B167" s="79" t="s">
         <v>1210</v>
       </c>
-      <c r="C167" s="86" t="s">
+      <c r="C167" s="79" t="s">
         <v>1211</v>
       </c>
     </row>
@@ -16033,10 +14770,10 @@
       <c r="A168" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B168" s="86" t="s">
+      <c r="B168" s="79" t="s">
         <v>1212</v>
       </c>
-      <c r="C168" s="86" t="s">
+      <c r="C168" s="79" t="s">
         <v>1213</v>
       </c>
     </row>
@@ -16044,10 +14781,10 @@
       <c r="A169" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B169" s="86" t="s">
+      <c r="B169" s="79" t="s">
         <v>1214</v>
       </c>
-      <c r="C169" s="86" t="s">
+      <c r="C169" s="79" t="s">
         <v>1215</v>
       </c>
     </row>
@@ -16055,10 +14792,10 @@
       <c r="A170" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B170" s="86" t="s">
+      <c r="B170" s="79" t="s">
         <v>1216</v>
       </c>
-      <c r="C170" s="86" t="s">
+      <c r="C170" s="79" t="s">
         <v>1217</v>
       </c>
     </row>
@@ -16066,10 +14803,10 @@
       <c r="A171" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B171" s="86" t="s">
-        <v>1218</v>
-      </c>
-      <c r="C171" s="86" t="s">
+      <c r="B171" s="79" t="s">
+        <v>1728</v>
+      </c>
+      <c r="C171" s="79" t="s">
         <v>1219</v>
       </c>
     </row>
@@ -16077,506 +14814,506 @@
       <c r="A172" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B172" s="86" t="s">
-        <v>1649</v>
-      </c>
-      <c r="C172" s="86" t="s">
-        <v>1650</v>
+      <c r="B172" s="79" t="s">
+        <v>1729</v>
+      </c>
+      <c r="C172" s="79" t="s">
+        <v>1604</v>
       </c>
     </row>
     <row r="173" spans="1:3" ht="15">
       <c r="A173" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B173" s="86" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C173" s="86" t="s">
-        <v>1652</v>
+      <c r="B173" s="79" t="s">
+        <v>1730</v>
+      </c>
+      <c r="C173" s="79" t="s">
+        <v>1605</v>
       </c>
     </row>
     <row r="174" spans="1:3" ht="15">
       <c r="A174" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B174" s="86" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C174" s="86" t="s">
-        <v>1654</v>
+      <c r="B174" s="79" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C174" s="79" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="15">
       <c r="A175" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B175" s="86" t="s">
-        <v>1655</v>
-      </c>
-      <c r="C175" s="86" t="s">
-        <v>1656</v>
+      <c r="B175" s="79" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C175" s="79" t="s">
+        <v>1608</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="15">
       <c r="A176" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B176" s="86" t="s">
-        <v>1653</v>
-      </c>
-      <c r="C176" s="86" t="s">
-        <v>1654</v>
+      <c r="B176" s="79" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C176" s="79" t="s">
+        <v>1606</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="15">
       <c r="A177" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B177" s="86" t="s">
-        <v>1657</v>
-      </c>
-      <c r="C177" s="86" t="s">
-        <v>1658</v>
+      <c r="B177" s="79" t="s">
+        <v>1609</v>
+      </c>
+      <c r="C177" s="79" t="s">
+        <v>1610</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="15">
       <c r="A178" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B178" s="86" t="s">
-        <v>1659</v>
-      </c>
-      <c r="C178" s="86" t="s">
-        <v>1660</v>
+      <c r="B178" s="79" t="s">
+        <v>1732</v>
+      </c>
+      <c r="C178" s="79" t="s">
+        <v>1611</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="15">
       <c r="A179" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B179" s="86" t="s">
-        <v>1661</v>
-      </c>
-      <c r="C179" s="86" t="s">
-        <v>1662</v>
+      <c r="B179" s="79" t="s">
+        <v>1612</v>
+      </c>
+      <c r="C179" s="79" t="s">
+        <v>1613</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="15">
       <c r="A180" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B180" s="86" t="s">
-        <v>1663</v>
-      </c>
-      <c r="C180" s="86" t="s">
-        <v>1664</v>
+      <c r="B180" s="79" t="s">
+        <v>1614</v>
+      </c>
+      <c r="C180" s="79" t="s">
+        <v>1615</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="15">
       <c r="A181" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B181" s="86" t="s">
-        <v>1665</v>
-      </c>
-      <c r="C181" s="86" t="s">
-        <v>1666</v>
+      <c r="B181" s="79" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C181" s="79" t="s">
+        <v>1616</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="15">
       <c r="A182" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B182" s="86" t="s">
-        <v>1667</v>
-      </c>
-      <c r="C182" s="86" t="s">
-        <v>1668</v>
+      <c r="B182" s="79" t="s">
+        <v>1734</v>
+      </c>
+      <c r="C182" s="79" t="s">
+        <v>1617</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="15">
       <c r="A183" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B183" s="86" t="s">
-        <v>1669</v>
-      </c>
-      <c r="C183" s="86" t="s">
-        <v>1670</v>
+      <c r="B183" s="79" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C183" s="79" t="s">
+        <v>1618</v>
       </c>
     </row>
     <row r="184" spans="1:3" ht="15">
       <c r="A184" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B184" s="86" t="s">
-        <v>1671</v>
-      </c>
-      <c r="C184" s="86" t="s">
-        <v>1672</v>
+      <c r="B184" s="79" t="s">
+        <v>1736</v>
+      </c>
+      <c r="C184" s="79" t="s">
+        <v>1619</v>
       </c>
     </row>
     <row r="185" spans="1:3" ht="15">
       <c r="A185" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B185" s="86" t="s">
-        <v>1673</v>
-      </c>
-      <c r="C185" s="86" t="s">
-        <v>1674</v>
+      <c r="B185" s="79" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C185" s="79" t="s">
+        <v>1620</v>
       </c>
     </row>
     <row r="186" spans="1:3" ht="15">
       <c r="A186" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B186" s="86" t="s">
-        <v>1675</v>
-      </c>
-      <c r="C186" s="86" t="s">
-        <v>1676</v>
+      <c r="B186" s="79" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C186" s="79" t="s">
+        <v>1621</v>
       </c>
     </row>
     <row r="187" spans="1:3" ht="15">
       <c r="A187" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B187" s="86" t="s">
-        <v>1677</v>
-      </c>
-      <c r="C187" s="86" t="s">
-        <v>1678</v>
+      <c r="B187" s="79" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C187" s="79" t="s">
+        <v>1622</v>
       </c>
     </row>
     <row r="188" spans="1:3" ht="15">
       <c r="A188" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B188" s="86" t="s">
-        <v>1679</v>
-      </c>
-      <c r="C188" s="86" t="s">
-        <v>1680</v>
+      <c r="B188" s="79" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C188" s="79" t="s">
+        <v>1623</v>
       </c>
     </row>
     <row r="189" spans="1:3" ht="15">
       <c r="A189" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B189" s="86" t="s">
-        <v>1681</v>
-      </c>
-      <c r="C189" s="86" t="s">
-        <v>1682</v>
+      <c r="B189" s="79" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C189" s="79" t="s">
+        <v>1624</v>
       </c>
     </row>
     <row r="190" spans="1:3" ht="15">
       <c r="A190" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B190" s="86" t="s">
-        <v>1683</v>
-      </c>
-      <c r="C190" s="86" t="s">
-        <v>1684</v>
+      <c r="B190" s="79" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C190" s="79" t="s">
+        <v>1625</v>
       </c>
     </row>
     <row r="191" spans="1:3" ht="15">
       <c r="A191" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B191" s="86" t="s">
-        <v>1685</v>
-      </c>
-      <c r="C191" s="86" t="s">
-        <v>1686</v>
+      <c r="B191" s="79" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C191" s="79" t="s">
+        <v>1626</v>
       </c>
     </row>
     <row r="192" spans="1:3" ht="15">
       <c r="A192" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B192" s="86" t="s">
-        <v>1687</v>
-      </c>
-      <c r="C192" s="86" t="s">
-        <v>1688</v>
+      <c r="B192" s="79" t="s">
+        <v>1627</v>
+      </c>
+      <c r="C192" s="79" t="s">
+        <v>1628</v>
       </c>
     </row>
     <row r="193" spans="1:3" ht="15">
       <c r="A193" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B193" s="86" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C193" s="86" t="s">
-        <v>1690</v>
+      <c r="B193" s="79" t="s">
+        <v>1629</v>
+      </c>
+      <c r="C193" s="79" t="s">
+        <v>1630</v>
       </c>
     </row>
     <row r="194" spans="1:3" ht="15">
       <c r="A194" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B194" s="86" t="s">
-        <v>1691</v>
-      </c>
-      <c r="C194" s="86" t="s">
-        <v>1692</v>
+      <c r="B194" s="79" t="s">
+        <v>1631</v>
+      </c>
+      <c r="C194" s="79" t="s">
+        <v>1632</v>
       </c>
     </row>
     <row r="195" spans="1:3" ht="15">
       <c r="A195" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B195" s="86" t="s">
-        <v>1693</v>
-      </c>
-      <c r="C195" s="86" t="s">
-        <v>1694</v>
+      <c r="B195" s="79" t="s">
+        <v>1633</v>
+      </c>
+      <c r="C195" s="79" t="s">
+        <v>1634</v>
       </c>
     </row>
     <row r="196" spans="1:3" ht="15">
       <c r="A196" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B196" s="86" t="s">
-        <v>1695</v>
-      </c>
-      <c r="C196" s="86" t="s">
-        <v>1696</v>
+      <c r="B196" s="79" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C196" s="79" t="s">
+        <v>1636</v>
       </c>
     </row>
     <row r="197" spans="1:3" ht="15">
       <c r="A197" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B197" s="86" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C197" s="86" t="s">
-        <v>1698</v>
+      <c r="B197" s="79" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C197" s="79" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="198" spans="1:3" ht="15">
       <c r="A198" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B198" s="86" t="s">
-        <v>1699</v>
-      </c>
-      <c r="C198" s="86" t="s">
-        <v>1700</v>
+      <c r="B198" s="79" t="s">
+        <v>1639</v>
+      </c>
+      <c r="C198" s="79" t="s">
+        <v>1640</v>
       </c>
     </row>
     <row r="199" spans="1:3" ht="15">
       <c r="A199" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B199" s="86" t="s">
-        <v>1701</v>
-      </c>
-      <c r="C199" s="86" t="s">
-        <v>1702</v>
+      <c r="B199" s="79" t="s">
+        <v>1641</v>
+      </c>
+      <c r="C199" s="79" t="s">
+        <v>1642</v>
       </c>
     </row>
     <row r="200" spans="1:3" ht="15">
       <c r="A200" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B200" s="86" t="s">
-        <v>1703</v>
-      </c>
-      <c r="C200" s="86" t="s">
-        <v>1704</v>
+      <c r="B200" s="79" t="s">
+        <v>1643</v>
+      </c>
+      <c r="C200" s="79" t="s">
+        <v>1644</v>
       </c>
     </row>
     <row r="201" spans="1:3" ht="15">
       <c r="A201" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B201" s="86" t="s">
-        <v>1705</v>
-      </c>
-      <c r="C201" s="86" t="s">
-        <v>1706</v>
+      <c r="B201" s="79" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C201" s="79" t="s">
+        <v>1646</v>
       </c>
     </row>
     <row r="202" spans="1:3" ht="15">
       <c r="A202" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B202" s="86" t="s">
-        <v>1707</v>
-      </c>
-      <c r="C202" s="86" t="s">
-        <v>1708</v>
+      <c r="B202" s="79" t="s">
+        <v>1647</v>
+      </c>
+      <c r="C202" s="79" t="s">
+        <v>1648</v>
       </c>
     </row>
     <row r="203" spans="1:3" ht="15">
       <c r="A203" s="2" t="s">
         <v>1548</v>
       </c>
-      <c r="B203" s="86" t="s">
-        <v>1709</v>
-      </c>
-      <c r="C203" s="86" t="s">
-        <v>1710</v>
+      <c r="B203" s="79" t="s">
+        <v>1649</v>
+      </c>
+      <c r="C203" s="79" t="s">
+        <v>1650</v>
       </c>
     </row>
     <row r="204" spans="1:3" ht="15">
       <c r="A204" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B204" s="93" t="s">
-        <v>1711</v>
-      </c>
-      <c r="C204" s="86" t="s">
-        <v>1712</v>
+        <v>1677</v>
+      </c>
+      <c r="B204" s="84" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C204" s="79" t="s">
+        <v>1652</v>
       </c>
     </row>
     <row r="205" spans="1:3" ht="15">
       <c r="A205" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B205" s="93" t="s">
-        <v>1713</v>
-      </c>
-      <c r="C205" s="86" t="s">
-        <v>1714</v>
+        <v>1677</v>
+      </c>
+      <c r="B205" s="84" t="s">
+        <v>1653</v>
+      </c>
+      <c r="C205" s="79" t="s">
+        <v>1654</v>
       </c>
     </row>
     <row r="206" spans="1:3" ht="15">
       <c r="A206" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B206" s="93" t="s">
-        <v>1715</v>
-      </c>
-      <c r="C206" s="86" t="s">
-        <v>1716</v>
+        <v>1677</v>
+      </c>
+      <c r="B206" s="84" t="s">
+        <v>1655</v>
+      </c>
+      <c r="C206" s="79" t="s">
+        <v>1656</v>
       </c>
     </row>
     <row r="207" spans="1:3" ht="15">
       <c r="A207" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B207" s="93" t="s">
-        <v>1717</v>
-      </c>
-      <c r="C207" s="86" t="s">
-        <v>1718</v>
+        <v>1677</v>
+      </c>
+      <c r="B207" s="84" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C207" s="79" t="s">
+        <v>1658</v>
       </c>
     </row>
     <row r="208" spans="1:3" ht="15">
       <c r="A208" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B208" s="93" t="s">
-        <v>1719</v>
-      </c>
-      <c r="C208" s="86" t="s">
-        <v>1720</v>
+        <v>1677</v>
+      </c>
+      <c r="B208" s="84" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C208" s="79" t="s">
+        <v>1660</v>
       </c>
     </row>
     <row r="209" spans="1:3" ht="15">
       <c r="A209" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B209" s="93" t="s">
-        <v>1721</v>
-      </c>
-      <c r="C209" s="86" t="s">
-        <v>1722</v>
+        <v>1677</v>
+      </c>
+      <c r="B209" s="84" t="s">
+        <v>1661</v>
+      </c>
+      <c r="C209" s="79" t="s">
+        <v>1662</v>
       </c>
     </row>
     <row r="210" spans="1:3" ht="15">
       <c r="A210" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B210" s="93" t="s">
-        <v>1723</v>
-      </c>
-      <c r="C210" s="86" t="s">
-        <v>1724</v>
+        <v>1677</v>
+      </c>
+      <c r="B210" s="84" t="s">
+        <v>1663</v>
+      </c>
+      <c r="C210" s="79" t="s">
+        <v>1664</v>
       </c>
     </row>
     <row r="211" spans="1:3" ht="15">
       <c r="A211" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B211" s="93" t="s">
-        <v>1725</v>
-      </c>
-      <c r="C211" s="86" t="s">
-        <v>1726</v>
+        <v>1677</v>
+      </c>
+      <c r="B211" s="84" t="s">
+        <v>1665</v>
+      </c>
+      <c r="C211" s="79" t="s">
+        <v>1666</v>
       </c>
     </row>
     <row r="212" spans="1:3" ht="15">
       <c r="A212" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B212" s="93" t="s">
-        <v>1727</v>
-      </c>
-      <c r="C212" s="86" t="s">
-        <v>1728</v>
+        <v>1677</v>
+      </c>
+      <c r="B212" s="84" t="s">
+        <v>1667</v>
+      </c>
+      <c r="C212" s="79" t="s">
+        <v>1668</v>
       </c>
     </row>
     <row r="213" spans="1:3" ht="15">
       <c r="A213" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B213" s="93" t="s">
-        <v>1729</v>
-      </c>
-      <c r="C213" s="86" t="s">
-        <v>1730</v>
+        <v>1677</v>
+      </c>
+      <c r="B213" s="84" t="s">
+        <v>1669</v>
+      </c>
+      <c r="C213" s="79" t="s">
+        <v>1670</v>
       </c>
     </row>
     <row r="214" spans="1:3" ht="15">
       <c r="A214" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B214" s="93" t="s">
-        <v>1731</v>
-      </c>
-      <c r="C214" s="86" t="s">
-        <v>1732</v>
+        <v>1677</v>
+      </c>
+      <c r="B214" s="84" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C214" s="79" t="s">
+        <v>1672</v>
       </c>
     </row>
     <row r="215" spans="1:3" ht="15">
       <c r="A215" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B215" s="93" t="s">
-        <v>1733</v>
-      </c>
-      <c r="C215" s="86" t="s">
-        <v>1734</v>
+        <v>1677</v>
+      </c>
+      <c r="B215" s="84" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C215" s="79" t="s">
+        <v>1674</v>
       </c>
     </row>
     <row r="216" spans="1:3" ht="15">
       <c r="A216" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B216" s="93" t="s">
-        <v>1697</v>
-      </c>
-      <c r="C216" s="86" t="s">
-        <v>1698</v>
+        <v>1677</v>
+      </c>
+      <c r="B216" s="84" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C216" s="79" t="s">
+        <v>1638</v>
       </c>
     </row>
     <row r="217" spans="1:3" ht="15">
       <c r="A217" s="2" t="s">
-        <v>1737</v>
-      </c>
-      <c r="B217" s="93" t="s">
-        <v>1735</v>
-      </c>
-      <c r="C217" s="86" t="s">
-        <v>1736</v>
+        <v>1677</v>
+      </c>
+      <c r="B217" s="84" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C217" s="79" t="s">
+        <v>1676</v>
       </c>
     </row>
     <row r="218" spans="1:3">
@@ -16614,10 +15351,10 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" s="40" t="s">
-        <v>1739</v>
-      </c>
-      <c r="C3" s="105" t="s">
-        <v>1740</v>
+        <v>1679</v>
+      </c>
+      <c r="C3" s="96" t="s">
+        <v>1680</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="16">
@@ -16664,7 +15401,7 @@
   <dimension ref="A1:F102"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H83" sqref="H83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -17006,7 +15743,10 @@
       <c r="B25" s="18"/>
       <c r="C25" s="19"/>
       <c r="D25" s="20"/>
-      <c r="E25" s="17"/>
+      <c r="E25" s="17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="F25" s="20"/>
     </row>
     <row r="26" spans="1:6" ht="15">
@@ -17236,7 +15976,10 @@
       <c r="B41" s="18"/>
       <c r="C41" s="19"/>
       <c r="D41" s="20"/>
-      <c r="E41" s="17"/>
+      <c r="E41" s="17" t="str">
+        <f t="shared" ref="E41:E45" si="4">IF(OR($E$6="", B41=""),"",SUM(C41:D41))</f>
+        <v/>
+      </c>
       <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" ht="15">
@@ -17248,7 +15991,7 @@
       <c r="C42" s="19"/>
       <c r="D42" s="20"/>
       <c r="E42" s="17" t="str">
-        <f t="shared" ref="E42:E45" si="4">IF(OR($E$6="", B42=""),"",SUM(C42:D42))</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="F42" s="20"/>
@@ -17410,7 +16153,10 @@
       <c r="B54" s="18"/>
       <c r="C54" s="19"/>
       <c r="D54" s="19"/>
-      <c r="E54" s="17"/>
+      <c r="E54" s="17" t="str">
+        <f t="shared" ref="E54:E59" si="8">IF(OR($E$6="", B54=""),"",SUM(C54:D54))</f>
+        <v/>
+      </c>
       <c r="F54" s="19"/>
     </row>
     <row r="55" spans="1:6" ht="15">
@@ -17422,7 +16168,7 @@
       <c r="C55" s="20"/>
       <c r="D55" s="19"/>
       <c r="E55" s="17" t="str">
-        <f t="shared" ref="E55:E59" si="8">IF(OR($E$6="", B55=""),"",SUM(C55:D55))</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="F55" s="19"/>
@@ -17594,7 +16340,10 @@
       <c r="B67" s="18"/>
       <c r="C67" s="19"/>
       <c r="D67" s="20"/>
-      <c r="E67" s="17"/>
+      <c r="E67" s="17" t="str">
+        <f t="shared" ref="E67:E70" si="10">IF(OR($E$6="", B67=""),"",SUM(C67:D67))</f>
+        <v/>
+      </c>
       <c r="F67" s="20"/>
     </row>
     <row r="68" spans="1:6" ht="15">
@@ -17606,7 +16355,7 @@
       <c r="C68" s="19"/>
       <c r="D68" s="20"/>
       <c r="E68" s="17" t="str">
-        <f t="shared" ref="E68:E70" si="10">IF(OR($E$6="", B68=""),"",SUM(C68:D68))</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="F68" s="20"/>
@@ -17782,7 +16531,10 @@
       <c r="B80" s="18"/>
       <c r="C80" s="19"/>
       <c r="D80" s="20"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="17" t="str">
+        <f t="shared" ref="E80:E83" si="12">IF(OR($E$6="", B80=""),"",SUM(C80:D80))</f>
+        <v/>
+      </c>
       <c r="F80" s="20"/>
     </row>
     <row r="81" spans="1:6" ht="15">
@@ -17794,7 +16546,7 @@
       <c r="C81" s="19"/>
       <c r="D81" s="20"/>
       <c r="E81" s="17" t="str">
-        <f t="shared" ref="E81:E83" si="12">IF(OR($E$6="", B81=""),"",SUM(C81:D81))</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="F81" s="20"/>
@@ -17946,7 +16698,10 @@
       <c r="B92" s="18"/>
       <c r="C92" s="19"/>
       <c r="D92" s="19"/>
-      <c r="E92" s="17"/>
+      <c r="E92" s="17" t="str">
+        <f t="shared" ref="E92:E95" si="16">IF(OR($E$6="", B92=""),"",SUM(C92:D92))</f>
+        <v/>
+      </c>
       <c r="F92" s="19"/>
     </row>
     <row r="93" spans="1:6" ht="15">
@@ -17957,7 +16712,10 @@
       <c r="B93" s="18"/>
       <c r="C93" s="19"/>
       <c r="D93" s="19"/>
-      <c r="E93" s="17"/>
+      <c r="E93" s="17" t="str">
+        <f t="shared" si="16"/>
+        <v/>
+      </c>
       <c r="F93" s="19"/>
     </row>
     <row r="94" spans="1:6" ht="15">
@@ -17969,7 +16727,7 @@
       <c r="C94" s="19"/>
       <c r="D94" s="19"/>
       <c r="E94" s="17" t="str">
-        <f t="shared" ref="E94:E95" si="16">IF(OR($E$6="", B94=""),"",SUM(C94:D94))</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="F94" s="19"/>
@@ -18089,18 +16847,18 @@
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <conditionalFormatting sqref="C101:F101">
-    <cfRule type="cellIs" dxfId="44" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="18" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="19" stopIfTrue="1" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="30" priority="20" operator="notEqual">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C23 C37 C50 C65 C76:C77 C89 C101 D6:F101">
-    <cfRule type="expression" dxfId="41" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18140,10 +16898,10 @@
   <sheetPr>
     <tabColor theme="4"/>
   </sheetPr>
-  <dimension ref="A1:J98"/>
+  <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -18152,7 +16910,8 @@
     <col min="2" max="2" width="41.5" style="50" customWidth="1"/>
     <col min="3" max="3" width="15" style="50" customWidth="1"/>
     <col min="4" max="4" width="17" style="50" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" style="50" customWidth="1"/>
+    <col min="5" max="6" width="17.6640625" style="50" customWidth="1"/>
+    <col min="7" max="7" width="16" style="50" customWidth="1"/>
     <col min="8" max="9" width="14.6640625" style="50" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" style="50" customWidth="1"/>
     <col min="11" max="16384" width="9" style="50"/>
@@ -18200,21 +16959,21 @@
       <c r="C4" s="55"/>
       <c r="D4" s="49"/>
     </row>
-    <row r="5" spans="1:10" s="102" customFormat="1" ht="64">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="104" t="s">
+    <row r="5" spans="1:10" s="93" customFormat="1" ht="64">
+      <c r="A5" s="86"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="95" t="s">
         <v>1130</v>
       </c>
-      <c r="E5" s="98"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="103" t="s">
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="94" t="s">
         <v>1131</v>
       </c>
-      <c r="H5" s="100"/>
-      <c r="I5" s="100"/>
-      <c r="J5" s="101"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="91"/>
+      <c r="J5" s="92"/>
     </row>
     <row r="6" spans="1:10" ht="32">
       <c r="A6" s="6" t="s">
@@ -18224,27 +16983,27 @@
       <c r="C6" s="12" t="s">
         <v>1118</v>
       </c>
-      <c r="D6" s="77" t="s">
+      <c r="D6" s="74" t="s">
         <v>1119</v>
       </c>
-      <c r="E6" s="77" t="s">
+      <c r="E6" s="74" t="s">
         <v>1120</v>
       </c>
-      <c r="F6" s="77" t="s">
+      <c r="F6" s="74" t="s">
         <v>1121</v>
       </c>
-      <c r="G6" s="78" t="s">
+      <c r="G6" s="75" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="78" t="str">
+      <c r="H6" s="75" t="str">
         <f>IF(AND('Master Info'!$C$5="N",'Master Info'!$C$6="N"), "",  IF('Master Info'!$C$5="N", "Component Units", "Business-Type Activities"))</f>
         <v>Business-Type Activities</v>
       </c>
-      <c r="I6" s="78" t="str">
+      <c r="I6" s="75" t="str">
         <f xml:space="preserve"> IF('Master Info'!$C$5="N", "", "Total Primary Government")</f>
         <v>Total Primary Government</v>
       </c>
-      <c r="J6" s="78" t="str">
+      <c r="J6" s="75" t="str">
         <f>IF(AND('Master Info'!$C$5="Y",'Master Info'!$C$6="Y"),"Component Units","")</f>
         <v>Component Units</v>
       </c>
@@ -18282,13 +17041,22 @@
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
+      <c r="G9" s="65" t="str">
+        <f>IF(OR(G$6="", B9=""),"",SUM(E9:F9) - C9)</f>
+        <v/>
+      </c>
+      <c r="H9" s="65" t="str">
+        <f>IF(OR(H$6="", $B9=""),"",0)</f>
+        <v/>
+      </c>
       <c r="I9" s="17" t="str">
         <f>IF(OR($E$6="", B9=""),"",SUM(G9:H9))</f>
         <v/>
       </c>
-      <c r="J9" s="20"/>
+      <c r="J9" s="65" t="str">
+        <f>IF(OR(J$6="", $B9=""),"",0)</f>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="str">
@@ -18300,13 +17068,22 @@
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
+      <c r="G10" s="65" t="str">
+        <f>IF(OR(G$6="", B10=""),"",SUM(E10:F10) - C10)</f>
+        <v/>
+      </c>
+      <c r="H10" s="65" t="str">
+        <f>IF(OR(H$6="", $B10=""),"",0)</f>
+        <v/>
+      </c>
       <c r="I10" s="17" t="str">
-        <f t="shared" ref="I10:I22" si="0">IF(OR($E$6="", B10=""),"",SUM(G10:H10))</f>
+        <f>IF(OR($E$6="", B10=""),"",SUM(G10:H10))</f>
         <v/>
       </c>
-      <c r="J10" s="20"/>
+      <c r="J10" s="65" t="str">
+        <f>IF(OR(J$6="", $B10=""),"",0)</f>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="str">
@@ -18318,13 +17095,22 @@
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
+      <c r="G11" s="65" t="str">
+        <f t="shared" ref="G11:G22" si="0">IF(OR(G$6="", B11=""),"",SUM(E11:F11) - C11)</f>
+        <v/>
+      </c>
+      <c r="H11" s="65" t="str">
+        <f t="shared" ref="H11:H22" si="1">IF(OR(H$6="", $B11=""),"",0)</f>
+        <v/>
+      </c>
       <c r="I11" s="17" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I10:I22" si="2">IF(OR($E$6="", B11=""),"",SUM(G11:H11))</f>
         <v/>
       </c>
-      <c r="J11" s="20"/>
+      <c r="J11" s="65" t="str">
+        <f t="shared" ref="J11:J22" si="3">IF(OR(J$6="", $B11=""),"",0)</f>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="str">
@@ -18336,13 +17122,22 @@
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="17" t="str">
+      <c r="G12" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J12" s="20"/>
+      <c r="H12" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J12" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="str">
@@ -18354,13 +17149,22 @@
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="17" t="str">
+      <c r="G13" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J13" s="20"/>
+      <c r="H13" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J13" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="str">
@@ -18372,13 +17176,22 @@
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="17" t="str">
+      <c r="G14" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J14" s="20"/>
+      <c r="H14" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J14" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="8" t="str">
@@ -18390,13 +17203,22 @@
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="17" t="str">
+      <c r="G15" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J15" s="20"/>
+      <c r="H15" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="8" t="str">
@@ -18408,13 +17230,22 @@
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="17" t="str">
+      <c r="G16" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J16" s="20"/>
+      <c r="H16" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="8" t="str">
@@ -18426,13 +17257,22 @@
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="17" t="str">
+      <c r="G17" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J17" s="20"/>
+      <c r="H17" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="8" t="str">
@@ -18444,13 +17284,22 @@
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="17" t="str">
+      <c r="G18" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J18" s="20"/>
+      <c r="H18" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I18" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="8" t="str">
@@ -18462,13 +17311,22 @@
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="17" t="str">
+      <c r="G19" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J19" s="20"/>
+      <c r="H19" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I19" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J19" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="8" t="str">
@@ -18480,13 +17338,22 @@
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="17" t="str">
+      <c r="G20" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J20" s="20"/>
+      <c r="H20" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J20" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="8" t="str">
@@ -18498,13 +17365,22 @@
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="17" t="str">
+      <c r="G21" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J21" s="20"/>
+      <c r="H21" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J21" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="8" t="str">
@@ -18516,49 +17392,60 @@
       <c r="D22" s="20"/>
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="17" t="str">
+      <c r="G22" s="65" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="J22" s="20"/>
+      <c r="H22" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" s="17" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" s="65" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
     </row>
     <row r="23" spans="1:10" ht="15">
-      <c r="A23" s="80"/>
+      <c r="A23" s="8" t="s">
+        <v>1682</v>
+      </c>
       <c r="B23" s="8" t="s">
         <v>1122</v>
       </c>
       <c r="C23" s="17">
-        <f>IF(C6="","",SUM(C9:C22))</f>
+        <f t="shared" ref="C23:J23" si="4">IF(C6="","",SUM(C9:C22))</f>
         <v>0</v>
       </c>
       <c r="D23" s="17">
-        <f>IF(D6="","",SUM(D9:D22))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E23" s="17">
-        <f>IF(E6="","",SUM(E9:E22))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23" s="17">
-        <f>IF(F6="","",SUM(F9:F22))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G23" s="17">
-        <f>IF(G6="","",SUM(G9:G22))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="H23" s="17">
-        <f>IF(H6="","",SUM(H9:H22))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I23" s="17">
-        <f>IF(I6="","",SUM(I9:I22))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="J23" s="17">
-        <f>IF(J6="","",SUM(J9:J22))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -18581,13 +17468,22 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
+      <c r="G25" s="65" t="str">
+        <f>IF(OR(G$6="", B25=""),"",0)</f>
+        <v/>
+      </c>
+      <c r="H25" s="65" t="str">
+        <f>IF(OR(H$6="", $B25=""),"",SUM(E25:F25)-C25)</f>
+        <v/>
+      </c>
       <c r="I25" s="17" t="str">
         <f>IF(OR(I$6="", B25=""),"",SUM(G25:H25))</f>
         <v/>
       </c>
-      <c r="J25" s="20"/>
+      <c r="J25" s="65" t="str">
+        <f t="shared" ref="J25:J36" si="5">IF(OR(J$6="", $B25=""),"",0)</f>
+        <v/>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="8" t="str">
@@ -18599,13 +17495,22 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
+      <c r="G26" s="65" t="str">
+        <f t="shared" ref="G26:G36" si="6">IF(OR(G$6="", B26=""),"",0)</f>
+        <v/>
+      </c>
+      <c r="H26" s="65" t="str">
+        <f t="shared" ref="H26:H36" si="7">IF(OR(H$6="", $B26=""),"",SUM(E26:F26)-C26)</f>
+        <v/>
+      </c>
       <c r="I26" s="17" t="str">
-        <f t="shared" ref="I26:I36" si="1">IF(OR(I$6="", B26=""),"",SUM(G26:H26))</f>
+        <f t="shared" ref="I26:I36" si="8">IF(OR(I$6="", B26=""),"",SUM(G26:H26))</f>
         <v/>
       </c>
-      <c r="J26" s="20"/>
+      <c r="J26" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="8" t="str">
@@ -18617,13 +17522,22 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
+      <c r="G27" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H27" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I27" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J27" s="20"/>
+      <c r="J27" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="8" t="str">
@@ -18635,13 +17549,22 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
+      <c r="G28" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H28" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I28" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J28" s="20"/>
+      <c r="J28" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="8" t="str">
@@ -18653,13 +17576,22 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="20"/>
-      <c r="H29" s="20"/>
+      <c r="G29" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H29" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I29" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J29" s="20"/>
+      <c r="J29" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="8" t="str">
@@ -18671,13 +17603,22 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="19"/>
-      <c r="H30" s="19"/>
+      <c r="G30" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H30" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I30" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J30" s="19"/>
+      <c r="J30" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="8" t="str">
@@ -18689,13 +17630,22 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="19"/>
-      <c r="H31" s="19"/>
+      <c r="G31" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H31" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I31" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J31" s="19"/>
+      <c r="J31" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="8" t="str">
@@ -18707,13 +17657,22 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
+      <c r="G32" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H32" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I32" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J32" s="19"/>
+      <c r="J32" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="8" t="str">
@@ -18725,13 +17684,22 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
+      <c r="G33" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H33" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I33" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J33" s="19"/>
+      <c r="J33" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="8" t="str">
@@ -18743,13 +17711,22 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H34" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I34" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J34" s="19"/>
+      <c r="J34" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="8" t="str">
@@ -18761,13 +17738,22 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
+      <c r="G35" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H35" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I35" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J35" s="19"/>
+      <c r="J35" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="8" t="str">
@@ -18779,16 +17765,27 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
+      <c r="G36" s="65" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="H36" s="65" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
       <c r="I36" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J36" s="19"/>
+      <c r="J36" s="65" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15">
-      <c r="A37" s="80"/>
+      <c r="A37" s="8" t="s">
+        <v>1682</v>
+      </c>
       <c r="B37" s="8" t="s">
         <v>1129</v>
       </c>
@@ -18801,19 +17798,19 @@
         <v>0</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" ref="E37" si="2">IF(E6="","",SUM(E25:E36))</f>
+        <f t="shared" ref="E37" si="9">IF(E6="","",SUM(E25:E36))</f>
         <v>0</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" ref="F37:G37" si="3">IF(F6="","",SUM(F25:F36))</f>
+        <f t="shared" ref="F37:G37" si="10">IF(F6="","",SUM(F25:F36))</f>
         <v>0</v>
       </c>
       <c r="G37" s="17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="H37" s="17">
-        <f t="shared" ref="H37:I37" si="4">IF(H6="","",SUM(H25:H36))</f>
+        <f t="shared" ref="H37" si="11">IF(H6="","",SUM(H25:H36))</f>
         <v>0</v>
       </c>
       <c r="I37" s="17">
@@ -18821,12 +17818,14 @@
         <v>0</v>
       </c>
       <c r="J37" s="17">
-        <f t="shared" ref="J37" si="5">IF(J6="","",SUM(J25:J36))</f>
+        <f t="shared" ref="J37" si="12">IF(J6="","",SUM(J25:J36))</f>
         <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15">
-      <c r="A38" s="80"/>
+      <c r="A38" s="8" t="s">
+        <v>1682</v>
+      </c>
       <c r="B38" s="10" t="s">
         <v>1123</v>
       </c>
@@ -18835,27 +17834,27 @@
         <v>0</v>
       </c>
       <c r="D38" s="23">
-        <f t="shared" ref="D38:G38" si="6">D23+D37</f>
+        <f t="shared" ref="D38:G38" si="13">D23+D37</f>
         <v>0</v>
       </c>
       <c r="E38" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="F38" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G38" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H38" s="25">
-        <f t="shared" ref="H38:I38" si="7">IF(H$6="","",H23+H37)</f>
+        <f t="shared" ref="H38:I38" si="14">IF(H$6="","",H23+H37)</f>
         <v>0</v>
       </c>
       <c r="I38" s="25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="J38" s="25">
@@ -18894,10 +17893,19 @@
       <c r="D41" s="20"/>
       <c r="E41" s="20"/>
       <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
+      <c r="G41" s="65" t="str">
+        <f>IF(OR(G$6="", B41=""),"",0)</f>
+        <v/>
+      </c>
+      <c r="H41" s="65" t="str">
+        <f>IF(OR(H$6="", C41=""),"",0)</f>
+        <v/>
+      </c>
       <c r="I41" s="17"/>
-      <c r="J41" s="20"/>
+      <c r="J41" s="65" t="str">
+        <f>IF(OR(J$6="", E41=""),"",SUM(D41:F41)-C41)</f>
+        <v/>
+      </c>
     </row>
     <row r="42" spans="1:10" ht="15">
       <c r="A42" s="8" t="str">
@@ -18909,13 +17917,22 @@
       <c r="D42" s="20"/>
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
+      <c r="G42" s="65" t="str">
+        <f t="shared" ref="G42:H49" si="15">IF(OR(G$6="", B42=""),"",0)</f>
+        <v/>
+      </c>
+      <c r="H42" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I42" s="17" t="str">
-        <f t="shared" ref="I42:I49" si="8">IF(OR($E$6="", F42=""),"",SUM(G42:H42))</f>
+        <f t="shared" ref="I42:I49" si="16">IF(OR($E$6="", F42=""),"",SUM(G42:H42))</f>
         <v/>
       </c>
-      <c r="J42" s="20"/>
+      <c r="J42" s="65" t="str">
+        <f t="shared" ref="J42:J49" si="17">IF(OR(J$6="", E42=""),"",SUM(D42:F42)-C42)</f>
+        <v/>
+      </c>
     </row>
     <row r="43" spans="1:10" ht="15">
       <c r="A43" s="8" t="str">
@@ -18927,13 +17944,22 @@
       <c r="D43" s="20"/>
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
+      <c r="G43" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H43" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I43" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J43" s="20"/>
+      <c r="J43" s="65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="44" spans="1:10" ht="15">
       <c r="A44" s="8" t="str">
@@ -18945,13 +17971,22 @@
       <c r="D44" s="20"/>
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
+      <c r="G44" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H44" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I44" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J44" s="20"/>
+      <c r="J44" s="65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="45" spans="1:10" ht="15">
       <c r="A45" s="8" t="str">
@@ -18963,13 +17998,22 @@
       <c r="D45" s="20"/>
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
+      <c r="G45" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H45" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I45" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J45" s="20"/>
+      <c r="J45" s="65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="46" spans="1:10" ht="15" hidden="1">
       <c r="A46" s="8" t="str">
@@ -18981,13 +18025,22 @@
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
+      <c r="G46" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H46" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I46" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J46" s="20"/>
+      <c r="J46" s="65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="47" spans="1:10" ht="15" hidden="1">
       <c r="A47" s="8" t="str">
@@ -18999,13 +18052,22 @@
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
+      <c r="G47" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H47" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I47" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J47" s="20"/>
+      <c r="J47" s="65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="48" spans="1:10" ht="15" hidden="1">
       <c r="A48" s="8" t="str">
@@ -19017,13 +18079,22 @@
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
+      <c r="G48" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H48" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I48" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J48" s="20"/>
+      <c r="J48" s="65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="49" spans="1:10" ht="15">
       <c r="A49" s="8" t="str">
@@ -19035,16 +18106,27 @@
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
+      <c r="G49" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="H49" s="65" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
       <c r="I49" s="17" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="16"/>
         <v/>
       </c>
-      <c r="J49" s="20"/>
+      <c r="J49" s="65" t="str">
+        <f t="shared" si="17"/>
+        <v/>
+      </c>
     </row>
     <row r="50" spans="1:10" ht="15">
-      <c r="A50" s="80"/>
+      <c r="A50" s="8" t="s">
+        <v>1682</v>
+      </c>
       <c r="B50" s="10" t="s">
         <v>1128</v>
       </c>
@@ -19057,27 +18139,27 @@
         <v>0</v>
       </c>
       <c r="E50" s="25">
-        <f t="shared" ref="E50" si="9">IF(E6="","",SUM(E41:E49))</f>
+        <f t="shared" ref="E50" si="18">IF(E6="","",SUM(E41:E49))</f>
         <v>0</v>
       </c>
       <c r="F50" s="25">
-        <f t="shared" ref="F50:G50" si="10">IF(F6="","",SUM(F41:F49))</f>
+        <f t="shared" ref="F50:G50" si="19">IF(F6="","",SUM(F41:F49))</f>
         <v>0</v>
       </c>
       <c r="G50" s="25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H50" s="25">
-        <f t="shared" ref="H50:I50" si="11">IF(H6="","",SUM(H41:H49))</f>
+        <f t="shared" ref="H50:I50" si="20">IF(H6="","",SUM(H41:H49))</f>
         <v>0</v>
       </c>
       <c r="I50" s="25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="J50" s="25">
-        <f t="shared" ref="J50" si="12">IF(J6="","",SUM(J41:J49))</f>
+        <f t="shared" ref="J50" si="21">IF(J6="","",SUM(J41:J49))</f>
         <v>0</v>
       </c>
     </row>
@@ -19102,676 +18184,603 @@
       <c r="I52" s="13"/>
       <c r="J52" s="13"/>
     </row>
-    <row r="53" spans="1:10" s="83" customFormat="1" ht="15">
-      <c r="A53" s="80"/>
+    <row r="53" spans="1:10" ht="15">
+      <c r="A53" s="7"/>
       <c r="B53" s="15" t="s">
         <v>1140</v>
       </c>
       <c r="C53" s="15"/>
       <c r="D53" s="15"/>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
-      <c r="G53" s="50"/>
-      <c r="H53" s="50"/>
       <c r="I53" s="15"/>
-      <c r="J53" s="50"/>
     </row>
     <row r="54" spans="1:10" ht="15">
       <c r="A54" s="8" t="str">
-        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B54="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B54,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="18"/>
-      <c r="C54" s="19"/>
-      <c r="D54" s="20"/>
-      <c r="E54" s="20"/>
-      <c r="F54" s="20"/>
+      <c r="C54" s="101"/>
+      <c r="D54" s="102"/>
+      <c r="E54" s="102"/>
+      <c r="F54" s="102"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="17" t="str">
-        <f t="shared" ref="I54:I62" si="13">IF(OR($E$6="", F54=""),"",SUM(G54:H54))</f>
+        <f t="shared" ref="I54:I63" si="22">IF(OR($E$6="", F54=""),"",SUM(G54:H54))</f>
         <v/>
       </c>
       <c r="J54" s="20"/>
     </row>
     <row r="55" spans="1:10" ht="15">
       <c r="A55" s="8" t="str">
-        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B55="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B55,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="20"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
+      <c r="C55" s="101"/>
+      <c r="D55" s="102"/>
+      <c r="E55" s="102"/>
+      <c r="F55" s="102"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J55" s="20"/>
     </row>
     <row r="56" spans="1:10" ht="15">
       <c r="A56" s="8" t="str">
-        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B56="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B56,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="19"/>
-      <c r="D56" s="20"/>
-      <c r="E56" s="20"/>
-      <c r="F56" s="20"/>
+      <c r="C56" s="101"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J56" s="20"/>
     </row>
     <row r="57" spans="1:10" ht="15">
       <c r="A57" s="8" t="str">
-        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B57="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B57,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="19"/>
-      <c r="D57" s="20"/>
-      <c r="E57" s="20"/>
-      <c r="F57" s="20"/>
+      <c r="C57" s="101"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="102"/>
+      <c r="F57" s="102"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J57" s="20"/>
     </row>
     <row r="58" spans="1:10" ht="15">
       <c r="A58" s="8" t="str">
-        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B58="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B58,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="19"/>
-      <c r="D58" s="20"/>
-      <c r="E58" s="20"/>
-      <c r="F58" s="20"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="102"/>
+      <c r="F58" s="102"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J58" s="20"/>
     </row>
     <row r="59" spans="1:10" ht="15">
       <c r="A59" s="8" t="str">
-        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B59="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B59,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="19"/>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="F59" s="20"/>
+      <c r="C59" s="101"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J59" s="20"/>
     </row>
     <row r="60" spans="1:10" ht="15">
       <c r="A60" s="8" t="str">
-        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B60="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B60,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="18"/>
-      <c r="C60" s="19"/>
-      <c r="D60" s="20"/>
-      <c r="E60" s="20"/>
-      <c r="F60" s="20"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="102"/>
+      <c r="E60" s="102"/>
+      <c r="F60" s="102"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J60" s="20"/>
     </row>
     <row r="61" spans="1:10" ht="15">
       <c r="A61" s="8" t="str">
-        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B61="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B61,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="19"/>
-      <c r="D61" s="20"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="20"/>
+      <c r="C61" s="101"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="J61" s="20"/>
     </row>
     <row r="62" spans="1:10" ht="15">
       <c r="A62" s="8" t="str">
-        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B62="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B62,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="19"/>
-      <c r="D62" s="20"/>
-      <c r="E62" s="20"/>
-      <c r="F62" s="20"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="102"/>
+      <c r="F62" s="102"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="17" t="str">
-        <f t="shared" si="13"/>
+        <f>IF(OR($E$6="", F62=""),"",SUM(G62:H62))</f>
         <v/>
       </c>
       <c r="J62" s="20"/>
     </row>
     <row r="63" spans="1:10" ht="15">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="8" t="str">
+        <f>IF(B63="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B63,'Statement of activities labels'!$B:$B, 'Statement of activities labels'!$C:$C))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B63" s="18"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="102"/>
+      <c r="E63" s="102"/>
+      <c r="F63" s="102"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="20"/>
+      <c r="I63" s="17" t="str">
+        <f t="shared" si="22"/>
+        <v/>
+      </c>
+      <c r="J63" s="20"/>
+    </row>
+    <row r="64" spans="1:10" ht="15">
+      <c r="A64" s="8" t="s">
         <v>1132</v>
       </c>
-      <c r="B63" s="84" t="s">
+      <c r="B64" s="78" t="s">
         <v>1133</v>
       </c>
-      <c r="C63" s="17">
-        <f>IF($C$6="","",SUM(C54:C62))</f>
-        <v>0</v>
-      </c>
-      <c r="D63" s="17">
-        <f t="shared" ref="D63:J63" si="14">IF($C$6="","",SUM(D54:D62))</f>
-        <v>0</v>
-      </c>
-      <c r="E63" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="F63" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="17">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="17">
-        <f>IF(H$6="","",SUM(H54:H62))</f>
-        <v>0</v>
-      </c>
-      <c r="I63" s="17">
-        <f>IF(I$6="","",SUM(I54:I62))</f>
-        <v>0</v>
-      </c>
-      <c r="J63" s="17">
-        <f>IF($J$6="","",SUM(J54:J62))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="15">
-      <c r="A64" s="80"/>
-      <c r="B64" s="15" t="s">
+      <c r="C64" s="77"/>
+      <c r="D64" s="77"/>
+      <c r="E64" s="77"/>
+      <c r="F64" s="77"/>
+      <c r="G64" s="17">
+        <f>IF($C$6="","",SUM(G54:G62))</f>
+        <v>0</v>
+      </c>
+      <c r="H64" s="17">
+        <f>IF(H$6="","",SUM(H54:H63))</f>
+        <v>0</v>
+      </c>
+      <c r="I64" s="17">
+        <f>IF(I$6="","",SUM(I54:I63))</f>
+        <v>0</v>
+      </c>
+      <c r="J64" s="17">
+        <f>IF($J$6="","",SUM(J54:J63))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="15">
+      <c r="A65" s="7"/>
+      <c r="B65" s="15" t="s">
         <v>1143</v>
       </c>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="I64" s="15"/>
-    </row>
-    <row r="65" spans="1:10" ht="15">
-      <c r="A65" s="8" t="str">
-        <f>IF(B65="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B65,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B65,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B65,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
-        <v>Choose from drop-down --&gt;</v>
-      </c>
-      <c r="B65" s="18"/>
-      <c r="C65" s="19"/>
-      <c r="D65" s="20"/>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="17" t="str">
-        <f t="shared" ref="I65:I69" si="15">IF(OR($E$6="", F65=""),"",SUM(G65:H65))</f>
-        <v/>
-      </c>
-      <c r="J65" s="20"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="104"/>
+      <c r="F65" s="104"/>
+      <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:10" ht="15">
       <c r="A66" s="8" t="str">
-        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B66="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B66,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="19"/>
-      <c r="D66" s="20"/>
-      <c r="E66" s="20"/>
-      <c r="F66" s="20"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="102"/>
+      <c r="F66" s="102"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="I66:I70" si="23">IF(OR($E$6="", F66=""),"",SUM(G66:H66))</f>
         <v/>
       </c>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="1:10" s="83" customFormat="1" ht="15">
+    <row r="67" spans="1:10" ht="15">
       <c r="A67" s="8" t="str">
-        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B67="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B67,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="19"/>
-      <c r="D67" s="20"/>
-      <c r="E67" s="20"/>
-      <c r="F67" s="20"/>
+      <c r="C67" s="101"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="1:10" s="83" customFormat="1" ht="15">
+    <row r="68" spans="1:10" ht="15">
       <c r="A68" s="8" t="str">
-        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B68="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B68,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="19"/>
-      <c r="D68" s="20"/>
-      <c r="E68" s="20"/>
-      <c r="F68" s="20"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="102"/>
+      <c r="E68" s="102"/>
+      <c r="F68" s="102"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="1:10" s="83" customFormat="1" ht="15">
+    <row r="69" spans="1:10" ht="15">
       <c r="A69" s="8" t="str">
-        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.CONCAT(_xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C),",",_xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$D:$D), ",",_xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$E:$E)))</f>
+        <f>IF(B69="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B69,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="19"/>
-      <c r="D69" s="20"/>
-      <c r="E69" s="20"/>
-      <c r="F69" s="20"/>
+      <c r="C69" s="101"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="17" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="1:10" s="83" customFormat="1" ht="15">
-      <c r="A70" s="8" t="s">
-        <v>1132</v>
-      </c>
-      <c r="B70" s="84" t="s">
-        <v>1142</v>
-      </c>
-      <c r="C70" s="17">
-        <f>IF($C$6="","",SUM(C63:C69))</f>
-        <v>0</v>
-      </c>
-      <c r="D70" s="17">
-        <f>IF($C$6="","",SUM(D63:D69))</f>
-        <v>0</v>
-      </c>
-      <c r="E70" s="17">
-        <f>IF($C$6="","",SUM(E63:E69))</f>
-        <v>0</v>
-      </c>
-      <c r="F70" s="17">
-        <f>IF($C$6="","",SUM(F63:F69))</f>
-        <v>0</v>
-      </c>
-      <c r="G70" s="17">
-        <f>IF($C$6="","",SUM(G63:G69))</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="17">
-        <f>IF(H$6="","",SUM(H63:H69))</f>
-        <v>0</v>
-      </c>
-      <c r="I70" s="17">
-        <f>IF(I$6="","",SUM(I63:I69))</f>
-        <v>0</v>
-      </c>
-      <c r="J70" s="17">
-        <f>IF($J$6="","",SUM(J63:J69))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" s="83" customFormat="1" ht="15">
+    <row r="70" spans="1:10" ht="15">
+      <c r="A70" s="8" t="str">
+        <f>IF(B70="", "Choose from drop-down --&gt;", _xlfn.XLOOKUP(B70,'Statement of activities labels'!$B:$B,'Statement of activities labels'!$C:$C))</f>
+        <v>Choose from drop-down --&gt;</v>
+      </c>
+      <c r="B70" s="18"/>
+      <c r="C70" s="101"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="102"/>
+      <c r="F70" s="102"/>
+      <c r="G70" s="20"/>
+      <c r="H70" s="20"/>
+      <c r="I70" s="17" t="str">
+        <f t="shared" si="23"/>
+        <v/>
+      </c>
+      <c r="J70" s="20"/>
+    </row>
+    <row r="71" spans="1:10" ht="15">
       <c r="A71" s="8" t="s">
         <v>1132</v>
       </c>
-      <c r="B71" s="10" t="s">
+      <c r="B71" s="78" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C71" s="77"/>
+      <c r="D71" s="77"/>
+      <c r="E71" s="77"/>
+      <c r="F71" s="77"/>
+      <c r="G71" s="17">
+        <f>IF($C$6="","",SUM(G64:G70))</f>
+        <v>0</v>
+      </c>
+      <c r="H71" s="17">
+        <f>IF(H$6="","",SUM(H64:H70))</f>
+        <v>0</v>
+      </c>
+      <c r="I71" s="17">
+        <f>IF(I$6="","",SUM(I64:I70))</f>
+        <v>0</v>
+      </c>
+      <c r="J71" s="17">
+        <f>IF($J$6="","",SUM(J64:J70))</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="15">
+      <c r="A72" s="8" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B72" s="10" t="s">
         <v>1141</v>
       </c>
-      <c r="C71" s="25" t="str">
-        <f>IF(C29="","",SUM(C64:C70))</f>
+      <c r="C72" s="77"/>
+      <c r="D72" s="77"/>
+      <c r="E72" s="77"/>
+      <c r="F72" s="77"/>
+      <c r="G72" s="25" t="str">
+        <f>IF(G29="","",SUM(G65:G71))</f>
         <v/>
       </c>
-      <c r="D71" s="25" t="str">
-        <f>IF(D29="","",SUM(D64:D70))</f>
+      <c r="H72" s="25" t="str">
+        <f>IF(H29="","",SUM(H65:H71))</f>
         <v/>
       </c>
-      <c r="E71" s="25" t="str">
-        <f>IF(E29="","",SUM(E64:E70))</f>
+      <c r="I72" s="25" t="str">
+        <f>IF(I29="","",SUM(I65:I71))</f>
         <v/>
       </c>
-      <c r="F71" s="25" t="str">
-        <f>IF(F29="","",SUM(F64:F70))</f>
+      <c r="J72" s="25" t="str">
+        <f>IF(J29="","",SUM(J65:J71))</f>
         <v/>
       </c>
-      <c r="G71" s="25" t="str">
-        <f>IF(G29="","",SUM(G64:G70))</f>
-        <v/>
-      </c>
-      <c r="H71" s="25" t="str">
-        <f>IF(H29="","",SUM(H64:H70))</f>
-        <v/>
-      </c>
-      <c r="I71" s="25" t="str">
-        <f>IF(I29="","",SUM(I64:I70))</f>
-        <v/>
-      </c>
-      <c r="J71" s="25" t="str">
-        <f>IF(J29="","",SUM(J64:J70))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72" spans="1:10" s="83" customFormat="1"/>
-    <row r="73" spans="1:10" ht="15">
-      <c r="A73" s="7"/>
-      <c r="B73" s="13" t="s">
+    </row>
+    <row r="73" spans="1:10">
+      <c r="C73" s="104"/>
+      <c r="D73" s="104"/>
+      <c r="E73" s="104"/>
+      <c r="F73" s="104"/>
+    </row>
+    <row r="74" spans="1:10" ht="15">
+      <c r="A74" s="7"/>
+      <c r="B74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
-      <c r="F73" s="13"/>
-      <c r="G73" s="13"/>
-      <c r="H73" s="13"/>
-      <c r="I73" s="13"/>
-      <c r="J73" s="13"/>
-    </row>
-    <row r="74" spans="1:10" ht="15">
-      <c r="A74" s="8" t="s">
-        <v>1137</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>1134</v>
-      </c>
-      <c r="C74" s="19"/>
-      <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
-      <c r="F74" s="20"/>
-      <c r="G74" s="20"/>
-      <c r="H74" s="20"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="20"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
     </row>
     <row r="75" spans="1:10" ht="15">
       <c r="A75" s="8" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>1135</v>
-      </c>
-      <c r="C75" s="19"/>
-      <c r="D75" s="20"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
+        <v>1134</v>
+      </c>
+      <c r="C75" s="101"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
       <c r="I75" s="17" t="str">
-        <f t="shared" ref="I75:I76" si="16">IF(OR($E$6="", F75=""),"",SUM(G75:H75))</f>
+        <f t="shared" ref="I75:I77" si="24">IF(OR($E$6="", F75=""),"",SUM(G75:H75))</f>
         <v/>
       </c>
       <c r="J75" s="20"/>
     </row>
     <row r="76" spans="1:10" ht="15">
       <c r="A76" s="8" t="s">
-        <v>51</v>
+        <v>1138</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>1136</v>
-      </c>
-      <c r="C76" s="19"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="20"/>
-      <c r="F76" s="20"/>
+        <v>1135</v>
+      </c>
+      <c r="C76" s="101"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
       <c r="I76" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="J76" s="20"/>
     </row>
     <row r="77" spans="1:10" ht="15">
-      <c r="I77" s="79"/>
+      <c r="A77" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C77" s="101"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
+      <c r="I77" s="17" t="str">
+        <f t="shared" si="24"/>
+        <v/>
+      </c>
+      <c r="J77" s="20"/>
     </row>
     <row r="78" spans="1:10" ht="15">
-      <c r="I78" s="81"/>
+      <c r="I78" s="76"/>
     </row>
     <row r="79" spans="1:10" ht="15">
-      <c r="I79" s="81"/>
+      <c r="I79" s="77"/>
     </row>
     <row r="80" spans="1:10" ht="15">
-      <c r="I80" s="81"/>
+      <c r="I80" s="77"/>
     </row>
     <row r="81" spans="9:9" ht="15">
-      <c r="I81" s="81"/>
+      <c r="I81" s="77"/>
     </row>
     <row r="82" spans="9:9" ht="15">
-      <c r="I82" s="81"/>
+      <c r="I82" s="77"/>
     </row>
     <row r="83" spans="9:9" ht="15">
-      <c r="I83" s="81"/>
+      <c r="I83" s="77"/>
     </row>
     <row r="84" spans="9:9" ht="15">
-      <c r="I84" s="81"/>
+      <c r="I84" s="77"/>
     </row>
     <row r="85" spans="9:9" ht="15">
-      <c r="I85" s="81"/>
+      <c r="I85" s="77"/>
     </row>
     <row r="86" spans="9:9" ht="15">
-      <c r="I86" s="81"/>
+      <c r="I86" s="77"/>
     </row>
     <row r="87" spans="9:9" ht="15">
-      <c r="I87" s="81"/>
-    </row>
-    <row r="88" spans="9:9" ht="14">
-      <c r="I88" s="82"/>
-    </row>
-    <row r="89" spans="9:9" ht="15">
-      <c r="I89" s="79"/>
+      <c r="I87" s="77"/>
+    </row>
+    <row r="88" spans="9:9" ht="15">
+      <c r="I88" s="77"/>
+    </row>
+    <row r="89" spans="9:9" ht="14">
+      <c r="I89" s="29"/>
     </row>
     <row r="90" spans="9:9" ht="15">
-      <c r="I90" s="81"/>
+      <c r="I90" s="76"/>
     </row>
     <row r="91" spans="9:9" ht="15">
-      <c r="I91" s="81"/>
+      <c r="I91" s="77"/>
     </row>
     <row r="92" spans="9:9" ht="15">
-      <c r="I92" s="81"/>
+      <c r="I92" s="77"/>
     </row>
     <row r="93" spans="9:9" ht="15">
-      <c r="I93" s="81"/>
+      <c r="I93" s="77"/>
     </row>
     <row r="94" spans="9:9" ht="15">
-      <c r="I94" s="81"/>
+      <c r="I94" s="77"/>
     </row>
     <row r="95" spans="9:9" ht="15">
-      <c r="I95" s="81"/>
+      <c r="I95" s="77"/>
     </row>
     <row r="96" spans="9:9" ht="15">
-      <c r="I96" s="81"/>
+      <c r="I96" s="77"/>
     </row>
     <row r="97" spans="9:9" ht="15">
-      <c r="I97" s="81"/>
+      <c r="I97" s="77"/>
     </row>
     <row r="98" spans="9:9" ht="15">
-      <c r="I98" s="81"/>
+      <c r="I98" s="77"/>
+    </row>
+    <row r="99" spans="9:9" ht="15">
+      <c r="I99" s="77"/>
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C23 C37 C50 D52:F52 I52:J52 I54:I62 D73:H76 J73:J76 I65:I69 I73:I98">
-    <cfRule type="expression" dxfId="40" priority="40" stopIfTrue="1">
+  <conditionalFormatting sqref="C23 C37 C50 D74:H77 J74:J77 I74:I99 D53:G63">
+    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:G37 D39:G51 D6:F6 D52:F52 I52:J52 D53:G53">
-    <cfRule type="expression" dxfId="39" priority="37" stopIfTrue="1">
+  <conditionalFormatting sqref="C64:J64">
+    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+      <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71:J72">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+      <formula>C$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:F6 D39:G40 D52:F52 D50:G51 D41:F49">
+    <cfRule type="expression" dxfId="25" priority="43" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H6:J6">
-    <cfRule type="expression" dxfId="38" priority="36" stopIfTrue="1">
+  <conditionalFormatting sqref="D65:J70">
+    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H40 H50">
+    <cfRule type="expression" dxfId="23" priority="41" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5 H7:H37 H39:H50">
-    <cfRule type="expression" dxfId="37" priority="35" stopIfTrue="1">
+  <conditionalFormatting sqref="H5:J6 I39:I51 D7:I37">
+    <cfRule type="expression" dxfId="22" priority="36" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H52:J63">
+    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J5 J7:J50 H38:I38">
-    <cfRule type="expression" dxfId="36" priority="34" stopIfTrue="1">
+  <conditionalFormatting sqref="J7:J8 H38:I38 J23:J24 J37:J40 J50">
+    <cfRule type="expression" dxfId="20" priority="40" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5 I7:I37 I39:I51">
-    <cfRule type="expression" dxfId="35" priority="30" stopIfTrue="1">
-      <formula>I$6=""</formula>
+  <conditionalFormatting sqref="J9:J22">
+    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
+      <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D54:G62">
-    <cfRule type="expression" dxfId="34" priority="28" stopIfTrue="1">
-      <formula>D$6=""</formula>
+  <conditionalFormatting sqref="J25:J36">
+    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
+      <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:H62">
-    <cfRule type="expression" dxfId="33" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="G41:G49">
+    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
+      <formula>G$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H41:H49">
+    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J54:J62">
-    <cfRule type="expression" dxfId="32" priority="26" stopIfTrue="1">
+  <conditionalFormatting sqref="J41:J49">
+    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
       <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C63:J63">
-    <cfRule type="expression" dxfId="31" priority="25" stopIfTrue="1">
-      <formula>C$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H53">
-    <cfRule type="expression" dxfId="30" priority="16" stopIfTrue="1">
-      <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J53">
-    <cfRule type="expression" dxfId="29" priority="15" stopIfTrue="1">
-      <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I53">
-    <cfRule type="expression" dxfId="28" priority="14" stopIfTrue="1">
-      <formula>I$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D64:G64">
-    <cfRule type="expression" dxfId="27" priority="13" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D65:G69">
-    <cfRule type="expression" dxfId="26" priority="12" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H65:H69">
-    <cfRule type="expression" dxfId="25" priority="11" stopIfTrue="1">
-      <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J65:J69">
-    <cfRule type="expression" dxfId="24" priority="10" stopIfTrue="1">
-      <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H64">
-    <cfRule type="expression" dxfId="23" priority="9" stopIfTrue="1">
-      <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J64">
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
-      <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I64">
-    <cfRule type="expression" dxfId="21" priority="7" stopIfTrue="1">
-      <formula>I$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C70:J70">
-    <cfRule type="expression" dxfId="20" priority="6" stopIfTrue="1">
-      <formula>C$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C71">
-    <cfRule type="expression" dxfId="19" priority="5" stopIfTrue="1">
-      <formula>C$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D71:G71">
-    <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
-      <formula>D$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H71">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
-      <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J71">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
-      <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I71">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
-      <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22 B25:B36 B41:B49" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
       <formula1>program_revenues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B62" xr:uid="{96AC2388-DB7C-8442-BE26-CB837586D707}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B54:B63" xr:uid="{96AC2388-DB7C-8442-BE26-CB837586D707}">
       <formula1>general_revenues</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B65:B69" xr:uid="{A7A9E828-3622-4441-839C-4C8E5DABEB87}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B66:B70" xr:uid="{A7A9E828-3622-4441-839C-4C8E5DABEB87}">
       <formula1>transfers</formula1>
     </dataValidation>
   </dataValidations>
@@ -19809,8 +18818,8 @@
       <c r="A1" s="45" t="s">
         <v>1074</v>
       </c>
-      <c r="B1" s="106" t="s">
-        <v>1741</v>
+      <c r="B1" s="97" t="s">
+        <v>1681</v>
       </c>
       <c r="C1" s="55"/>
       <c r="D1" s="49"/>
@@ -21471,12 +20480,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="74" t="s">
+      <c r="B25" s="98" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="100"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">

--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9489C06-BF10-7144-B4DF-281ED8216F9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D807F27-77E8-D543-A613-6F1476C70B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="500" windowWidth="24180" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16900,8 +16900,8 @@
   </sheetPr>
   <dimension ref="A1:J99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -17045,18 +17045,12 @@
         <f>IF(OR(G$6="", B9=""),"",SUM(E9:F9) - C9)</f>
         <v/>
       </c>
-      <c r="H9" s="65" t="str">
-        <f>IF(OR(H$6="", $B9=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="H9" s="65"/>
       <c r="I9" s="17" t="str">
         <f>IF(OR($E$6="", B9=""),"",SUM(G9:H9))</f>
         <v/>
       </c>
-      <c r="J9" s="65" t="str">
-        <f>IF(OR(J$6="", $B9=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="J9" s="65"/>
     </row>
     <row r="10" spans="1:10" ht="15">
       <c r="A10" s="8" t="str">
@@ -17072,18 +17066,12 @@
         <f>IF(OR(G$6="", B10=""),"",SUM(E10:F10) - C10)</f>
         <v/>
       </c>
-      <c r="H10" s="65" t="str">
-        <f>IF(OR(H$6="", $B10=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="H10" s="65"/>
       <c r="I10" s="17" t="str">
         <f>IF(OR($E$6="", B10=""),"",SUM(G10:H10))</f>
         <v/>
       </c>
-      <c r="J10" s="65" t="str">
-        <f>IF(OR(J$6="", $B10=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="J10" s="65"/>
     </row>
     <row r="11" spans="1:10" ht="15">
       <c r="A11" s="8" t="str">
@@ -17099,18 +17087,12 @@
         <f t="shared" ref="G11:G22" si="0">IF(OR(G$6="", B11=""),"",SUM(E11:F11) - C11)</f>
         <v/>
       </c>
-      <c r="H11" s="65" t="str">
-        <f t="shared" ref="H11:H22" si="1">IF(OR(H$6="", $B11=""),"",0)</f>
+      <c r="H11" s="65"/>
+      <c r="I11" s="17" t="str">
+        <f t="shared" ref="I10:I22" si="1">IF(OR($E$6="", B11=""),"",SUM(G11:H11))</f>
         <v/>
       </c>
-      <c r="I11" s="17" t="str">
-        <f t="shared" ref="I10:I22" si="2">IF(OR($E$6="", B11=""),"",SUM(G11:H11))</f>
-        <v/>
-      </c>
-      <c r="J11" s="65" t="str">
-        <f t="shared" ref="J11:J22" si="3">IF(OR(J$6="", $B11=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="15">
       <c r="A12" s="8" t="str">
@@ -17126,18 +17108,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H12" s="65" t="str">
+      <c r="H12" s="65"/>
+      <c r="I12" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I12" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J12" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J12" s="65"/>
     </row>
     <row r="13" spans="1:10" ht="15">
       <c r="A13" s="8" t="str">
@@ -17153,18 +17129,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H13" s="65" t="str">
+      <c r="H13" s="65"/>
+      <c r="I13" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I13" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J13" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J13" s="65"/>
     </row>
     <row r="14" spans="1:10" ht="15">
       <c r="A14" s="8" t="str">
@@ -17180,18 +17150,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H14" s="65" t="str">
+      <c r="H14" s="65"/>
+      <c r="I14" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I14" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J14" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J14" s="65"/>
     </row>
     <row r="15" spans="1:10" ht="15">
       <c r="A15" s="8" t="str">
@@ -17207,18 +17171,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H15" s="65" t="str">
+      <c r="H15" s="65"/>
+      <c r="I15" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I15" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J15" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J15" s="65"/>
     </row>
     <row r="16" spans="1:10" ht="15">
       <c r="A16" s="8" t="str">
@@ -17234,18 +17192,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H16" s="65" t="str">
+      <c r="H16" s="65"/>
+      <c r="I16" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I16" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J16" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J16" s="65"/>
     </row>
     <row r="17" spans="1:10" ht="15">
       <c r="A17" s="8" t="str">
@@ -17261,18 +17213,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H17" s="65" t="str">
+      <c r="H17" s="65"/>
+      <c r="I17" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I17" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J17" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J17" s="65"/>
     </row>
     <row r="18" spans="1:10" ht="15" hidden="1">
       <c r="A18" s="8" t="str">
@@ -17288,18 +17234,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H18" s="65" t="str">
+      <c r="H18" s="65"/>
+      <c r="I18" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I18" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J18" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J18" s="65"/>
     </row>
     <row r="19" spans="1:10" ht="15" hidden="1">
       <c r="A19" s="8" t="str">
@@ -17315,18 +17255,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H19" s="65" t="str">
+      <c r="H19" s="65"/>
+      <c r="I19" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I19" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J19" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J19" s="65"/>
     </row>
     <row r="20" spans="1:10" ht="15" hidden="1">
       <c r="A20" s="8" t="str">
@@ -17342,18 +17276,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H20" s="65" t="str">
+      <c r="H20" s="65"/>
+      <c r="I20" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I20" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J20" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J20" s="65"/>
     </row>
     <row r="21" spans="1:10" ht="15" hidden="1">
       <c r="A21" s="8" t="str">
@@ -17369,18 +17297,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H21" s="65" t="str">
+      <c r="H21" s="65"/>
+      <c r="I21" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I21" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J21" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J21" s="65"/>
     </row>
     <row r="22" spans="1:10" ht="15">
       <c r="A22" s="8" t="str">
@@ -17396,18 +17318,12 @@
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="65" t="str">
+      <c r="H22" s="65"/>
+      <c r="I22" s="17" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I22" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="J22" s="65" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="s">
@@ -17417,37 +17333,31 @@
         <v>1122</v>
       </c>
       <c r="C23" s="17">
-        <f t="shared" ref="C23:J23" si="4">IF(C6="","",SUM(C9:C22))</f>
+        <f t="shared" ref="C23:J23" si="2">IF(C6="","",SUM(C9:C22))</f>
         <v>0</v>
       </c>
       <c r="D23" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E23" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23" s="17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G23" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="17"/>
       <c r="I23" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="1:10" ht="15">
       <c r="A24" s="7"/>
@@ -17468,10 +17378,7 @@
       <c r="D25" s="20"/>
       <c r="E25" s="20"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="65" t="str">
-        <f>IF(OR(G$6="", B25=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="G25" s="65"/>
       <c r="H25" s="65" t="str">
         <f>IF(OR(H$6="", $B25=""),"",SUM(E25:F25)-C25)</f>
         <v/>
@@ -17480,10 +17387,7 @@
         <f>IF(OR(I$6="", B25=""),"",SUM(G25:H25))</f>
         <v/>
       </c>
-      <c r="J25" s="65" t="str">
-        <f t="shared" ref="J25:J36" si="5">IF(OR(J$6="", $B25=""),"",0)</f>
-        <v/>
-      </c>
+      <c r="J25" s="65"/>
     </row>
     <row r="26" spans="1:10" ht="15">
       <c r="A26" s="8" t="str">
@@ -17495,22 +17399,16 @@
       <c r="D26" s="20"/>
       <c r="E26" s="20"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="65" t="str">
-        <f t="shared" ref="G26:G36" si="6">IF(OR(G$6="", B26=""),"",0)</f>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65" t="str">
+        <f t="shared" ref="H26:H36" si="3">IF(OR(H$6="", $B26=""),"",SUM(E26:F26)-C26)</f>
         <v/>
       </c>
-      <c r="H26" s="65" t="str">
-        <f t="shared" ref="H26:H36" si="7">IF(OR(H$6="", $B26=""),"",SUM(E26:F26)-C26)</f>
+      <c r="I26" s="17" t="str">
+        <f t="shared" ref="I26:I36" si="4">IF(OR(I$6="", B26=""),"",SUM(G26:H26))</f>
         <v/>
       </c>
-      <c r="I26" s="17" t="str">
-        <f t="shared" ref="I26:I36" si="8">IF(OR(I$6="", B26=""),"",SUM(G26:H26))</f>
-        <v/>
-      </c>
-      <c r="J26" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J26" s="65"/>
     </row>
     <row r="27" spans="1:10" ht="15">
       <c r="A27" s="8" t="str">
@@ -17522,22 +17420,16 @@
       <c r="D27" s="20"/>
       <c r="E27" s="20"/>
       <c r="F27" s="20"/>
-      <c r="G27" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H27" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I27" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I27" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J27" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J27" s="65"/>
     </row>
     <row r="28" spans="1:10" ht="15">
       <c r="A28" s="8" t="str">
@@ -17549,22 +17441,16 @@
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
-      <c r="G28" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H28" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I28" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I28" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J28" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J28" s="65"/>
     </row>
     <row r="29" spans="1:10" ht="15">
       <c r="A29" s="8" t="str">
@@ -17576,22 +17462,16 @@
       <c r="D29" s="20"/>
       <c r="E29" s="20"/>
       <c r="F29" s="20"/>
-      <c r="G29" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H29" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I29" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I29" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J29" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J29" s="65"/>
     </row>
     <row r="30" spans="1:10" ht="15">
       <c r="A30" s="8" t="str">
@@ -17603,22 +17483,16 @@
       <c r="D30" s="19"/>
       <c r="E30" s="19"/>
       <c r="F30" s="19"/>
-      <c r="G30" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H30" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I30" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I30" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J30" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J30" s="65"/>
     </row>
     <row r="31" spans="1:10" ht="15">
       <c r="A31" s="8" t="str">
@@ -17630,22 +17504,16 @@
       <c r="D31" s="19"/>
       <c r="E31" s="19"/>
       <c r="F31" s="19"/>
-      <c r="G31" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H31" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I31" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I31" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J31" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J31" s="65"/>
     </row>
     <row r="32" spans="1:10" ht="15" hidden="1">
       <c r="A32" s="8" t="str">
@@ -17657,22 +17525,16 @@
       <c r="D32" s="19"/>
       <c r="E32" s="19"/>
       <c r="F32" s="19"/>
-      <c r="G32" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H32" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I32" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I32" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J32" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J32" s="65"/>
     </row>
     <row r="33" spans="1:10" ht="15" hidden="1">
       <c r="A33" s="8" t="str">
@@ -17684,22 +17546,16 @@
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
       <c r="F33" s="19"/>
-      <c r="G33" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H33" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I33" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I33" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J33" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J33" s="65"/>
     </row>
     <row r="34" spans="1:10" ht="15" hidden="1">
       <c r="A34" s="8" t="str">
@@ -17711,22 +17567,16 @@
       <c r="D34" s="19"/>
       <c r="E34" s="19"/>
       <c r="F34" s="19"/>
-      <c r="G34" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G34" s="65"/>
+      <c r="H34" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H34" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I34" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I34" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J34" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J34" s="65"/>
     </row>
     <row r="35" spans="1:10" ht="15" hidden="1">
       <c r="A35" s="8" t="str">
@@ -17738,22 +17588,16 @@
       <c r="D35" s="19"/>
       <c r="E35" s="19"/>
       <c r="F35" s="19"/>
-      <c r="G35" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H35" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I35" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I35" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J35" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J35" s="65"/>
     </row>
     <row r="36" spans="1:10" ht="15">
       <c r="A36" s="8" t="str">
@@ -17765,22 +17609,16 @@
       <c r="D36" s="19"/>
       <c r="E36" s="19"/>
       <c r="F36" s="19"/>
-      <c r="G36" s="65" t="str">
-        <f t="shared" si="6"/>
+      <c r="G36" s="65"/>
+      <c r="H36" s="65" t="str">
+        <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="H36" s="65" t="str">
-        <f t="shared" si="7"/>
+      <c r="I36" s="17" t="str">
+        <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I36" s="17" t="str">
-        <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="J36" s="65" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15">
       <c r="A37" s="8" t="s">
@@ -17798,29 +17636,23 @@
         <v>0</v>
       </c>
       <c r="E37" s="17">
-        <f t="shared" ref="E37" si="9">IF(E6="","",SUM(E25:E36))</f>
+        <f t="shared" ref="E37" si="5">IF(E6="","",SUM(E25:E36))</f>
         <v>0</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" ref="F37:G37" si="10">IF(F6="","",SUM(F25:F36))</f>
-        <v>0</v>
-      </c>
-      <c r="G37" s="17">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="F37:G37" si="6">IF(F6="","",SUM(F25:F36))</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="17"/>
       <c r="H37" s="17">
-        <f t="shared" ref="H37" si="11">IF(H6="","",SUM(H25:H36))</f>
+        <f t="shared" ref="H37" si="7">IF(H6="","",SUM(H25:H36))</f>
         <v>0</v>
       </c>
       <c r="I37" s="17">
         <f>IF(I$6="","",SUM(I25:I36))</f>
         <v>0</v>
       </c>
-      <c r="J37" s="17">
-        <f t="shared" ref="J37" si="12">IF(J6="","",SUM(J25:J36))</f>
-        <v>0</v>
-      </c>
+      <c r="J37" s="17"/>
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="8" t="s">
@@ -17834,33 +17666,30 @@
         <v>0</v>
       </c>
       <c r="D38" s="23">
-        <f t="shared" ref="D38:G38" si="13">D23+D37</f>
+        <f t="shared" ref="D38:G38" si="8">D23+D37</f>
         <v>0</v>
       </c>
       <c r="E38" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="F38" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="G38" s="23">
-        <f t="shared" si="13"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="H38" s="25">
-        <f t="shared" ref="H38:I38" si="14">IF(H$6="","",H23+H37)</f>
+        <f t="shared" ref="H38:I38" si="9">IF(H$6="","",H23+H37)</f>
         <v>0</v>
       </c>
       <c r="I38" s="25">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="25">
-        <f>IF(J$6="","",J23+J37)</f>
-        <v>0</v>
-      </c>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="25"/>
     </row>
     <row r="39" spans="1:10" ht="15">
       <c r="A39" s="7"/>
@@ -17918,19 +17747,19 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="65" t="str">
-        <f t="shared" ref="G42:H49" si="15">IF(OR(G$6="", B42=""),"",0)</f>
+        <f t="shared" ref="G42:H49" si="10">IF(OR(G$6="", B42=""),"",0)</f>
         <v/>
       </c>
       <c r="H42" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I42" s="17" t="str">
-        <f t="shared" ref="I42:I49" si="16">IF(OR($E$6="", F42=""),"",SUM(G42:H42))</f>
+        <f t="shared" ref="I42:I49" si="11">IF(OR($E$6="", F42=""),"",SUM(G42:H42))</f>
         <v/>
       </c>
       <c r="J42" s="65" t="str">
-        <f t="shared" ref="J42:J49" si="17">IF(OR(J$6="", E42=""),"",SUM(D42:F42)-C42)</f>
+        <f t="shared" ref="J42:J49" si="12">IF(OR(J$6="", E42=""),"",SUM(D42:F42)-C42)</f>
         <v/>
       </c>
     </row>
@@ -17945,19 +17774,19 @@
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H43" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I43" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J43" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -17972,19 +17801,19 @@
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H44" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I44" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J44" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -17999,19 +17828,19 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H45" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I45" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J45" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -18026,19 +17855,19 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H46" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I46" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J46" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -18053,19 +17882,19 @@
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H47" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I47" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J47" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -18080,19 +17909,19 @@
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H48" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I48" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J48" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -18107,19 +17936,19 @@
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
       <c r="G49" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="H49" s="65" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="I49" s="17" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J49" s="65" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="12"/>
         <v/>
       </c>
     </row>
@@ -18139,27 +17968,27 @@
         <v>0</v>
       </c>
       <c r="E50" s="25">
-        <f t="shared" ref="E50" si="18">IF(E6="","",SUM(E41:E49))</f>
+        <f t="shared" ref="E50" si="13">IF(E6="","",SUM(E41:E49))</f>
         <v>0</v>
       </c>
       <c r="F50" s="25">
-        <f t="shared" ref="F50:G50" si="19">IF(F6="","",SUM(F41:F49))</f>
+        <f t="shared" ref="F50:G50" si="14">IF(F6="","",SUM(F41:F49))</f>
         <v>0</v>
       </c>
       <c r="G50" s="25">
-        <f t="shared" si="19"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="H50" s="25">
-        <f t="shared" ref="H50:I50" si="20">IF(H6="","",SUM(H41:H49))</f>
+        <f t="shared" ref="H50:I50" si="15">IF(H6="","",SUM(H41:H49))</f>
         <v>0</v>
       </c>
       <c r="I50" s="25">
-        <f t="shared" si="20"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="J50" s="25">
-        <f t="shared" ref="J50" si="21">IF(J6="","",SUM(J41:J49))</f>
+        <f t="shared" ref="J50" si="16">IF(J6="","",SUM(J41:J49))</f>
         <v>0</v>
       </c>
     </row>
@@ -18206,7 +18035,7 @@
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="17" t="str">
-        <f t="shared" ref="I54:I63" si="22">IF(OR($E$6="", F54=""),"",SUM(G54:H54))</f>
+        <f t="shared" ref="I54:I63" si="17">IF(OR($E$6="", F54=""),"",SUM(G54:H54))</f>
         <v/>
       </c>
       <c r="J54" s="20"/>
@@ -18224,7 +18053,7 @@
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J55" s="20"/>
@@ -18242,7 +18071,7 @@
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J56" s="20"/>
@@ -18260,7 +18089,7 @@
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J57" s="20"/>
@@ -18278,7 +18107,7 @@
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J58" s="20"/>
@@ -18296,7 +18125,7 @@
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J59" s="20"/>
@@ -18314,7 +18143,7 @@
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J60" s="20"/>
@@ -18332,7 +18161,7 @@
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J61" s="20"/>
@@ -18368,7 +18197,7 @@
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="17" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J63" s="20"/>
@@ -18425,7 +18254,7 @@
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="17" t="str">
-        <f t="shared" ref="I66:I70" si="23">IF(OR($E$6="", F66=""),"",SUM(G66:H66))</f>
+        <f t="shared" ref="I66:I70" si="18">IF(OR($E$6="", F66=""),"",SUM(G66:H66))</f>
         <v/>
       </c>
       <c r="J66" s="20"/>
@@ -18443,7 +18272,7 @@
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J67" s="20"/>
@@ -18461,7 +18290,7 @@
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J68" s="20"/>
@@ -18479,7 +18308,7 @@
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J69" s="20"/>
@@ -18497,7 +18326,7 @@
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="17" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="J70" s="20"/>
@@ -18592,7 +18421,7 @@
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
       <c r="I75" s="17" t="str">
-        <f t="shared" ref="I75:I77" si="24">IF(OR($E$6="", F75=""),"",SUM(G75:H75))</f>
+        <f t="shared" ref="I75:I77" si="19">IF(OR($E$6="", F75=""),"",SUM(G75:H75))</f>
         <v/>
       </c>
       <c r="J75" s="20"/>
@@ -18611,7 +18440,7 @@
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
       <c r="I76" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J76" s="20"/>
@@ -18630,7 +18459,7 @@
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
       <c r="I77" s="17" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="J77" s="20"/>
@@ -18773,7 +18602,7 @@
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22 B25:B36 B41:B49" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
       <formula1>program_revenues</formula1>
     </dataValidation>

--- a/static/input_files/acfrs/example_template.xlsx
+++ b/static/input_files/acfrs/example_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/katrinawheelan/Desktop/Code/CLOSUP/process_xbrl/process-xbrl/static/input_files/acfrs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D807F27-77E8-D543-A613-6F1476C70B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{908DFE4B-89B3-384D-853E-FBC5105F040A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2540" yWindow="500" windowWidth="24180" windowHeight="17500" tabRatio="834" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5126,9 +5126,6 @@
     <t>City of Clayton, California</t>
   </si>
   <si>
-    <t>ProgramRevenues,Expenses,NetExpenseRevenue</t>
-  </si>
-  <si>
     <t>National Forest Reserve Taxes</t>
   </si>
   <si>
@@ -5310,6 +5307,9 @@
   </si>
   <si>
     <t>Grants and Entitlements Not Restricted for Specific Programs</t>
+  </si>
+  <si>
+    <t>acfr:ProgramRevenues,acfr:Expenses,acfr:NetExpenseRevenue</t>
   </si>
 </sst>
 </file>
@@ -5775,7 +5775,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -5955,6 +5955,14 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -5964,16 +5972,6 @@
     <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -5981,6 +5979,30 @@
     <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
   </cellStyles>
   <dxfs count="33">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -6112,30 +6134,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill>
-          <bgColor theme="0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -14155,7 +14153,7 @@
         <v>1548</v>
       </c>
       <c r="B112" s="79" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="C112" s="79" t="s">
         <v>1549</v>
@@ -14166,7 +14164,7 @@
         <v>1548</v>
       </c>
       <c r="B113" s="79" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="C113" s="79" t="s">
         <v>1550</v>
@@ -14177,7 +14175,7 @@
         <v>1548</v>
       </c>
       <c r="B114" s="79" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="C114" s="79" t="s">
         <v>1551</v>
@@ -14188,7 +14186,7 @@
         <v>1548</v>
       </c>
       <c r="B115" s="79" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C115" s="79" t="s">
         <v>1552</v>
@@ -14199,7 +14197,7 @@
         <v>1548</v>
       </c>
       <c r="B116" s="79" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="C116" s="79" t="s">
         <v>1553</v>
@@ -14210,7 +14208,7 @@
         <v>1548</v>
       </c>
       <c r="B117" s="79" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="C117" s="79" t="s">
         <v>1554</v>
@@ -14221,7 +14219,7 @@
         <v>1548</v>
       </c>
       <c r="B118" s="79" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="C118" s="79" t="s">
         <v>1555</v>
@@ -14232,7 +14230,7 @@
         <v>1548</v>
       </c>
       <c r="B119" s="79" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="C119" s="79" t="s">
         <v>1556</v>
@@ -14243,7 +14241,7 @@
         <v>1548</v>
       </c>
       <c r="B120" s="79" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="C120" s="79" t="s">
         <v>1557</v>
@@ -14254,7 +14252,7 @@
         <v>1548</v>
       </c>
       <c r="B121" s="79" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="C121" s="79" t="s">
         <v>1558</v>
@@ -14265,7 +14263,7 @@
         <v>1548</v>
       </c>
       <c r="B122" s="79" t="s">
-        <v>1693</v>
+        <v>1692</v>
       </c>
       <c r="C122" s="79" t="s">
         <v>1559</v>
@@ -14276,7 +14274,7 @@
         <v>1548</v>
       </c>
       <c r="B123" s="79" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="C123" s="79" t="s">
         <v>1560</v>
@@ -14287,7 +14285,7 @@
         <v>1548</v>
       </c>
       <c r="B124" s="79" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="C124" s="79" t="s">
         <v>1561</v>
@@ -14298,7 +14296,7 @@
         <v>1548</v>
       </c>
       <c r="B125" s="79" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="C125" s="79" t="s">
         <v>1562</v>
@@ -14309,7 +14307,7 @@
         <v>1548</v>
       </c>
       <c r="B126" s="79" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="C126" s="79" t="s">
         <v>1563</v>
@@ -14320,7 +14318,7 @@
         <v>1548</v>
       </c>
       <c r="B127" s="79" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="C127" s="79" t="s">
         <v>1564</v>
@@ -14331,7 +14329,7 @@
         <v>1548</v>
       </c>
       <c r="B128" s="79" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="C128" s="79" t="s">
         <v>1565</v>
@@ -14342,7 +14340,7 @@
         <v>1548</v>
       </c>
       <c r="B129" s="79" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="C129" s="79" t="s">
         <v>1566</v>
@@ -14353,7 +14351,7 @@
         <v>1548</v>
       </c>
       <c r="B130" s="79" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="C130" s="79" t="s">
         <v>1567</v>
@@ -14364,7 +14362,7 @@
         <v>1548</v>
       </c>
       <c r="B131" s="79" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="C131" s="79" t="s">
         <v>1568</v>
@@ -14375,7 +14373,7 @@
         <v>1548</v>
       </c>
       <c r="B132" s="79" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="C132" s="79" t="s">
         <v>1569</v>
@@ -14386,7 +14384,7 @@
         <v>1548</v>
       </c>
       <c r="B133" s="79" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="C133" s="79" t="s">
         <v>1570</v>
@@ -14397,7 +14395,7 @@
         <v>1548</v>
       </c>
       <c r="B134" s="79" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="C134" s="79" t="s">
         <v>1571</v>
@@ -14408,7 +14406,7 @@
         <v>1548</v>
       </c>
       <c r="B135" s="79" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="C135" s="79" t="s">
         <v>1572</v>
@@ -14419,7 +14417,7 @@
         <v>1548</v>
       </c>
       <c r="B136" s="79" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="C136" s="79" t="s">
         <v>1573</v>
@@ -14430,7 +14428,7 @@
         <v>1548</v>
       </c>
       <c r="B137" s="79" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="C137" s="79" t="s">
         <v>1574</v>
@@ -14441,7 +14439,7 @@
         <v>1548</v>
       </c>
       <c r="B138" s="79" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="C138" s="79" t="s">
         <v>1575</v>
@@ -14452,7 +14450,7 @@
         <v>1548</v>
       </c>
       <c r="B139" s="79" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="C139" s="79" t="s">
         <v>1576</v>
@@ -14463,7 +14461,7 @@
         <v>1548</v>
       </c>
       <c r="B140" s="79" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="C140" s="79" t="s">
         <v>1577</v>
@@ -14474,7 +14472,7 @@
         <v>1548</v>
       </c>
       <c r="B141" s="79" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="C141" s="79" t="s">
         <v>1578</v>
@@ -14485,7 +14483,7 @@
         <v>1548</v>
       </c>
       <c r="B142" s="79" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="C142" s="79" t="s">
         <v>1579</v>
@@ -14496,7 +14494,7 @@
         <v>1548</v>
       </c>
       <c r="B143" s="79" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="C143" s="79" t="s">
         <v>1552</v>
@@ -14507,7 +14505,7 @@
         <v>1548</v>
       </c>
       <c r="B144" s="79" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="C144" s="79" t="s">
         <v>1580</v>
@@ -14518,7 +14516,7 @@
         <v>1548</v>
       </c>
       <c r="B145" s="79" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="C145" s="79" t="s">
         <v>1581</v>
@@ -14529,7 +14527,7 @@
         <v>1548</v>
       </c>
       <c r="B146" s="79" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="C146" s="79" t="s">
         <v>1582</v>
@@ -14540,7 +14538,7 @@
         <v>1548</v>
       </c>
       <c r="B147" s="79" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="C147" s="79" t="s">
         <v>1583</v>
@@ -14573,7 +14571,7 @@
         <v>1548</v>
       </c>
       <c r="B150" s="79" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="C150" s="79" t="s">
         <v>1588</v>
@@ -14584,7 +14582,7 @@
         <v>1548</v>
       </c>
       <c r="B151" s="79" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="C151" s="79" t="s">
         <v>1589</v>
@@ -14595,7 +14593,7 @@
         <v>1548</v>
       </c>
       <c r="B152" s="79" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="C152" s="79" t="s">
         <v>1590</v>
@@ -14617,7 +14615,7 @@
         <v>1548</v>
       </c>
       <c r="B154" s="79" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="C154" s="79" t="s">
         <v>1593</v>
@@ -14628,7 +14626,7 @@
         <v>1548</v>
       </c>
       <c r="B155" s="79" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
       <c r="C155" s="79" t="s">
         <v>1594</v>
@@ -14639,7 +14637,7 @@
         <v>1548</v>
       </c>
       <c r="B156" s="79" t="s">
-        <v>1723</v>
+        <v>1722</v>
       </c>
       <c r="C156" s="79" t="s">
         <v>1595</v>
@@ -14650,7 +14648,7 @@
         <v>1548</v>
       </c>
       <c r="B157" s="79" t="s">
-        <v>1724</v>
+        <v>1723</v>
       </c>
       <c r="C157" s="79" t="s">
         <v>1596</v>
@@ -14672,7 +14670,7 @@
         <v>1548</v>
       </c>
       <c r="B159" s="79" t="s">
-        <v>1725</v>
+        <v>1724</v>
       </c>
       <c r="C159" s="79" t="s">
         <v>1599</v>
@@ -14694,7 +14692,7 @@
         <v>1548</v>
       </c>
       <c r="B161" s="79" t="s">
-        <v>1726</v>
+        <v>1725</v>
       </c>
       <c r="C161" s="79" t="s">
         <v>1602</v>
@@ -14705,7 +14703,7 @@
         <v>1548</v>
       </c>
       <c r="B162" s="79" t="s">
-        <v>1727</v>
+        <v>1726</v>
       </c>
       <c r="C162" s="79" t="s">
         <v>1603</v>
@@ -14804,7 +14802,7 @@
         <v>1548</v>
       </c>
       <c r="B171" s="79" t="s">
-        <v>1728</v>
+        <v>1727</v>
       </c>
       <c r="C171" s="79" t="s">
         <v>1219</v>
@@ -14815,7 +14813,7 @@
         <v>1548</v>
       </c>
       <c r="B172" s="79" t="s">
-        <v>1729</v>
+        <v>1728</v>
       </c>
       <c r="C172" s="79" t="s">
         <v>1604</v>
@@ -14826,7 +14824,7 @@
         <v>1548</v>
       </c>
       <c r="B173" s="79" t="s">
-        <v>1730</v>
+        <v>1729</v>
       </c>
       <c r="C173" s="79" t="s">
         <v>1605</v>
@@ -14837,7 +14835,7 @@
         <v>1548</v>
       </c>
       <c r="B174" s="79" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C174" s="79" t="s">
         <v>1606</v>
@@ -14859,7 +14857,7 @@
         <v>1548</v>
       </c>
       <c r="B176" s="79" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="C176" s="79" t="s">
         <v>1606</v>
@@ -14881,7 +14879,7 @@
         <v>1548</v>
       </c>
       <c r="B178" s="79" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="C178" s="79" t="s">
         <v>1611</v>
@@ -14914,7 +14912,7 @@
         <v>1548</v>
       </c>
       <c r="B181" s="79" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="C181" s="79" t="s">
         <v>1616</v>
@@ -14925,7 +14923,7 @@
         <v>1548</v>
       </c>
       <c r="B182" s="79" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="C182" s="79" t="s">
         <v>1617</v>
@@ -14936,7 +14934,7 @@
         <v>1548</v>
       </c>
       <c r="B183" s="79" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="C183" s="79" t="s">
         <v>1618</v>
@@ -14947,7 +14945,7 @@
         <v>1548</v>
       </c>
       <c r="B184" s="79" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="C184" s="79" t="s">
         <v>1619</v>
@@ -14958,7 +14956,7 @@
         <v>1548</v>
       </c>
       <c r="B185" s="79" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="C185" s="79" t="s">
         <v>1620</v>
@@ -14969,7 +14967,7 @@
         <v>1548</v>
       </c>
       <c r="B186" s="79" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="C186" s="79" t="s">
         <v>1621</v>
@@ -14980,7 +14978,7 @@
         <v>1548</v>
       </c>
       <c r="B187" s="79" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="C187" s="79" t="s">
         <v>1622</v>
@@ -14991,7 +14989,7 @@
         <v>1548</v>
       </c>
       <c r="B188" s="79" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="C188" s="79" t="s">
         <v>1623</v>
@@ -15002,7 +15000,7 @@
         <v>1548</v>
       </c>
       <c r="B189" s="79" t="s">
-        <v>1741</v>
+        <v>1740</v>
       </c>
       <c r="C189" s="79" t="s">
         <v>1624</v>
@@ -15013,7 +15011,7 @@
         <v>1548</v>
       </c>
       <c r="B190" s="79" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="C190" s="79" t="s">
         <v>1625</v>
@@ -15024,7 +15022,7 @@
         <v>1548</v>
       </c>
       <c r="B191" s="79" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="C191" s="79" t="s">
         <v>1626</v>
@@ -16857,7 +16855,7 @@
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C23 C37 C50 C65 C76:C77 C89 C101 D6:F101">
+  <conditionalFormatting sqref="D6:F101 C23 C37 C50 C65 C76:C77 C89 C101">
     <cfRule type="expression" dxfId="29" priority="2" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
@@ -16901,7 +16899,7 @@
   <dimension ref="A1:J99"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
@@ -17047,7 +17045,7 @@
       </c>
       <c r="H9" s="65"/>
       <c r="I9" s="17" t="str">
-        <f>IF(OR($E$6="", B9=""),"",SUM(G9:H9))</f>
+        <f>IF(OR(I$6="", B9=""),"",SUM(G9:H9))</f>
         <v/>
       </c>
       <c r="J9" s="65"/>
@@ -17068,7 +17066,7 @@
       </c>
       <c r="H10" s="65"/>
       <c r="I10" s="17" t="str">
-        <f>IF(OR($E$6="", B10=""),"",SUM(G10:H10))</f>
+        <f t="shared" ref="I10:I22" si="0">IF(OR(I$6="", B10=""),"",SUM(G10:H10))</f>
         <v/>
       </c>
       <c r="J10" s="65"/>
@@ -17084,12 +17082,12 @@
       <c r="E11" s="20"/>
       <c r="F11" s="20"/>
       <c r="G11" s="65" t="str">
-        <f t="shared" ref="G11:G22" si="0">IF(OR(G$6="", B11=""),"",SUM(E11:F11) - C11)</f>
+        <f t="shared" ref="G11:G22" si="1">IF(OR(G$6="", B11=""),"",SUM(E11:F11) - C11)</f>
         <v/>
       </c>
       <c r="H11" s="65"/>
       <c r="I11" s="17" t="str">
-        <f t="shared" ref="I10:I22" si="1">IF(OR($E$6="", B11=""),"",SUM(G11:H11))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="65"/>
@@ -17105,12 +17103,12 @@
       <c r="E12" s="20"/>
       <c r="F12" s="20"/>
       <c r="G12" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H12" s="65"/>
       <c r="I12" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J12" s="65"/>
@@ -17126,12 +17124,12 @@
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
       <c r="G13" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H13" s="65"/>
       <c r="I13" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J13" s="65"/>
@@ -17147,12 +17145,12 @@
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
       <c r="G14" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H14" s="65"/>
       <c r="I14" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J14" s="65"/>
@@ -17168,12 +17166,12 @@
       <c r="E15" s="20"/>
       <c r="F15" s="20"/>
       <c r="G15" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H15" s="65"/>
       <c r="I15" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J15" s="65"/>
@@ -17189,12 +17187,12 @@
       <c r="E16" s="20"/>
       <c r="F16" s="20"/>
       <c r="G16" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H16" s="65"/>
       <c r="I16" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J16" s="65"/>
@@ -17210,12 +17208,12 @@
       <c r="E17" s="20"/>
       <c r="F17" s="20"/>
       <c r="G17" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H17" s="65"/>
       <c r="I17" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J17" s="65"/>
@@ -17231,12 +17229,12 @@
       <c r="E18" s="20"/>
       <c r="F18" s="20"/>
       <c r="G18" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H18" s="65"/>
       <c r="I18" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J18" s="65"/>
@@ -17252,12 +17250,12 @@
       <c r="E19" s="20"/>
       <c r="F19" s="20"/>
       <c r="G19" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H19" s="65"/>
       <c r="I19" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J19" s="65"/>
@@ -17273,12 +17271,12 @@
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
       <c r="G20" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H20" s="65"/>
       <c r="I20" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J20" s="65"/>
@@ -17294,12 +17292,12 @@
       <c r="E21" s="20"/>
       <c r="F21" s="20"/>
       <c r="G21" s="65" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="H21" s="65"/>
       <c r="I21" s="17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J21" s="65"/>
@@ -17315,25 +17313,25 @@
       <c r="E22" s="20"/>
       <c r="F22" s="20"/>
       <c r="G22" s="65" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="H22" s="65"/>
+      <c r="I22" s="17" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H22" s="65"/>
-      <c r="I22" s="17" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
       <c r="J22" s="65"/>
     </row>
     <row r="23" spans="1:10" ht="15">
       <c r="A23" s="8" t="s">
-        <v>1682</v>
+        <v>1743</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>1122</v>
       </c>
       <c r="C23" s="17">
-        <f t="shared" ref="C23:J23" si="2">IF(C6="","",SUM(C9:C22))</f>
+        <f t="shared" ref="C23:I23" si="2">IF(C6="","",SUM(C9:C22))</f>
         <v>0</v>
       </c>
       <c r="D23" s="17">
@@ -17384,7 +17382,7 @@
         <v/>
       </c>
       <c r="I25" s="17" t="str">
-        <f>IF(OR(I$6="", B25=""),"",SUM(G25:H25))</f>
+        <f t="shared" ref="I25:I36" si="3">IF(OR(I$6="", B25=""),"",SUM(G25:H25))</f>
         <v/>
       </c>
       <c r="J25" s="65"/>
@@ -17401,11 +17399,11 @@
       <c r="F26" s="20"/>
       <c r="G26" s="65"/>
       <c r="H26" s="65" t="str">
-        <f t="shared" ref="H26:H36" si="3">IF(OR(H$6="", $B26=""),"",SUM(E26:F26)-C26)</f>
+        <f t="shared" ref="H26:H36" si="4">IF(OR(H$6="", $B26=""),"",SUM(E26:F26)-C26)</f>
         <v/>
       </c>
       <c r="I26" s="17" t="str">
-        <f t="shared" ref="I26:I36" si="4">IF(OR(I$6="", B26=""),"",SUM(G26:H26))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="J26" s="65"/>
@@ -17422,11 +17420,11 @@
       <c r="F27" s="20"/>
       <c r="G27" s="65"/>
       <c r="H27" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I27" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I27" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J27" s="65"/>
@@ -17443,11 +17441,11 @@
       <c r="F28" s="20"/>
       <c r="G28" s="65"/>
       <c r="H28" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I28" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I28" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J28" s="65"/>
@@ -17464,11 +17462,11 @@
       <c r="F29" s="20"/>
       <c r="G29" s="65"/>
       <c r="H29" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I29" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I29" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J29" s="65"/>
@@ -17485,11 +17483,11 @@
       <c r="F30" s="19"/>
       <c r="G30" s="65"/>
       <c r="H30" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I30" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I30" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J30" s="65"/>
@@ -17506,11 +17504,11 @@
       <c r="F31" s="19"/>
       <c r="G31" s="65"/>
       <c r="H31" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I31" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I31" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J31" s="65"/>
@@ -17527,11 +17525,11 @@
       <c r="F32" s="19"/>
       <c r="G32" s="65"/>
       <c r="H32" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I32" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I32" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J32" s="65"/>
@@ -17548,11 +17546,11 @@
       <c r="F33" s="19"/>
       <c r="G33" s="65"/>
       <c r="H33" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I33" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I33" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J33" s="65"/>
@@ -17569,11 +17567,11 @@
       <c r="F34" s="19"/>
       <c r="G34" s="65"/>
       <c r="H34" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I34" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I34" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J34" s="65"/>
@@ -17590,11 +17588,11 @@
       <c r="F35" s="19"/>
       <c r="G35" s="65"/>
       <c r="H35" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I35" s="17" t="str">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="I35" s="17" t="str">
-        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="J35" s="65"/>
@@ -17611,18 +17609,18 @@
       <c r="F36" s="19"/>
       <c r="G36" s="65"/>
       <c r="H36" s="65" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="I36" s="17" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I36" s="17" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
       <c r="J36" s="65"/>
     </row>
     <row r="37" spans="1:10" s="52" customFormat="1" ht="15">
       <c r="A37" s="8" t="s">
-        <v>1682</v>
+        <v>1743</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>1129</v>
@@ -17640,7 +17638,7 @@
         <v>0</v>
       </c>
       <c r="F37" s="17">
-        <f t="shared" ref="F37:G37" si="6">IF(F6="","",SUM(F25:F36))</f>
+        <f t="shared" ref="F37" si="6">IF(F6="","",SUM(F25:F36))</f>
         <v>0</v>
       </c>
       <c r="G37" s="17"/>
@@ -17656,7 +17654,7 @@
     </row>
     <row r="38" spans="1:10" ht="15">
       <c r="A38" s="8" t="s">
-        <v>1682</v>
+        <v>1743</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>1123</v>
@@ -17730,7 +17728,10 @@
         <f>IF(OR(H$6="", C41=""),"",0)</f>
         <v/>
       </c>
-      <c r="I41" s="17"/>
+      <c r="I41" s="17" t="str">
+        <f t="shared" ref="I41:I49" si="10">IF(OR(I$6="", B41=""),"",SUM(G41:H41))</f>
+        <v/>
+      </c>
       <c r="J41" s="65" t="str">
         <f>IF(OR(J$6="", E41=""),"",SUM(D41:F41)-C41)</f>
         <v/>
@@ -17747,15 +17748,15 @@
       <c r="E42" s="20"/>
       <c r="F42" s="20"/>
       <c r="G42" s="65" t="str">
-        <f t="shared" ref="G42:H49" si="10">IF(OR(G$6="", B42=""),"",0)</f>
+        <f t="shared" ref="G42:H49" si="11">IF(OR(G$6="", B42=""),"",0)</f>
         <v/>
       </c>
       <c r="H42" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I42" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I42" s="17" t="str">
-        <f t="shared" ref="I42:I49" si="11">IF(OR($E$6="", F42=""),"",SUM(G42:H42))</f>
         <v/>
       </c>
       <c r="J42" s="65" t="str">
@@ -17774,15 +17775,15 @@
       <c r="E43" s="20"/>
       <c r="F43" s="20"/>
       <c r="G43" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H43" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I43" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H43" s="65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I43" s="17" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J43" s="65" t="str">
@@ -17801,15 +17802,15 @@
       <c r="E44" s="20"/>
       <c r="F44" s="20"/>
       <c r="G44" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H44" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I44" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H44" s="65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I44" s="17" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J44" s="65" t="str">
@@ -17828,15 +17829,15 @@
       <c r="E45" s="20"/>
       <c r="F45" s="20"/>
       <c r="G45" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H45" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I45" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H45" s="65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I45" s="17" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J45" s="65" t="str">
@@ -17855,15 +17856,15 @@
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
       <c r="G46" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H46" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I46" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H46" s="65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I46" s="17" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J46" s="65" t="str">
@@ -17882,15 +17883,15 @@
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
       <c r="G47" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H47" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I47" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H47" s="65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I47" s="17" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J47" s="65" t="str">
@@ -17909,15 +17910,15 @@
       <c r="E48" s="20"/>
       <c r="F48" s="20"/>
       <c r="G48" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H48" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I48" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H48" s="65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I48" s="17" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J48" s="65" t="str">
@@ -17936,15 +17937,15 @@
       <c r="E49" s="20"/>
       <c r="F49" s="20"/>
       <c r="G49" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="H49" s="65" t="str">
+        <f t="shared" si="11"/>
+        <v/>
+      </c>
+      <c r="I49" s="17" t="str">
         <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="H49" s="65" t="str">
-        <f t="shared" si="10"/>
-        <v/>
-      </c>
-      <c r="I49" s="17" t="str">
-        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="J49" s="65" t="str">
@@ -17954,7 +17955,7 @@
     </row>
     <row r="50" spans="1:10" ht="15">
       <c r="A50" s="8" t="s">
-        <v>1682</v>
+        <v>1743</v>
       </c>
       <c r="B50" s="10" t="s">
         <v>1128</v>
@@ -18028,14 +18029,14 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B54" s="18"/>
-      <c r="C54" s="101"/>
-      <c r="D54" s="102"/>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="99"/>
+      <c r="E54" s="99"/>
+      <c r="F54" s="99"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="17" t="str">
-        <f t="shared" ref="I54:I63" si="17">IF(OR($E$6="", F54=""),"",SUM(G54:H54))</f>
+        <f t="shared" ref="I54:I63" si="17">IF(OR(I$6="", B54=""),"",SUM(G54:H54))</f>
         <v/>
       </c>
       <c r="J54" s="20"/>
@@ -18046,10 +18047,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B55" s="18"/>
-      <c r="C55" s="101"/>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
+      <c r="C55" s="98"/>
+      <c r="D55" s="99"/>
+      <c r="E55" s="99"/>
+      <c r="F55" s="99"/>
       <c r="G55" s="20"/>
       <c r="H55" s="20"/>
       <c r="I55" s="17" t="str">
@@ -18064,10 +18065,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B56" s="18"/>
-      <c r="C56" s="101"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
+      <c r="C56" s="98"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="99"/>
+      <c r="F56" s="99"/>
       <c r="G56" s="20"/>
       <c r="H56" s="20"/>
       <c r="I56" s="17" t="str">
@@ -18082,10 +18083,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B57" s="18"/>
-      <c r="C57" s="101"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="102"/>
-      <c r="F57" s="102"/>
+      <c r="C57" s="98"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="99"/>
+      <c r="F57" s="99"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="17" t="str">
@@ -18100,10 +18101,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B58" s="18"/>
-      <c r="C58" s="101"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
-      <c r="F58" s="102"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="99"/>
+      <c r="F58" s="99"/>
       <c r="G58" s="20"/>
       <c r="H58" s="20"/>
       <c r="I58" s="17" t="str">
@@ -18118,10 +18119,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B59" s="18"/>
-      <c r="C59" s="101"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
-      <c r="F59" s="102"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="99"/>
+      <c r="E59" s="99"/>
+      <c r="F59" s="99"/>
       <c r="G59" s="20"/>
       <c r="H59" s="20"/>
       <c r="I59" s="17" t="str">
@@ -18136,10 +18137,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B60" s="18"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
-      <c r="F60" s="102"/>
+      <c r="C60" s="98"/>
+      <c r="D60" s="99"/>
+      <c r="E60" s="99"/>
+      <c r="F60" s="99"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="17" t="str">
@@ -18154,10 +18155,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B61" s="18"/>
-      <c r="C61" s="101"/>
-      <c r="D61" s="102"/>
-      <c r="E61" s="102"/>
-      <c r="F61" s="102"/>
+      <c r="C61" s="98"/>
+      <c r="D61" s="99"/>
+      <c r="E61" s="99"/>
+      <c r="F61" s="99"/>
       <c r="G61" s="20"/>
       <c r="H61" s="20"/>
       <c r="I61" s="17" t="str">
@@ -18172,14 +18173,14 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B62" s="18"/>
-      <c r="C62" s="101"/>
-      <c r="D62" s="102"/>
-      <c r="E62" s="102"/>
-      <c r="F62" s="102"/>
+      <c r="C62" s="98"/>
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
       <c r="G62" s="20"/>
       <c r="H62" s="20"/>
       <c r="I62" s="17" t="str">
-        <f>IF(OR($E$6="", F62=""),"",SUM(G62:H62))</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="J62" s="20"/>
@@ -18190,10 +18191,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B63" s="18"/>
-      <c r="C63" s="101"/>
-      <c r="D63" s="102"/>
-      <c r="E63" s="102"/>
-      <c r="F63" s="102"/>
+      <c r="C63" s="98"/>
+      <c r="D63" s="99"/>
+      <c r="E63" s="99"/>
+      <c r="F63" s="99"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="17" t="str">
@@ -18235,10 +18236,8 @@
       <c r="B65" s="15" t="s">
         <v>1143</v>
       </c>
-      <c r="C65" s="103"/>
-      <c r="D65" s="103"/>
-      <c r="E65" s="104"/>
-      <c r="F65" s="104"/>
+      <c r="C65" s="100"/>
+      <c r="D65" s="100"/>
       <c r="I65" s="15"/>
     </row>
     <row r="66" spans="1:10" ht="15">
@@ -18247,14 +18246,14 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B66" s="18"/>
-      <c r="C66" s="101"/>
-      <c r="D66" s="102"/>
-      <c r="E66" s="102"/>
-      <c r="F66" s="102"/>
+      <c r="C66" s="98"/>
+      <c r="D66" s="99"/>
+      <c r="E66" s="99"/>
+      <c r="F66" s="99"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="17" t="str">
-        <f t="shared" ref="I66:I70" si="18">IF(OR($E$6="", F66=""),"",SUM(G66:H66))</f>
+        <f t="shared" ref="I66:I70" si="18">IF(OR(I$6="", B66=""),"",SUM(G66:H66))</f>
         <v/>
       </c>
       <c r="J66" s="20"/>
@@ -18265,10 +18264,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B67" s="18"/>
-      <c r="C67" s="101"/>
-      <c r="D67" s="102"/>
-      <c r="E67" s="102"/>
-      <c r="F67" s="102"/>
+      <c r="C67" s="98"/>
+      <c r="D67" s="99"/>
+      <c r="E67" s="99"/>
+      <c r="F67" s="99"/>
       <c r="G67" s="20"/>
       <c r="H67" s="20"/>
       <c r="I67" s="17" t="str">
@@ -18283,10 +18282,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B68" s="18"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="102"/>
-      <c r="E68" s="102"/>
-      <c r="F68" s="102"/>
+      <c r="C68" s="98"/>
+      <c r="D68" s="99"/>
+      <c r="E68" s="99"/>
+      <c r="F68" s="99"/>
       <c r="G68" s="20"/>
       <c r="H68" s="20"/>
       <c r="I68" s="17" t="str">
@@ -18301,10 +18300,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B69" s="18"/>
-      <c r="C69" s="101"/>
-      <c r="D69" s="102"/>
-      <c r="E69" s="102"/>
-      <c r="F69" s="102"/>
+      <c r="C69" s="98"/>
+      <c r="D69" s="99"/>
+      <c r="E69" s="99"/>
+      <c r="F69" s="99"/>
       <c r="G69" s="20"/>
       <c r="H69" s="20"/>
       <c r="I69" s="17" t="str">
@@ -18319,10 +18318,10 @@
         <v>Choose from drop-down --&gt;</v>
       </c>
       <c r="B70" s="18"/>
-      <c r="C70" s="101"/>
-      <c r="D70" s="102"/>
-      <c r="E70" s="102"/>
-      <c r="F70" s="102"/>
+      <c r="C70" s="98"/>
+      <c r="D70" s="99"/>
+      <c r="E70" s="99"/>
+      <c r="F70" s="99"/>
       <c r="G70" s="20"/>
       <c r="H70" s="20"/>
       <c r="I70" s="17" t="str">
@@ -18387,21 +18386,15 @@
         <v/>
       </c>
     </row>
-    <row r="73" spans="1:10">
-      <c r="C73" s="104"/>
-      <c r="D73" s="104"/>
-      <c r="E73" s="104"/>
-      <c r="F73" s="104"/>
-    </row>
     <row r="74" spans="1:10" ht="15">
       <c r="A74" s="7"/>
       <c r="B74" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="C74" s="105"/>
-      <c r="D74" s="105"/>
-      <c r="E74" s="105"/>
-      <c r="F74" s="105"/>
+      <c r="C74" s="76"/>
+      <c r="D74" s="76"/>
+      <c r="E74" s="76"/>
+      <c r="F74" s="76"/>
       <c r="G74" s="13"/>
       <c r="H74" s="13"/>
       <c r="I74" s="13"/>
@@ -18414,15 +18407,15 @@
       <c r="B75" s="10" t="s">
         <v>1134</v>
       </c>
-      <c r="C75" s="101"/>
-      <c r="D75" s="102"/>
-      <c r="E75" s="102"/>
-      <c r="F75" s="102"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="99"/>
+      <c r="E75" s="99"/>
+      <c r="F75" s="99"/>
       <c r="G75" s="20"/>
       <c r="H75" s="20"/>
-      <c r="I75" s="17" t="str">
-        <f t="shared" ref="I75:I77" si="19">IF(OR($E$6="", F75=""),"",SUM(G75:H75))</f>
-        <v/>
+      <c r="I75" s="17">
+        <f>IF(I$6="","",SUM(G75:H75))</f>
+        <v>0</v>
       </c>
       <c r="J75" s="20"/>
     </row>
@@ -18433,15 +18426,15 @@
       <c r="B76" s="10" t="s">
         <v>1135</v>
       </c>
-      <c r="C76" s="101"/>
-      <c r="D76" s="102"/>
-      <c r="E76" s="102"/>
-      <c r="F76" s="102"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="99"/>
+      <c r="E76" s="99"/>
+      <c r="F76" s="99"/>
       <c r="G76" s="20"/>
       <c r="H76" s="20"/>
-      <c r="I76" s="17" t="str">
-        <f t="shared" si="19"/>
-        <v/>
+      <c r="I76" s="17">
+        <f t="shared" ref="I76:I77" si="19">IF(I$6="","",SUM(G76:H76))</f>
+        <v>0</v>
       </c>
       <c r="J76" s="20"/>
     </row>
@@ -18452,15 +18445,15 @@
       <c r="B77" s="10" t="s">
         <v>1136</v>
       </c>
-      <c r="C77" s="101"/>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102"/>
-      <c r="F77" s="102"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="99"/>
+      <c r="E77" s="99"/>
+      <c r="F77" s="99"/>
       <c r="G77" s="20"/>
       <c r="H77" s="20"/>
-      <c r="I77" s="17" t="str">
+      <c r="I77" s="17">
         <f t="shared" si="19"/>
-        <v/>
+        <v>0</v>
       </c>
       <c r="J77" s="20"/>
     </row>
@@ -18532,77 +18525,77 @@
     </row>
   </sheetData>
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
-  <conditionalFormatting sqref="C23 C37 C50 D74:H77 J74:J77 I74:I99 D53:G63">
-    <cfRule type="expression" dxfId="28" priority="46" stopIfTrue="1">
+  <conditionalFormatting sqref="C23 C37 C50 D53:G63 D74:H77 J74:J77 I74 I78:I99">
+    <cfRule type="expression" dxfId="28" priority="49" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C64:J64">
-    <cfRule type="expression" dxfId="27" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="34" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C71:J72">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="10" stopIfTrue="1">
       <formula>C$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D6:F6 D39:G40 D52:F52 D50:G51 D41:F49">
-    <cfRule type="expression" dxfId="25" priority="43" stopIfTrue="1">
+  <conditionalFormatting sqref="D6:F6 D52:F52">
+    <cfRule type="expression" dxfId="25" priority="46" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D65:J70">
-    <cfRule type="expression" dxfId="24" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="D39:G51">
+    <cfRule type="expression" dxfId="24" priority="6" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H39:H40 H50">
-    <cfRule type="expression" dxfId="23" priority="41" stopIfTrue="1">
+  <conditionalFormatting sqref="D65:J65 D66:H70 J66:J70">
+    <cfRule type="expression" dxfId="23" priority="16" stopIfTrue="1">
+      <formula>D$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H39:H50">
+    <cfRule type="expression" dxfId="22" priority="5" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5:J6 I39:I51 D7:I37">
-    <cfRule type="expression" dxfId="22" priority="36" stopIfTrue="1">
+  <conditionalFormatting sqref="H38:I38">
+    <cfRule type="expression" dxfId="21" priority="43" stopIfTrue="1">
+      <formula>H$6=""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:J6 D7:I37 I39:I51">
+    <cfRule type="expression" dxfId="20" priority="39" stopIfTrue="1">
       <formula>D$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H52:J63">
-    <cfRule type="expression" dxfId="21" priority="20" stopIfTrue="1">
+  <conditionalFormatting sqref="H52:J53 H54:H63 J54:J63">
+    <cfRule type="expression" dxfId="19" priority="23" stopIfTrue="1">
       <formula>H$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J7:J8 H38:I38 J23:J24 J37:J40 J50">
-    <cfRule type="expression" dxfId="20" priority="40" stopIfTrue="1">
-      <formula>H$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J9:J22">
-    <cfRule type="expression" dxfId="19" priority="6" stopIfTrue="1">
-      <formula>J$6=""</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J25:J36">
+  <conditionalFormatting sqref="J7:J50">
     <cfRule type="expression" dxfId="18" priority="4" stopIfTrue="1">
       <formula>J$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G41:G49">
-    <cfRule type="expression" dxfId="17" priority="3" stopIfTrue="1">
-      <formula>G$6=""</formula>
+  <conditionalFormatting sqref="I54:I63">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+      <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H41:H49">
-    <cfRule type="expression" dxfId="16" priority="2" stopIfTrue="1">
-      <formula>H$6=""</formula>
+  <conditionalFormatting sqref="I66:I70">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+      <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J41:J49">
-    <cfRule type="expression" dxfId="15" priority="1" stopIfTrue="1">
-      <formula>J$6=""</formula>
+  <conditionalFormatting sqref="I75:I77">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+      <formula>I$6=""</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B22 B25:B36 B41:B49" xr:uid="{F3C11D5E-2141-5546-AF1F-2279D6DA74D8}">
       <formula1>program_revenues</formula1>
     </dataValidation>
@@ -19981,7 +19974,7 @@
   <sheetProtection formatRows="0" insertRows="0" deleteRows="0"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <conditionalFormatting sqref="D7:I7 D8:J23 C23 D25:J36 C36 C37:J37 D38:J71 C60:J60 C70">
-    <cfRule type="expression" dxfId="14" priority="17" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="17" stopIfTrue="1">
       <formula>C$7=""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20309,12 +20302,12 @@
     </row>
     <row r="25" spans="1:5" ht="15">
       <c r="A25" s="7"/>
-      <c r="B25" s="98" t="s">
+      <c r="B25" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="99"/>
-      <c r="D25" s="99"/>
-      <c r="E25" s="100"/>
+      <c r="C25" s="102"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
     </row>
     <row r="26" spans="1:5" ht="15">
       <c r="A26" s="8" t="str">
@@ -21331,31 +21324,31 @@
     <mergeCell ref="B25:E25"/>
   </mergeCells>
   <conditionalFormatting sqref="C102">
-    <cfRule type="cellIs" dxfId="13" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="15" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C102:E102">
-    <cfRule type="cellIs" dxfId="11" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D102">
-    <cfRule type="cellIs" dxfId="10" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="12" priority="7" operator="notEqual">
       <formula>$D$102</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E102">
-    <cfRule type="cellIs" dxfId="8" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="11" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$102</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="9" operator="equal">
       <formula>$E$102</formula>
     </cfRule>
   </conditionalFormatting>
@@ -22689,31 +22682,31 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C101">
-    <cfRule type="cellIs" dxfId="6" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="4" stopIfTrue="1" operator="equal">
       <formula>$C$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="notEqual">
       <formula>$C$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C101:E101">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D101">
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="5" stopIfTrue="1" operator="equal">
       <formula>$D$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" operator="notEqual">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="notEqual">
       <formula>$D$101</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E101">
-    <cfRule type="cellIs" dxfId="1" priority="6" stopIfTrue="1" operator="notEqual">
+    <cfRule type="cellIs" dxfId="4" priority="6" stopIfTrue="1" operator="notEqual">
       <formula>$E$101</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>$E$101</formula>
     </cfRule>
   </conditionalFormatting>
